--- a/src/site/mining.xlsx
+++ b/src/site/mining.xlsx
@@ -969,11 +969,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3753,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5399,7 +5399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5412,11 +5414,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5489,16 +5491,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="E9" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -5694,9 +5696,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="E21" s="10" t="s">
         <v>245</v>
       </c>
@@ -5730,27 +5732,27 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -5973,53 +5975,53 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="E44" s="14" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -6737,16 +6739,16 @@
     <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="E86" s="14" t="s">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="E86" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
@@ -6782,10 +6784,10 @@
         <v>202</v>
       </c>
       <c r="F88" s="10">
-        <v>31217</v>
+        <v>13224</v>
       </c>
       <c r="G88" s="11">
-        <v>236063218390</v>
+        <v>100000000000</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6998,9 +7000,9 @@
       <c r="C99" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
@@ -7012,9 +7014,9 @@
       <c r="C100" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
@@ -7055,10 +7057,10 @@
         <v>202</v>
       </c>
       <c r="F103" s="10">
-        <v>31217</v>
+        <v>13224</v>
       </c>
       <c r="G103" s="11">
-        <v>236063218390</v>
+        <v>100000000000</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -7347,40 +7349,40 @@
       </c>
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="17"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="16"/>
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126"/>
     </row>
     <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="17"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="16"/>
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127"/>
     </row>
     <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="17"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="16"/>
     </row>
     <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="17"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="16"/>
     </row>
     <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="17"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="16"/>
     </row>
     <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="17"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="16"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E132" s="4"/>
@@ -7394,14 +7396,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/src/site/mining.xlsx
+++ b/src/site/mining.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="6" r:id="rId3"/>
-    <sheet name="Plan4" sheetId="4" r:id="rId4"/>
-    <sheet name="views" sheetId="5" r:id="rId5"/>
-    <sheet name="Plan5" sheetId="8" r:id="rId6"/>
+    <sheet name="Profile" sheetId="9" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="8" r:id="rId2"/>
+    <sheet name="Views" sheetId="5" r:id="rId3"/>
+    <sheet name="SB SQLs" sheetId="2" r:id="rId4"/>
+    <sheet name="Interfaces metrics" sheetId="1" r:id="rId5"/>
+    <sheet name="Comb 16" sheetId="6" r:id="rId6"/>
+    <sheet name="Test Case" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan3!$A$1:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Comb 16'!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="431">
   <si>
     <t>return</t>
   </si>
@@ -862,13 +863,466 @@
   </si>
   <si>
     <t>Total de palavras do metodo</t>
+  </si>
+  <si>
+    <t>select 'Primitive' as 'Class', return_type, count(*) as 'sub total', (count(*) * 100 / (select count(*) from interface_metrics)) as '%', '' as total, '' as 'total%'</t>
+  </si>
+  <si>
+    <t>from interface_metrics</t>
+  </si>
+  <si>
+    <t>where return_type in (select type from interface_metrics_types where class = 1)</t>
+  </si>
+  <si>
+    <t>GROUP BY return_type</t>
+  </si>
+  <si>
+    <t>union ALL</t>
+  </si>
+  <si>
+    <t>select 'Primitive', '', '', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>select 'Java API - Primitive Wrapper', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
+  </si>
+  <si>
+    <t>where return_type in (select type from interface_metrics_types where class = 2)</t>
+  </si>
+  <si>
+    <t>select 'Java API - Primitive Wrapper', '', '', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>select 'Java API - String', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>where return_type = (select type from interface_metrics_types where class = 3)</t>
+  </si>
+  <si>
+    <t>-- http://www.devmedia.com.br/visao-geral-da-interface-collection-em-java/25822</t>
+  </si>
+  <si>
+    <t>select 'Java API - Collection', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
+  </si>
+  <si>
+    <t>where return_type in (select type from interface_metrics_types where class = 4)</t>
+  </si>
+  <si>
+    <t>select 'Java API - Collection', '', '', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>select 'Java API - Other', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>where project_type = 'JAVA_LIBRARY'</t>
+  </si>
+  <si>
+    <t>and return_type not in (select type from interface_metrics_types)</t>
+  </si>
+  <si>
+    <t>select 'User defined', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>where project_type &lt;&gt; 'JAVA_LIBRARY'</t>
+  </si>
+  <si>
+    <t>select 'Primitive' as 'Class', type, count(*) as 'sub total', (count(*) * 100 / (select count(*) from interface_metrics)) as '%', '' as total, '' as 'total%'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from interface_metrics i, interface_metrics_types t </t>
+  </si>
+  <si>
+    <t>where t.class = 1</t>
+  </si>
+  <si>
+    <t>and ( i.params like concat('(',t.type,'%') or i.params like concat('%,',t.type,'%') )</t>
+  </si>
+  <si>
+    <t>GROUP BY type</t>
+  </si>
+  <si>
+    <t>select 'Java API - Primitive Wrapper', type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
+  </si>
+  <si>
+    <t>where t.class = 2</t>
+  </si>
+  <si>
+    <t>select 'Java API - String', type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>where t.class = 3</t>
+  </si>
+  <si>
+    <t>select 'Java API - Collection', type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
+  </si>
+  <si>
+    <t>where t.class = 4</t>
+  </si>
+  <si>
+    <t>select distinct 'Java API - Other [ONLY]', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>and id not in (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  select i.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from interface_metrics i, interface_metrics_types t </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  where( i.params like concat('(',t.type,'%') or i.params like concat('%,',t.type,'%') )</t>
+  </si>
+  <si>
+    <t>select 'User defined [ONLY]', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
+  </si>
+  <si>
+    <t>select 'ALL entity_type' as 'entities Filter', count(*) Total from entities</t>
+  </si>
+  <si>
+    <t>union all</t>
+  </si>
+  <si>
+    <t>select '1) entity_type = METHOD' as 'entities Filter', count(*) Total from entities</t>
+  </si>
+  <si>
+    <t>where entity_type = 'METHOD'</t>
+  </si>
+  <si>
+    <t>select '1) 2) modifiers like %PUBLIC%' as 'entities Filter', count(*) Total from entities</t>
+  </si>
+  <si>
+    <t>and modifiers like '%PUBLIC%'</t>
+  </si>
+  <si>
+    <t>select '1) 2) 3) modifiers not like %ABSTRACT%' as 'entities Filter', count(*) Total from entities</t>
+  </si>
+  <si>
+    <t>and modifiers not like '%ABSTRACT%'</t>
+  </si>
+  <si>
+    <t>select '1) 2) 3) 4) params &lt;&gt; ()' as 'entities Filter', count(*) Total from entities</t>
+  </si>
+  <si>
+    <t>and params &lt;&gt; '()'</t>
+  </si>
+  <si>
+    <t>select '1) 2) 3) 4) 5) return &lt;&gt; void' as 'entities Filter', count(*) Total from entities e1</t>
+  </si>
+  <si>
+    <t>select DISTINCT p.project_type, e1.entity_type, e1.modifiers, e1.fqn, e1.params, e2.fqn 'return_type', r.relation_type from entities e1</t>
+  </si>
+  <si>
+    <t>v_profile_filter</t>
+  </si>
+  <si>
+    <t>v_profile_params</t>
+  </si>
+  <si>
+    <t>v_profile_return</t>
+  </si>
+  <si>
+    <t>v_profile_filter_aux</t>
+  </si>
+  <si>
+    <t>select '1) 2) 3) 4) 5) 6) distinct interface sign' as 'entities Filter', count(*) Total from v_profile_filter_aux</t>
+  </si>
+  <si>
+    <t>ALL entity_type</t>
+  </si>
+  <si>
+    <t>1) entity_type = METHOD</t>
+  </si>
+  <si>
+    <t>1) 2) modifiers like %PUBLIC%</t>
+  </si>
+  <si>
+    <t>1) 2) 3) modifiers not like %ABSTRACT%</t>
+  </si>
+  <si>
+    <t>1) 2) 3) 4) params &lt;&gt; ()</t>
+  </si>
+  <si>
+    <t>1) 2) 3) 4) 5) return &lt;&gt; void</t>
+  </si>
+  <si>
+    <t>1) 2) 3) 4) 5) 6) distinct interface sign</t>
+  </si>
+  <si>
+    <t>select * from v_profile_filter</t>
+  </si>
+  <si>
+    <t>select * from v_profile_return</t>
+  </si>
+  <si>
+    <t>Primitive</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>0.231284650</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>0.178565354</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>0.949797625</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>0.482126458</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>0.329495595</t>
+  </si>
+  <si>
+    <t>Java API - Primitive Wrapper</t>
+  </si>
+  <si>
+    <t>java.lang.Boolean</t>
+  </si>
+  <si>
+    <t>0.139876194</t>
+  </si>
+  <si>
+    <t>java.lang.Character</t>
+  </si>
+  <si>
+    <t>0.011054045</t>
+  </si>
+  <si>
+    <t>java.lang.Double</t>
+  </si>
+  <si>
+    <t>0.036563382</t>
+  </si>
+  <si>
+    <t>java.lang.Float</t>
+  </si>
+  <si>
+    <t>0.026359647</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+  </si>
+  <si>
+    <t>0.122444814</t>
+  </si>
+  <si>
+    <t>java.lang.Long</t>
+  </si>
+  <si>
+    <t>0.049743206</t>
+  </si>
+  <si>
+    <t>java.lang.Short</t>
+  </si>
+  <si>
+    <t>0.019557157</t>
+  </si>
+  <si>
+    <t>0.405598449</t>
+  </si>
+  <si>
+    <t>Java API - String</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>Java API - Collection</t>
+  </si>
+  <si>
+    <t>java.util.ArrayList</t>
+  </si>
+  <si>
+    <t>0.080354409</t>
+  </si>
+  <si>
+    <t>java.util.Collection</t>
+  </si>
+  <si>
+    <t>0.136900105</t>
+  </si>
+  <si>
+    <t>java.util.HashMap</t>
+  </si>
+  <si>
+    <t>0.028060270</t>
+  </si>
+  <si>
+    <t>java.util.HashSet</t>
+  </si>
+  <si>
+    <t>0.002125778</t>
+  </si>
+  <si>
+    <t>java.util.Hashtable</t>
+  </si>
+  <si>
+    <t>0.025509336</t>
+  </si>
+  <si>
+    <t>java.util.LinkedHashMap</t>
+  </si>
+  <si>
+    <t>0.000850311</t>
+  </si>
+  <si>
+    <t>java.util.LinkedList</t>
+  </si>
+  <si>
+    <t>0.002550933</t>
+  </si>
+  <si>
+    <t>java.util.List</t>
+  </si>
+  <si>
+    <t>java.util.Map</t>
+  </si>
+  <si>
+    <t>0.208326247</t>
+  </si>
+  <si>
+    <t>java.util.Set</t>
+  </si>
+  <si>
+    <t>0.125846059</t>
+  </si>
+  <si>
+    <t>java.util.SortedMap</t>
+  </si>
+  <si>
+    <t>0.041240093</t>
+  </si>
+  <si>
+    <t>java.util.SortedSet</t>
+  </si>
+  <si>
+    <t>0.036138226</t>
+  </si>
+  <si>
+    <t>java.util.TreeMap</t>
+  </si>
+  <si>
+    <t>java.util.Vector</t>
+  </si>
+  <si>
+    <t>0.180265977</t>
+  </si>
+  <si>
+    <t>Java API - Other</t>
+  </si>
+  <si>
+    <t>java.nio.file.Path</t>
+  </si>
+  <si>
+    <t>User defined</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>select * from v_profile_params</t>
+  </si>
+  <si>
+    <t>0.683225060</t>
+  </si>
+  <si>
+    <t>0.486378014</t>
+  </si>
+  <si>
+    <t>0.235961361</t>
+  </si>
+  <si>
+    <t>0.009778578</t>
+  </si>
+  <si>
+    <t>0.055270228</t>
+  </si>
+  <si>
+    <t>0.027209958</t>
+  </si>
+  <si>
+    <t>0.136474949</t>
+  </si>
+  <si>
+    <t>0.135624638</t>
+  </si>
+  <si>
+    <t>0.017006224</t>
+  </si>
+  <si>
+    <t>0.617325941</t>
+  </si>
+  <si>
+    <t>0.047192272</t>
+  </si>
+  <si>
+    <t>0.594792694</t>
+  </si>
+  <si>
+    <t>0.031886670</t>
+  </si>
+  <si>
+    <t>0.004251556</t>
+  </si>
+  <si>
+    <t>0.101187034</t>
+  </si>
+  <si>
+    <t>0.059521784</t>
+  </si>
+  <si>
+    <t>0.003401244</t>
+  </si>
+  <si>
+    <t>0.899629264</t>
+  </si>
+  <si>
+    <t>0.890275840</t>
+  </si>
+  <si>
+    <t>0.120744192</t>
+  </si>
+  <si>
+    <t>0.019982313</t>
+  </si>
+  <si>
+    <t>java.util.TreeSet</t>
+  </si>
+  <si>
+    <t>0.001700622</t>
+  </si>
+  <si>
+    <t>0.223206693</t>
+  </si>
+  <si>
+    <t>Java API - Other [ONLY]</t>
+  </si>
+  <si>
+    <t>User defined [ONLY]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +1342,14 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -943,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,7 +1423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -974,6 +1435,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,9 +1738,5245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="9">
+        <v>6064495</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2003480</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1602644</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1380031</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="9">
+        <v>835327</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="9">
+        <v>401749</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="11">
+        <v>235208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>40314</v>
+      </c>
+      <c r="E13" s="10">
+        <v>17139723138</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>13549</v>
+      </c>
+      <c r="L13" s="10">
+        <v>5760433318</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="9">
+        <v>544</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="K14" s="9">
+        <v>5356</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2277133430</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="9">
+        <v>420</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3081</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1309904425</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2234</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3412</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1450630930</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1134</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1607</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9">
+        <v>19446</v>
+      </c>
+      <c r="E18" s="10">
+        <v>8267575932</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="9">
+        <v>48058</v>
+      </c>
+      <c r="L18" s="10">
+        <v>20432128158</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3145</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1337114383</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19" s="9">
+        <v>21765</v>
+      </c>
+      <c r="L19" s="10">
+        <v>9253511785</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="9">
+        <v>775</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1144</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
+        <v>68012</v>
+      </c>
+      <c r="G21" s="10">
+        <v>28915683140</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9">
+        <v>97972</v>
+      </c>
+      <c r="N21" s="10">
+        <v>41653345124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="9">
+        <v>329</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="K22" s="9">
+        <v>555</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="9">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="K23" s="9">
+        <v>23</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" s="9">
+        <v>86</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K24" s="9">
+        <v>130</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="9">
+        <v>62</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K25" s="9">
+        <v>64</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" s="9">
+        <v>288</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="K26" s="9">
+        <v>321</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="9">
+        <v>117</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="K27" s="9">
+        <v>319</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D28" s="9">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" s="9">
+        <v>40</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <v>954</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9">
+        <v>1452</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D30" s="9">
+        <v>24106</v>
+      </c>
+      <c r="E30" s="10">
+        <v>10248801061</v>
+      </c>
+      <c r="F30" s="9">
+        <v>24106</v>
+      </c>
+      <c r="G30" s="10">
+        <v>10248801061</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="K30" s="9">
+        <v>74563</v>
+      </c>
+      <c r="L30" s="10">
+        <v>31700877521</v>
+      </c>
+      <c r="M30" s="9">
+        <v>74563</v>
+      </c>
+      <c r="N30" s="10">
+        <v>31700877521</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="9">
+        <v>189</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K31" s="9">
+        <v>111</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" s="9">
+        <v>322</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1399</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D33" s="9">
+        <v>66</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="K33" s="9">
+        <v>75</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" s="9">
+        <v>5</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K34" s="9">
+        <v>10</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" s="9">
+        <v>60</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K35" s="9">
+        <v>238</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K36" s="9">
+        <v>140</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="9">
+        <v>6</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="K37" s="9">
+        <v>8</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D38" s="9">
+        <v>9612</v>
+      </c>
+      <c r="E38" s="10">
+        <v>4086595694</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K38" s="9">
+        <v>2116</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39" s="9">
+        <v>490</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="I39" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="K39" s="9">
+        <v>2094</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D40" s="9">
+        <v>296</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="I40" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="K40" s="9">
+        <v>284</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" s="9">
+        <v>97</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="I41" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="K41" s="9">
+        <v>46</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D42" s="9">
+        <v>85</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="K42" s="9">
+        <v>47</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="I43" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="K43" s="9">
+        <v>2</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" s="9">
+        <v>424</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="I44" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="K44" s="9">
+        <v>4</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
+        <v>11656</v>
+      </c>
+      <c r="G45" s="10">
+        <v>4955613754</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" s="9">
+        <v>525</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" s="9">
+        <v>14328</v>
+      </c>
+      <c r="E46" s="10">
+        <v>6091629536</v>
+      </c>
+      <c r="F46" s="9">
+        <v>14328</v>
+      </c>
+      <c r="G46" s="10">
+        <v>6091629536</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9">
+        <v>7099</v>
+      </c>
+      <c r="N46" s="10">
+        <v>3018179653</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9">
+        <v>116152</v>
+      </c>
+      <c r="E47" s="10">
+        <v>49382674058</v>
+      </c>
+      <c r="F47" s="9">
+        <v>116152</v>
+      </c>
+      <c r="G47" s="10">
+        <v>49382674058</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9">
+        <v>11687</v>
+      </c>
+      <c r="L47" s="10">
+        <v>4968793578</v>
+      </c>
+      <c r="M47" s="9">
+        <v>11687</v>
+      </c>
+      <c r="N47" s="10">
+        <v>4968793578</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9">
+        <f t="shared" ref="D48" si="0">SUM(D13:D47)</f>
+        <v>235208</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9">
+        <f>SUM(F13:F47)</f>
+        <v>235208</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="I48" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9">
+        <v>80023</v>
+      </c>
+      <c r="L48" s="10">
+        <v>34022227135</v>
+      </c>
+      <c r="M48" s="9">
+        <v>80023</v>
+      </c>
+      <c r="N48" s="10">
+        <v>34022227135</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I49" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9">
+        <f>SUM(K13:K48)</f>
+        <v>272796</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="9">
+        <f>SUM(M13:M48)</f>
+        <v>272796</v>
+      </c>
+      <c r="N49" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G133"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="9">
+        <v>235208</v>
+      </c>
+      <c r="D4" s="10">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11">
+        <v>31217</v>
+      </c>
+      <c r="D5" s="10">
+        <v>13272082582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9">
+        <v>179953</v>
+      </c>
+      <c r="D6" s="10">
+        <v>76508026937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9">
+        <v>24038</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10219890479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="E9" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="9">
+        <v>31217</v>
+      </c>
+      <c r="C11" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="9">
+        <v>13224</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="9">
+        <v>23411</v>
+      </c>
+      <c r="C12" s="10">
+        <v>74994394080</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="9">
+        <v>7806</v>
+      </c>
+      <c r="C13" s="10">
+        <v>25005605919</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="9">
+        <v>8156</v>
+      </c>
+      <c r="G13" s="10">
+        <v>61675741076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="9">
+        <v>136</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1028433151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1524</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4881955344</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5417</v>
+      </c>
+      <c r="G15" s="10">
+        <v>40963399879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="9">
+        <v>11700</v>
+      </c>
+      <c r="C16" s="10">
+        <v>37479578434</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5578</v>
+      </c>
+      <c r="G16" s="10">
+        <v>42180883242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="9">
+        <v>13224</v>
+      </c>
+      <c r="C17" s="10">
+        <v>42361533779</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="9">
+        <v>12769</v>
+      </c>
+      <c r="G17" s="10">
+        <v>96559286146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="9">
+        <v>12608</v>
+      </c>
+      <c r="G19" s="10">
+        <v>95341802782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="9">
+        <v>5664</v>
+      </c>
+      <c r="G20" s="10">
+        <v>42831215970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="E21" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="9">
+        <v>5752</v>
+      </c>
+      <c r="G21" s="10">
+        <v>43496672716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5913</v>
+      </c>
+      <c r="G22" s="10">
+        <v>44714156079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="9">
+        <v>13224</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="9">
+        <v>31217</v>
+      </c>
+      <c r="C29" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="9">
+        <v>13224</v>
+      </c>
+      <c r="G29" s="10">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5434</v>
+      </c>
+      <c r="C31" s="10">
+        <v>17407181984</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3643</v>
+      </c>
+      <c r="G31" s="10">
+        <v>27548396854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="9">
+        <v>25783</v>
+      </c>
+      <c r="C32" s="10">
+        <v>82592818015</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="9">
+        <v>9581</v>
+      </c>
+      <c r="G32" s="10">
+        <v>72451603145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10331</v>
+      </c>
+      <c r="C34" s="10">
+        <v>33094147419</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="9">
+        <v>4327</v>
+      </c>
+      <c r="G34" s="10">
+        <v>32720810647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="9">
+        <v>20886</v>
+      </c>
+      <c r="C35" s="10">
+        <v>66905852580</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="9">
+        <v>8897</v>
+      </c>
+      <c r="G35" s="10">
+        <v>67279189352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4596</v>
+      </c>
+      <c r="C37" s="10">
+        <v>14722747221</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="9">
+        <v>520</v>
+      </c>
+      <c r="G37" s="10">
+        <v>3932244404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="9">
+        <v>26621</v>
+      </c>
+      <c r="C38" s="10">
+        <v>85277252778</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="9">
+        <v>12704</v>
+      </c>
+      <c r="G38" s="10">
+        <v>96067755595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="E44" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="9">
+        <v>31217</v>
+      </c>
+      <c r="C46" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="9">
+        <v>13224</v>
+      </c>
+      <c r="G46" s="10">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9">
+        <v>15784</v>
+      </c>
+      <c r="C48" s="10">
+        <v>50562193676</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9">
+        <v>5511</v>
+      </c>
+      <c r="G48" s="10">
+        <v>41674228675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>2</v>
+      </c>
+      <c r="B49" s="9">
+        <v>6962</v>
+      </c>
+      <c r="C49" s="10">
+        <v>22301950860</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9">
+        <v>3215</v>
+      </c>
+      <c r="G49" s="10">
+        <v>24311857229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9">
+        <v>4152</v>
+      </c>
+      <c r="C50" s="10">
+        <v>13300445270</v>
+      </c>
+      <c r="E50" s="9">
+        <v>3</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2019</v>
+      </c>
+      <c r="G50" s="10">
+        <v>15267695099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>4</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1916</v>
+      </c>
+      <c r="C51" s="10">
+        <v>6137681391</v>
+      </c>
+      <c r="E51" s="9">
+        <v>4</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1158</v>
+      </c>
+      <c r="G51" s="10">
+        <v>8756805807</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>5</v>
+      </c>
+      <c r="B52" s="9">
+        <v>937</v>
+      </c>
+      <c r="C52" s="10">
+        <v>3001569657</v>
+      </c>
+      <c r="E52" s="9">
+        <v>5</v>
+      </c>
+      <c r="F52" s="9">
+        <v>419</v>
+      </c>
+      <c r="G52" s="10">
+        <v>3168481548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>6</v>
+      </c>
+      <c r="B53" s="9">
+        <v>453</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1451132395</v>
+      </c>
+      <c r="E53" s="9">
+        <v>6</v>
+      </c>
+      <c r="F53" s="9">
+        <v>263</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1988808227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>7</v>
+      </c>
+      <c r="B54" s="9">
+        <v>193</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="9">
+        <v>7</v>
+      </c>
+      <c r="F54" s="9">
+        <v>104</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>8</v>
+      </c>
+      <c r="B55" s="9">
+        <v>119</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="9">
+        <v>8</v>
+      </c>
+      <c r="F55" s="9">
+        <v>73</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>9</v>
+      </c>
+      <c r="B56" s="9">
+        <v>106</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="9">
+        <v>9</v>
+      </c>
+      <c r="F56" s="9">
+        <v>75</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>10</v>
+      </c>
+      <c r="B57" s="9">
+        <v>86</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="9">
+        <v>10</v>
+      </c>
+      <c r="F57" s="9">
+        <v>49</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>11</v>
+      </c>
+      <c r="B58" s="9">
+        <v>70</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" s="9">
+        <v>11</v>
+      </c>
+      <c r="F58" s="9">
+        <v>60</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>12</v>
+      </c>
+      <c r="B59" s="9">
+        <v>104</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="9">
+        <v>12</v>
+      </c>
+      <c r="F59" s="9">
+        <v>51</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>13</v>
+      </c>
+      <c r="B60" s="9">
+        <v>61</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="9">
+        <v>13</v>
+      </c>
+      <c r="F60" s="9">
+        <v>42</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>14</v>
+      </c>
+      <c r="B61" s="9">
+        <v>38</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="9">
+        <v>14</v>
+      </c>
+      <c r="F61" s="9">
+        <v>12</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>15</v>
+      </c>
+      <c r="B62" s="9">
+        <v>50</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" s="9">
+        <v>15</v>
+      </c>
+      <c r="F62" s="9">
+        <v>25</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>16</v>
+      </c>
+      <c r="B63" s="9">
+        <v>26</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="9">
+        <v>16</v>
+      </c>
+      <c r="F63" s="9">
+        <v>22</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>17</v>
+      </c>
+      <c r="B64" s="9">
+        <v>4</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="9">
+        <v>17</v>
+      </c>
+      <c r="F64" s="9">
+        <v>4</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>18</v>
+      </c>
+      <c r="B65" s="9">
+        <v>8</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="9">
+        <v>19</v>
+      </c>
+      <c r="F65" s="9">
+        <v>13</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>19</v>
+      </c>
+      <c r="B66" s="9">
+        <v>18</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="9">
+        <v>20</v>
+      </c>
+      <c r="F66" s="9">
+        <v>4</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>20</v>
+      </c>
+      <c r="B67" s="9">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="9">
+        <v>21</v>
+      </c>
+      <c r="F67" s="9">
+        <v>11</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>21</v>
+      </c>
+      <c r="B68" s="9">
+        <v>18</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="9">
+        <v>22</v>
+      </c>
+      <c r="F68" s="9">
+        <v>16</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>22</v>
+      </c>
+      <c r="B69" s="9">
+        <v>17</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" s="9">
+        <v>23</v>
+      </c>
+      <c r="F69" s="9">
+        <v>23</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>23</v>
+      </c>
+      <c r="B70" s="9">
+        <v>24</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="9">
+        <v>24</v>
+      </c>
+      <c r="F70" s="9">
+        <v>16</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>24</v>
+      </c>
+      <c r="B71" s="9">
+        <v>16</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="9">
+        <v>26</v>
+      </c>
+      <c r="F71" s="9">
+        <v>6</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>26</v>
+      </c>
+      <c r="B72" s="9">
+        <v>6</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" s="9">
+        <v>28</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>27</v>
+      </c>
+      <c r="B73" s="9">
+        <v>8</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="9">
+        <v>29</v>
+      </c>
+      <c r="F73" s="9">
+        <v>3</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>28</v>
+      </c>
+      <c r="B74" s="9">
+        <v>1</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="9">
+        <v>30</v>
+      </c>
+      <c r="F74" s="9">
+        <v>7</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>29</v>
+      </c>
+      <c r="B75" s="9">
+        <v>3</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="9">
+        <v>31</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>30</v>
+      </c>
+      <c r="B76" s="9">
+        <v>8</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="9">
+        <v>32</v>
+      </c>
+      <c r="F76" s="9">
+        <v>3</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>31</v>
+      </c>
+      <c r="B77" s="9">
+        <v>1</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="9">
+        <v>33</v>
+      </c>
+      <c r="F77" s="9">
+        <v>10</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>32</v>
+      </c>
+      <c r="B78" s="9">
+        <v>3</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="9">
+        <v>34</v>
+      </c>
+      <c r="F78" s="9">
+        <v>8</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>33</v>
+      </c>
+      <c r="B79" s="9">
+        <v>10</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>34</v>
+      </c>
+      <c r="B80" s="9">
+        <v>8</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>36</v>
+      </c>
+      <c r="B81" s="9">
+        <v>3</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="E86" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="9">
+        <v>31217</v>
+      </c>
+      <c r="C88" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F88" s="9">
+        <v>13224</v>
+      </c>
+      <c r="G88" s="10">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>1</v>
+      </c>
+      <c r="B90" s="9">
+        <v>6828</v>
+      </c>
+      <c r="C90" s="10">
+        <v>21872697568</v>
+      </c>
+      <c r="E90" s="9">
+        <v>1</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1992</v>
+      </c>
+      <c r="G90" s="10">
+        <v>15063520871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>2</v>
+      </c>
+      <c r="B91" s="9">
+        <v>10122</v>
+      </c>
+      <c r="C91" s="10">
+        <v>32424640420</v>
+      </c>
+      <c r="E91" s="9">
+        <v>2</v>
+      </c>
+      <c r="F91" s="9">
+        <v>3669</v>
+      </c>
+      <c r="G91" s="10">
+        <v>27745009074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>3</v>
+      </c>
+      <c r="B92" s="9">
+        <v>6372</v>
+      </c>
+      <c r="C92" s="10">
+        <v>20411955024</v>
+      </c>
+      <c r="E92" s="9">
+        <v>3</v>
+      </c>
+      <c r="F92" s="9">
+        <v>2737</v>
+      </c>
+      <c r="G92" s="10">
+        <v>20697217180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>4</v>
+      </c>
+      <c r="B93" s="9">
+        <v>5280</v>
+      </c>
+      <c r="C93" s="10">
+        <v>16913861037</v>
+      </c>
+      <c r="E93" s="9">
+        <v>4</v>
+      </c>
+      <c r="F93" s="9">
+        <v>3167</v>
+      </c>
+      <c r="G93" s="10">
+        <v>23948880822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>5</v>
+      </c>
+      <c r="B94" s="9">
+        <v>1761</v>
+      </c>
+      <c r="C94" s="10">
+        <v>5641157061</v>
+      </c>
+      <c r="E94" s="9">
+        <v>5</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1164</v>
+      </c>
+      <c r="G94" s="10">
+        <v>8802177858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>6</v>
+      </c>
+      <c r="B95" s="9">
+        <v>321</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1028285869</v>
+      </c>
+      <c r="E95" s="9">
+        <v>6</v>
+      </c>
+      <c r="F95" s="9">
+        <v>127</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>7</v>
+      </c>
+      <c r="B96" s="9">
+        <v>457</v>
+      </c>
+      <c r="C96" s="10">
+        <v>1463945926</v>
+      </c>
+      <c r="E96" s="9">
+        <v>7</v>
+      </c>
+      <c r="F96" s="9">
+        <v>341</v>
+      </c>
+      <c r="G96" s="10">
+        <v>2578644888</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>8</v>
+      </c>
+      <c r="B97" s="9">
+        <v>61</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="9">
+        <v>8</v>
+      </c>
+      <c r="F97" s="9">
+        <v>23</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>9</v>
+      </c>
+      <c r="B98" s="9">
+        <v>5</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="9">
+        <v>9</v>
+      </c>
+      <c r="F98" s="9">
+        <v>4</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>10</v>
+      </c>
+      <c r="B99" s="9">
+        <v>4</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>12</v>
+      </c>
+      <c r="B100" s="9">
+        <v>6</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="9">
+        <v>31217</v>
+      </c>
+      <c r="C103" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" s="9">
+        <v>13224</v>
+      </c>
+      <c r="G103" s="10">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>1</v>
+      </c>
+      <c r="B105" s="9">
+        <v>1814</v>
+      </c>
+      <c r="C105" s="10">
+        <v>5810936348</v>
+      </c>
+      <c r="E105" s="9">
+        <v>1</v>
+      </c>
+      <c r="F105" s="9">
+        <v>637</v>
+      </c>
+      <c r="G105" s="10">
+        <v>4816999395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>2</v>
+      </c>
+      <c r="B106" s="9">
+        <v>9193</v>
+      </c>
+      <c r="C106" s="10">
+        <v>29448697824</v>
+      </c>
+      <c r="E106" s="9">
+        <v>2</v>
+      </c>
+      <c r="F106" s="9">
+        <v>3673</v>
+      </c>
+      <c r="G106" s="10">
+        <v>27775257108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>3</v>
+      </c>
+      <c r="B107" s="9">
+        <v>9850</v>
+      </c>
+      <c r="C107" s="10">
+        <v>31553320306</v>
+      </c>
+      <c r="E107" s="9">
+        <v>3</v>
+      </c>
+      <c r="F107" s="9">
+        <v>4318</v>
+      </c>
+      <c r="G107" s="10">
+        <v>32652752571</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>4</v>
+      </c>
+      <c r="B108" s="9">
+        <v>6466</v>
+      </c>
+      <c r="C108" s="10">
+        <v>20713073005</v>
+      </c>
+      <c r="E108" s="9">
+        <v>4</v>
+      </c>
+      <c r="F108" s="9">
+        <v>3024</v>
+      </c>
+      <c r="G108" s="10">
+        <v>22867513611</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>5</v>
+      </c>
+      <c r="B109" s="9">
+        <v>2867</v>
+      </c>
+      <c r="C109" s="10">
+        <v>9184098407</v>
+      </c>
+      <c r="E109" s="9">
+        <v>5</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1270</v>
+      </c>
+      <c r="G109" s="10">
+        <v>9603750756</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>6</v>
+      </c>
+      <c r="B110" s="9">
+        <v>662</v>
+      </c>
+      <c r="C110" s="10">
+        <v>2120639395</v>
+      </c>
+      <c r="E110" s="9">
+        <v>6</v>
+      </c>
+      <c r="F110" s="9">
+        <v>216</v>
+      </c>
+      <c r="G110" s="10">
+        <v>1633393829</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>7</v>
+      </c>
+      <c r="B111" s="9">
+        <v>220</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E111" s="9">
+        <v>7</v>
+      </c>
+      <c r="F111" s="9">
+        <v>57</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>8</v>
+      </c>
+      <c r="B112" s="9">
+        <v>89</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="9">
+        <v>8</v>
+      </c>
+      <c r="F112" s="9">
+        <v>23</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>9</v>
+      </c>
+      <c r="B113" s="9">
+        <v>15</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="9">
+        <v>11</v>
+      </c>
+      <c r="F113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>10</v>
+      </c>
+      <c r="B114" s="9">
+        <v>3</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114" s="9">
+        <v>12</v>
+      </c>
+      <c r="F114" s="9">
+        <v>3</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>11</v>
+      </c>
+      <c r="B115" s="9">
+        <v>14</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E115" s="9">
+        <v>14</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>12</v>
+      </c>
+      <c r="B116" s="9">
+        <v>14</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E116" s="9">
+        <v>15</v>
+      </c>
+      <c r="F116" s="9">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>14</v>
+      </c>
+      <c r="B117" s="9">
+        <v>8</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>15</v>
+      </c>
+      <c r="B118" s="9">
+        <v>2</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="15"/>
+    </row>
+    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="15"/>
+    </row>
+    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="15"/>
+    </row>
+    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="15"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Página &amp;P de &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A202"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A137" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A153" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E124"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4">
+        <v>6064495</v>
+      </c>
+      <c r="D1" s="5">
+        <v>6068396</v>
+      </c>
+      <c r="E1" s="5">
+        <v>440046896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1262</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1265</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30719427</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30734699</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4">
+        <v>226893</v>
+      </c>
+      <c r="D4" s="4">
+        <v>226988</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15849</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15849</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>209738</v>
+      </c>
+      <c r="D9" s="4">
+        <v>209833</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1306</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1306</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>226893</v>
+      </c>
+      <c r="D11" s="4">
+        <v>226988</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1149</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>1262</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10163590</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10177066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4">
+        <v>18204432</v>
+      </c>
+      <c r="D22" s="4">
+        <v>18204868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4">
+        <v>76201</v>
+      </c>
+      <c r="D23" s="4">
+        <v>76201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1718834</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1719528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4">
+        <v>556370</v>
+      </c>
+      <c r="D25" s="4">
+        <v>557036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <v>30719427</v>
+      </c>
+      <c r="D26" s="4">
+        <v>30734699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5834345</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5837866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="4">
+        <v>229743</v>
+      </c>
+      <c r="D30" s="4">
+        <v>229838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4">
+        <v>105527</v>
+      </c>
+      <c r="D31" s="4">
+        <v>105564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3281719</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3283552</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2012805</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2014242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3785113</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3787952</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1692438</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1692956</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9894907</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9898051</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1357111</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1357534</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="4">
+        <v>637235</v>
+      </c>
+      <c r="D38" s="4">
+        <v>637602</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="4">
+        <v>478647</v>
+      </c>
+      <c r="D39" s="4">
+        <v>478918</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="4">
+        <v>121642</v>
+      </c>
+      <c r="D40" s="4">
+        <v>121824</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="4">
+        <v>26571</v>
+      </c>
+      <c r="D41" s="4">
+        <v>26821</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1163812</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1163812</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="4">
+        <v>21757</v>
+      </c>
+      <c r="D43" s="4">
+        <v>21792</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="4">
+        <v>13388</v>
+      </c>
+      <c r="D44" s="4">
+        <v>13394</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="4">
+        <v>21898</v>
+      </c>
+      <c r="D45" s="4">
+        <v>22034</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="4">
+        <v>29951</v>
+      </c>
+      <c r="D46" s="4">
+        <v>30115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1872</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="4">
+        <v>119</v>
+      </c>
+      <c r="D48" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8827</v>
+      </c>
+      <c r="D49" s="4">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4">
+        <v>30719427</v>
+      </c>
+      <c r="D50" s="4">
+        <v>30734699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="4">
+        <v>20158</v>
+      </c>
+      <c r="D53" s="4">
+        <v>20175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="4">
+        <v>191437</v>
+      </c>
+      <c r="D54" s="4">
+        <v>191489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="4">
+        <v>35598</v>
+      </c>
+      <c r="D55" s="4">
+        <v>35631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="4">
+        <v>872</v>
+      </c>
+      <c r="D56" s="4">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1842</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45685</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="4">
+        <v>988722</v>
+      </c>
+      <c r="D59" s="4">
+        <v>989120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="4">
+        <v>6029</v>
+      </c>
+      <c r="D60" s="4">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="4">
+        <v>270403</v>
+      </c>
+      <c r="D61" s="4">
+        <v>270546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2003480</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2004901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="4">
+        <v>3296</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2286981</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2288378</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="4">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="4">
+        <v>21757</v>
+      </c>
+      <c r="D66" s="4">
+        <v>21792</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1562</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1291</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="4">
+        <v>21898</v>
+      </c>
+      <c r="D69" s="4">
+        <v>22034</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3133</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="4">
+        <v>99</v>
+      </c>
+      <c r="D71" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="4">
+        <v>160243</v>
+      </c>
+      <c r="D72" s="4">
+        <v>160422</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4">
+        <v>6064495</v>
+      </c>
+      <c r="D73" s="4">
+        <v>6068396</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
+        <v>835003</v>
+      </c>
+      <c r="C93" s="4">
+        <v>835.00300000000004</v>
+      </c>
+      <c r="D93" s="4">
+        <v>13.916716666666668</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>42243.658333333333</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="5">
+        <v>290029</v>
+      </c>
+      <c r="C124">
+        <f>B124/1000</f>
+        <v>290.029</v>
+      </c>
+      <c r="D124">
+        <f>C124/60</f>
+        <v>4.8338166666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P280"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3749,1108 +9448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="4">
-        <v>6064495</v>
-      </c>
-      <c r="D1" s="5">
-        <v>6068396</v>
-      </c>
-      <c r="E1" s="5">
-        <v>440046896</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1262</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1265</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4">
-        <v>30719427</v>
-      </c>
-      <c r="D3" s="4">
-        <v>30734699</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4">
-        <v>226893</v>
-      </c>
-      <c r="D4" s="4">
-        <v>226988</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4">
-        <v>15849</v>
-      </c>
-      <c r="D8" s="4">
-        <v>15849</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>209738</v>
-      </c>
-      <c r="D9" s="4">
-        <v>209833</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1306</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1306</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <v>226893</v>
-      </c>
-      <c r="D11" s="4">
-        <v>226988</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4">
-        <v>100</v>
-      </c>
-      <c r="D16" s="4">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1149</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
-        <v>1262</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10163590</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10177066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="4">
-        <v>18204432</v>
-      </c>
-      <c r="D22" s="4">
-        <v>18204868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="4">
-        <v>76201</v>
-      </c>
-      <c r="D23" s="4">
-        <v>76201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1718834</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1719528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="4">
-        <v>556370</v>
-      </c>
-      <c r="D25" s="4">
-        <v>557036</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <v>30719427</v>
-      </c>
-      <c r="D26" s="4">
-        <v>30734699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5834345</v>
-      </c>
-      <c r="D29" s="4">
-        <v>5837866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="4">
-        <v>229743</v>
-      </c>
-      <c r="D30" s="4">
-        <v>229838</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4">
-        <v>105527</v>
-      </c>
-      <c r="D31" s="4">
-        <v>105564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3281719</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3283552</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2012805</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2014242</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="4">
-        <v>3785113</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3787952</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1692438</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1692956</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="4">
-        <v>9894907</v>
-      </c>
-      <c r="D36" s="4">
-        <v>9898051</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1357111</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1357534</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="4">
-        <v>637235</v>
-      </c>
-      <c r="D38" s="4">
-        <v>637602</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="4">
-        <v>478647</v>
-      </c>
-      <c r="D39" s="4">
-        <v>478918</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="4">
-        <v>121642</v>
-      </c>
-      <c r="D40" s="4">
-        <v>121824</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="4">
-        <v>26571</v>
-      </c>
-      <c r="D41" s="4">
-        <v>26821</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1163812</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1163812</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="4">
-        <v>21757</v>
-      </c>
-      <c r="D43" s="4">
-        <v>21792</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="4">
-        <v>13388</v>
-      </c>
-      <c r="D44" s="4">
-        <v>13394</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="4">
-        <v>21898</v>
-      </c>
-      <c r="D45" s="4">
-        <v>22034</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="4">
-        <v>29951</v>
-      </c>
-      <c r="D46" s="4">
-        <v>30115</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1872</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="4">
-        <v>119</v>
-      </c>
-      <c r="D48" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="4">
-        <v>8827</v>
-      </c>
-      <c r="D49" s="4">
-        <v>8829</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4">
-        <v>30719427</v>
-      </c>
-      <c r="D50" s="4">
-        <v>30734699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="4">
-        <v>20158</v>
-      </c>
-      <c r="D53" s="4">
-        <v>20175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="4">
-        <v>191437</v>
-      </c>
-      <c r="D54" s="4">
-        <v>191489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="4">
-        <v>35598</v>
-      </c>
-      <c r="D55" s="4">
-        <v>35631</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="4">
-        <v>872</v>
-      </c>
-      <c r="D56" s="4">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1842</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="4">
-        <v>45685</v>
-      </c>
-      <c r="D58" s="4">
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="4">
-        <v>988722</v>
-      </c>
-      <c r="D59" s="4">
-        <v>989120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="4">
-        <v>6029</v>
-      </c>
-      <c r="D60" s="4">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="4">
-        <v>270403</v>
-      </c>
-      <c r="D61" s="4">
-        <v>270546</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="4">
-        <v>2003480</v>
-      </c>
-      <c r="D62" s="4">
-        <v>2004901</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="4">
-        <v>3296</v>
-      </c>
-      <c r="D63" s="4">
-        <v>3308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="4">
-        <v>2286981</v>
-      </c>
-      <c r="D64" s="4">
-        <v>2288378</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="4">
-        <v>9</v>
-      </c>
-      <c r="D65" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="4">
-        <v>21757</v>
-      </c>
-      <c r="D66" s="4">
-        <v>21792</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="4">
-        <v>1562</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1291</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="4">
-        <v>21898</v>
-      </c>
-      <c r="D69" s="4">
-        <v>22034</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="4">
-        <v>3133</v>
-      </c>
-      <c r="D70" s="4">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="4">
-        <v>99</v>
-      </c>
-      <c r="D71" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="4">
-        <v>160243</v>
-      </c>
-      <c r="D72" s="4">
-        <v>160422</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4">
-        <v>6064495</v>
-      </c>
-      <c r="D73" s="4">
-        <v>6068396</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="4">
-        <v>835003</v>
-      </c>
-      <c r="C93" s="4">
-        <v>835.00300000000004</v>
-      </c>
-      <c r="D93" s="4">
-        <v>13.916716666666668</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>42243.658333333333</v>
-      </c>
-      <c r="B123" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="5">
-        <v>290029</v>
-      </c>
-      <c r="C124">
-        <f>B124/1000</f>
-        <v>290.029</v>
-      </c>
-      <c r="D124">
-        <f>C124/60</f>
-        <v>4.8338166666666664</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -5166,7 +9764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5272,2143 +9870,4 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G133"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="10">
-        <v>235208</v>
-      </c>
-      <c r="D4" s="11">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="12">
-        <v>31217</v>
-      </c>
-      <c r="D5" s="11">
-        <v>13272082582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="10">
-        <v>179953</v>
-      </c>
-      <c r="D6" s="11">
-        <v>76508026937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="10">
-        <v>24038</v>
-      </c>
-      <c r="D7" s="11">
-        <v>10219890479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="E9" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="10">
-        <v>31217</v>
-      </c>
-      <c r="C11" s="11">
-        <v>100000000000</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="10">
-        <v>13224</v>
-      </c>
-      <c r="G11" s="11">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="10">
-        <v>23411</v>
-      </c>
-      <c r="C12" s="11">
-        <v>74994394080</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="10">
-        <v>7806</v>
-      </c>
-      <c r="C13" s="11">
-        <v>25005605919</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="10">
-        <v>8156</v>
-      </c>
-      <c r="G13" s="11">
-        <v>61675741076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="10">
-        <v>136</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1028433151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1524</v>
-      </c>
-      <c r="C15" s="11">
-        <v>4881955344</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="10">
-        <v>5417</v>
-      </c>
-      <c r="G15" s="11">
-        <v>40963399879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="10">
-        <v>11700</v>
-      </c>
-      <c r="C16" s="11">
-        <v>37479578434</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="10">
-        <v>5578</v>
-      </c>
-      <c r="G16" s="11">
-        <v>42180883242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="10">
-        <v>13224</v>
-      </c>
-      <c r="C17" s="11">
-        <v>42361533779</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="10">
-        <v>12769</v>
-      </c>
-      <c r="G17" s="11">
-        <v>96559286146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="10">
-        <v>12608</v>
-      </c>
-      <c r="G19" s="11">
-        <v>95341802782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="10">
-        <v>5664</v>
-      </c>
-      <c r="G20" s="11">
-        <v>42831215970</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="E21" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="10">
-        <v>5752</v>
-      </c>
-      <c r="G21" s="11">
-        <v>43496672716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" s="10">
-        <v>5913</v>
-      </c>
-      <c r="G22" s="11">
-        <v>44714156079</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="10">
-        <v>13224</v>
-      </c>
-      <c r="G23" s="11">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="10">
-        <v>31217</v>
-      </c>
-      <c r="C29" s="11">
-        <v>100000000000</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F29" s="10">
-        <v>13224</v>
-      </c>
-      <c r="G29" s="11">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="10">
-        <v>5434</v>
-      </c>
-      <c r="C31" s="11">
-        <v>17407181984</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="10">
-        <v>3643</v>
-      </c>
-      <c r="G31" s="11">
-        <v>27548396854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="10">
-        <v>25783</v>
-      </c>
-      <c r="C32" s="11">
-        <v>82592818015</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F32" s="10">
-        <v>9581</v>
-      </c>
-      <c r="G32" s="11">
-        <v>72451603145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="10">
-        <v>10331</v>
-      </c>
-      <c r="C34" s="11">
-        <v>33094147419</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="10">
-        <v>4327</v>
-      </c>
-      <c r="G34" s="11">
-        <v>32720810647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="10">
-        <v>20886</v>
-      </c>
-      <c r="C35" s="11">
-        <v>66905852580</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="10">
-        <v>8897</v>
-      </c>
-      <c r="G35" s="11">
-        <v>67279189352</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="10">
-        <v>4596</v>
-      </c>
-      <c r="C37" s="11">
-        <v>14722747221</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="10">
-        <v>520</v>
-      </c>
-      <c r="G37" s="11">
-        <v>3932244404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" s="10">
-        <v>26621</v>
-      </c>
-      <c r="C38" s="11">
-        <v>85277252778</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="10">
-        <v>12704</v>
-      </c>
-      <c r="G38" s="11">
-        <v>96067755595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="E44" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="10">
-        <v>31217</v>
-      </c>
-      <c r="C46" s="11">
-        <v>100000000000</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="10">
-        <v>13224</v>
-      </c>
-      <c r="G46" s="11">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>1</v>
-      </c>
-      <c r="B48" s="10">
-        <v>15784</v>
-      </c>
-      <c r="C48" s="11">
-        <v>50562193676</v>
-      </c>
-      <c r="E48" s="10">
-        <v>1</v>
-      </c>
-      <c r="F48" s="10">
-        <v>5511</v>
-      </c>
-      <c r="G48" s="11">
-        <v>41674228675</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>2</v>
-      </c>
-      <c r="B49" s="10">
-        <v>6962</v>
-      </c>
-      <c r="C49" s="11">
-        <v>22301950860</v>
-      </c>
-      <c r="E49" s="10">
-        <v>2</v>
-      </c>
-      <c r="F49" s="10">
-        <v>3215</v>
-      </c>
-      <c r="G49" s="11">
-        <v>24311857229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>3</v>
-      </c>
-      <c r="B50" s="10">
-        <v>4152</v>
-      </c>
-      <c r="C50" s="11">
-        <v>13300445270</v>
-      </c>
-      <c r="E50" s="10">
-        <v>3</v>
-      </c>
-      <c r="F50" s="10">
-        <v>2019</v>
-      </c>
-      <c r="G50" s="11">
-        <v>15267695099</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>4</v>
-      </c>
-      <c r="B51" s="10">
-        <v>1916</v>
-      </c>
-      <c r="C51" s="11">
-        <v>6137681391</v>
-      </c>
-      <c r="E51" s="10">
-        <v>4</v>
-      </c>
-      <c r="F51" s="10">
-        <v>1158</v>
-      </c>
-      <c r="G51" s="11">
-        <v>8756805807</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>5</v>
-      </c>
-      <c r="B52" s="10">
-        <v>937</v>
-      </c>
-      <c r="C52" s="11">
-        <v>3001569657</v>
-      </c>
-      <c r="E52" s="10">
-        <v>5</v>
-      </c>
-      <c r="F52" s="10">
-        <v>419</v>
-      </c>
-      <c r="G52" s="11">
-        <v>3168481548</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>6</v>
-      </c>
-      <c r="B53" s="10">
-        <v>453</v>
-      </c>
-      <c r="C53" s="11">
-        <v>1451132395</v>
-      </c>
-      <c r="E53" s="10">
-        <v>6</v>
-      </c>
-      <c r="F53" s="10">
-        <v>263</v>
-      </c>
-      <c r="G53" s="11">
-        <v>1988808227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>7</v>
-      </c>
-      <c r="B54" s="10">
-        <v>193</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" s="10">
-        <v>7</v>
-      </c>
-      <c r="F54" s="10">
-        <v>104</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>8</v>
-      </c>
-      <c r="B55" s="10">
-        <v>119</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E55" s="10">
-        <v>8</v>
-      </c>
-      <c r="F55" s="10">
-        <v>73</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>9</v>
-      </c>
-      <c r="B56" s="10">
-        <v>106</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="10">
-        <v>9</v>
-      </c>
-      <c r="F56" s="10">
-        <v>75</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>10</v>
-      </c>
-      <c r="B57" s="10">
-        <v>86</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57" s="10">
-        <v>10</v>
-      </c>
-      <c r="F57" s="10">
-        <v>49</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>11</v>
-      </c>
-      <c r="B58" s="10">
-        <v>70</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="10">
-        <v>11</v>
-      </c>
-      <c r="F58" s="10">
-        <v>60</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>12</v>
-      </c>
-      <c r="B59" s="10">
-        <v>104</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E59" s="10">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10">
-        <v>51</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>13</v>
-      </c>
-      <c r="B60" s="10">
-        <v>61</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="10">
-        <v>13</v>
-      </c>
-      <c r="F60" s="10">
-        <v>42</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>14</v>
-      </c>
-      <c r="B61" s="10">
-        <v>38</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="10">
-        <v>14</v>
-      </c>
-      <c r="F61" s="10">
-        <v>12</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>15</v>
-      </c>
-      <c r="B62" s="10">
-        <v>50</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E62" s="10">
-        <v>15</v>
-      </c>
-      <c r="F62" s="10">
-        <v>25</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>16</v>
-      </c>
-      <c r="B63" s="10">
-        <v>26</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="10">
-        <v>16</v>
-      </c>
-      <c r="F63" s="10">
-        <v>22</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>17</v>
-      </c>
-      <c r="B64" s="10">
-        <v>4</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E64" s="10">
-        <v>17</v>
-      </c>
-      <c r="F64" s="10">
-        <v>4</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>18</v>
-      </c>
-      <c r="B65" s="10">
-        <v>8</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="10">
-        <v>19</v>
-      </c>
-      <c r="F65" s="10">
-        <v>13</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>19</v>
-      </c>
-      <c r="B66" s="10">
-        <v>18</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E66" s="10">
-        <v>20</v>
-      </c>
-      <c r="F66" s="10">
-        <v>4</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>20</v>
-      </c>
-      <c r="B67" s="10">
-        <v>4</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E67" s="10">
-        <v>21</v>
-      </c>
-      <c r="F67" s="10">
-        <v>11</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <v>21</v>
-      </c>
-      <c r="B68" s="10">
-        <v>18</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" s="10">
-        <v>22</v>
-      </c>
-      <c r="F68" s="10">
-        <v>16</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <v>22</v>
-      </c>
-      <c r="B69" s="10">
-        <v>17</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="10">
-        <v>23</v>
-      </c>
-      <c r="F69" s="10">
-        <v>23</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
-        <v>23</v>
-      </c>
-      <c r="B70" s="10">
-        <v>24</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" s="10">
-        <v>24</v>
-      </c>
-      <c r="F70" s="10">
-        <v>16</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
-        <v>24</v>
-      </c>
-      <c r="B71" s="10">
-        <v>16</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E71" s="10">
-        <v>26</v>
-      </c>
-      <c r="F71" s="10">
-        <v>6</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <v>26</v>
-      </c>
-      <c r="B72" s="10">
-        <v>6</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E72" s="10">
-        <v>28</v>
-      </c>
-      <c r="F72" s="10">
-        <v>1</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
-        <v>27</v>
-      </c>
-      <c r="B73" s="10">
-        <v>8</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="10">
-        <v>29</v>
-      </c>
-      <c r="F73" s="10">
-        <v>3</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <v>28</v>
-      </c>
-      <c r="B74" s="10">
-        <v>1</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E74" s="10">
-        <v>30</v>
-      </c>
-      <c r="F74" s="10">
-        <v>7</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
-        <v>29</v>
-      </c>
-      <c r="B75" s="10">
-        <v>3</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" s="10">
-        <v>31</v>
-      </c>
-      <c r="F75" s="10">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <v>30</v>
-      </c>
-      <c r="B76" s="10">
-        <v>8</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76" s="10">
-        <v>32</v>
-      </c>
-      <c r="F76" s="10">
-        <v>3</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
-        <v>31</v>
-      </c>
-      <c r="B77" s="10">
-        <v>1</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" s="10">
-        <v>33</v>
-      </c>
-      <c r="F77" s="10">
-        <v>10</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>32</v>
-      </c>
-      <c r="B78" s="10">
-        <v>3</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E78" s="10">
-        <v>34</v>
-      </c>
-      <c r="F78" s="10">
-        <v>8</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <v>33</v>
-      </c>
-      <c r="B79" s="10">
-        <v>10</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>34</v>
-      </c>
-      <c r="B80" s="10">
-        <v>8</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>36</v>
-      </c>
-      <c r="B81" s="10">
-        <v>3</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="E86" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="10">
-        <v>31217</v>
-      </c>
-      <c r="C88" s="11">
-        <v>100000000000</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F88" s="10">
-        <v>13224</v>
-      </c>
-      <c r="G88" s="11">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <v>1</v>
-      </c>
-      <c r="B90" s="10">
-        <v>6828</v>
-      </c>
-      <c r="C90" s="11">
-        <v>21872697568</v>
-      </c>
-      <c r="E90" s="10">
-        <v>1</v>
-      </c>
-      <c r="F90" s="10">
-        <v>1992</v>
-      </c>
-      <c r="G90" s="11">
-        <v>15063520871</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
-        <v>2</v>
-      </c>
-      <c r="B91" s="10">
-        <v>10122</v>
-      </c>
-      <c r="C91" s="11">
-        <v>32424640420</v>
-      </c>
-      <c r="E91" s="10">
-        <v>2</v>
-      </c>
-      <c r="F91" s="10">
-        <v>3669</v>
-      </c>
-      <c r="G91" s="11">
-        <v>27745009074</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
-        <v>3</v>
-      </c>
-      <c r="B92" s="10">
-        <v>6372</v>
-      </c>
-      <c r="C92" s="11">
-        <v>20411955024</v>
-      </c>
-      <c r="E92" s="10">
-        <v>3</v>
-      </c>
-      <c r="F92" s="10">
-        <v>2737</v>
-      </c>
-      <c r="G92" s="11">
-        <v>20697217180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
-        <v>4</v>
-      </c>
-      <c r="B93" s="10">
-        <v>5280</v>
-      </c>
-      <c r="C93" s="11">
-        <v>16913861037</v>
-      </c>
-      <c r="E93" s="10">
-        <v>4</v>
-      </c>
-      <c r="F93" s="10">
-        <v>3167</v>
-      </c>
-      <c r="G93" s="11">
-        <v>23948880822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
-        <v>5</v>
-      </c>
-      <c r="B94" s="10">
-        <v>1761</v>
-      </c>
-      <c r="C94" s="11">
-        <v>5641157061</v>
-      </c>
-      <c r="E94" s="10">
-        <v>5</v>
-      </c>
-      <c r="F94" s="10">
-        <v>1164</v>
-      </c>
-      <c r="G94" s="11">
-        <v>8802177858</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
-        <v>6</v>
-      </c>
-      <c r="B95" s="10">
-        <v>321</v>
-      </c>
-      <c r="C95" s="11">
-        <v>1028285869</v>
-      </c>
-      <c r="E95" s="10">
-        <v>6</v>
-      </c>
-      <c r="F95" s="10">
-        <v>127</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
-        <v>7</v>
-      </c>
-      <c r="B96" s="10">
-        <v>457</v>
-      </c>
-      <c r="C96" s="11">
-        <v>1463945926</v>
-      </c>
-      <c r="E96" s="10">
-        <v>7</v>
-      </c>
-      <c r="F96" s="10">
-        <v>341</v>
-      </c>
-      <c r="G96" s="11">
-        <v>2578644888</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
-        <v>8</v>
-      </c>
-      <c r="B97" s="10">
-        <v>61</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E97" s="10">
-        <v>8</v>
-      </c>
-      <c r="F97" s="10">
-        <v>23</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
-        <v>9</v>
-      </c>
-      <c r="B98" s="10">
-        <v>5</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E98" s="10">
-        <v>9</v>
-      </c>
-      <c r="F98" s="10">
-        <v>4</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
-        <v>10</v>
-      </c>
-      <c r="B99" s="10">
-        <v>4</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
-        <v>12</v>
-      </c>
-      <c r="B100" s="10">
-        <v>6</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="10">
-        <v>31217</v>
-      </c>
-      <c r="C103" s="11">
-        <v>100000000000</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F103" s="10">
-        <v>13224</v>
-      </c>
-      <c r="G103" s="11">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
-        <v>1</v>
-      </c>
-      <c r="B105" s="10">
-        <v>1814</v>
-      </c>
-      <c r="C105" s="11">
-        <v>5810936348</v>
-      </c>
-      <c r="E105" s="10">
-        <v>1</v>
-      </c>
-      <c r="F105" s="10">
-        <v>637</v>
-      </c>
-      <c r="G105" s="11">
-        <v>4816999395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
-        <v>2</v>
-      </c>
-      <c r="B106" s="10">
-        <v>9193</v>
-      </c>
-      <c r="C106" s="11">
-        <v>29448697824</v>
-      </c>
-      <c r="E106" s="10">
-        <v>2</v>
-      </c>
-      <c r="F106" s="10">
-        <v>3673</v>
-      </c>
-      <c r="G106" s="11">
-        <v>27775257108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
-        <v>3</v>
-      </c>
-      <c r="B107" s="10">
-        <v>9850</v>
-      </c>
-      <c r="C107" s="11">
-        <v>31553320306</v>
-      </c>
-      <c r="E107" s="10">
-        <v>3</v>
-      </c>
-      <c r="F107" s="10">
-        <v>4318</v>
-      </c>
-      <c r="G107" s="11">
-        <v>32652752571</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
-        <v>4</v>
-      </c>
-      <c r="B108" s="10">
-        <v>6466</v>
-      </c>
-      <c r="C108" s="11">
-        <v>20713073005</v>
-      </c>
-      <c r="E108" s="10">
-        <v>4</v>
-      </c>
-      <c r="F108" s="10">
-        <v>3024</v>
-      </c>
-      <c r="G108" s="11">
-        <v>22867513611</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
-        <v>5</v>
-      </c>
-      <c r="B109" s="10">
-        <v>2867</v>
-      </c>
-      <c r="C109" s="11">
-        <v>9184098407</v>
-      </c>
-      <c r="E109" s="10">
-        <v>5</v>
-      </c>
-      <c r="F109" s="10">
-        <v>1270</v>
-      </c>
-      <c r="G109" s="11">
-        <v>9603750756</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
-        <v>6</v>
-      </c>
-      <c r="B110" s="10">
-        <v>662</v>
-      </c>
-      <c r="C110" s="11">
-        <v>2120639395</v>
-      </c>
-      <c r="E110" s="10">
-        <v>6</v>
-      </c>
-      <c r="F110" s="10">
-        <v>216</v>
-      </c>
-      <c r="G110" s="11">
-        <v>1633393829</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
-        <v>7</v>
-      </c>
-      <c r="B111" s="10">
-        <v>220</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E111" s="10">
-        <v>7</v>
-      </c>
-      <c r="F111" s="10">
-        <v>57</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
-        <v>8</v>
-      </c>
-      <c r="B112" s="10">
-        <v>89</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E112" s="10">
-        <v>8</v>
-      </c>
-      <c r="F112" s="10">
-        <v>23</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
-        <v>9</v>
-      </c>
-      <c r="B113" s="10">
-        <v>15</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E113" s="10">
-        <v>11</v>
-      </c>
-      <c r="F113" s="10">
-        <v>1</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
-        <v>10</v>
-      </c>
-      <c r="B114" s="10">
-        <v>3</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E114" s="10">
-        <v>12</v>
-      </c>
-      <c r="F114" s="10">
-        <v>3</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
-        <v>11</v>
-      </c>
-      <c r="B115" s="10">
-        <v>14</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E115" s="10">
-        <v>14</v>
-      </c>
-      <c r="F115" s="10">
-        <v>1</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
-        <v>12</v>
-      </c>
-      <c r="B116" s="10">
-        <v>14</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E116" s="10">
-        <v>15</v>
-      </c>
-      <c r="F116" s="10">
-        <v>1</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
-        <v>14</v>
-      </c>
-      <c r="B117" s="10">
-        <v>8</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
-        <v>15</v>
-      </c>
-      <c r="B118" s="10">
-        <v>2</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="16"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-    </row>
-    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="16"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-    </row>
-    <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="16"/>
-    </row>
-    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="16"/>
-    </row>
-    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="16"/>
-    </row>
-    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="16"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A27:C27"/>
-  </mergeCells>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>Página &amp;P de &amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/site/mining.xlsx
+++ b/src/site/mining.xlsx
@@ -7,23 +7,22 @@
     <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Profile" sheetId="9" r:id="rId1"/>
-    <sheet name="Resultados" sheetId="8" r:id="rId2"/>
-    <sheet name="Views" sheetId="5" r:id="rId3"/>
-    <sheet name="SB SQLs" sheetId="2" r:id="rId4"/>
-    <sheet name="Interfaces metrics" sheetId="1" r:id="rId5"/>
-    <sheet name="Comb 16" sheetId="6" r:id="rId6"/>
-    <sheet name="Test Case" sheetId="4" r:id="rId7"/>
+    <sheet name="Resultados" sheetId="9" r:id="rId1"/>
+    <sheet name="Resultados old" sheetId="8" r:id="rId2"/>
+    <sheet name="SB SQLs" sheetId="2" r:id="rId3"/>
+    <sheet name="Interfaces metrics" sheetId="1" r:id="rId4"/>
+    <sheet name="Comb 16" sheetId="6" r:id="rId5"/>
+    <sheet name="Test Case" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Comb 16'!$A$1:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Comb 16'!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="482">
   <si>
     <t>return</t>
   </si>
@@ -550,72 +549,9 @@
     <t>fr.unice.gfarce.dao.IdentiteDao.findCandidat</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>return_name_params               - return_name_params as r_n_p_o</t>
-  </si>
-  <si>
-    <t>,return_name_0params             - return_name_params as r_n_p1_o</t>
-  </si>
-  <si>
-    <t>,return_0name_params             - return_name_params as r_n1_p_o</t>
-  </si>
-  <si>
-    <t>,s0return_name_params            - return_name_params as r1_n_p_o</t>
-  </si>
-  <si>
-    <t>,s0return_name_0params           - return_name_params as r1_n_p1_o</t>
-  </si>
-  <si>
-    <t>,s0return_0name_params           - return_name_params as r1_n1_p_o</t>
-  </si>
-  <si>
-    <t>,s0return_0name_0params          - return_name_params as r1_n1_p1_o</t>
-  </si>
-  <si>
-    <t>,return_name_params_disorder     - return_name_params as r_n_p_d</t>
-  </si>
-  <si>
-    <t>,return_name_0params_disorder    - return_name_params as r_n_p1_d</t>
-  </si>
-  <si>
-    <t>,return_0name_params_disorder    - return_name_params as r_n1_p_d</t>
-  </si>
-  <si>
-    <t>,return_0name_0params_disorder   - return_name_params as r_n1_p1_d</t>
-  </si>
-  <si>
-    <t>,s0return_name_params_disorder   - return_name_params as r1_n_p_d</t>
-  </si>
-  <si>
-    <t>,s0return_name_0params_disorder  - return_name_params as r1_n_p1_d</t>
-  </si>
-  <si>
-    <t>,s0return_0name_params_disorder  - return_name_params as r1_n1_p_d</t>
-  </si>
-  <si>
-    <t>,s0return_0name_0params_disorder - return_name_params as r1_n1_p1_d</t>
-  </si>
-  <si>
-    <t>,m.*</t>
-  </si>
-  <si>
-    <t>from interface_metrics as m</t>
-  </si>
-  <si>
-    <t>where project_type = 'CRAWLED'</t>
-  </si>
-  <si>
-    <t>v_interface_metrics_dif</t>
-  </si>
-  <si>
     <t>v2</t>
   </si>
   <si>
-    <t>,return_0name_0params            - return_name_params as r_n1_p1_o</t>
-  </si>
-  <si>
     <t>Totais gerais</t>
   </si>
   <si>
@@ -865,168 +801,6 @@
     <t>Total de palavras do metodo</t>
   </si>
   <si>
-    <t>select 'Primitive' as 'Class', return_type, count(*) as 'sub total', (count(*) * 100 / (select count(*) from interface_metrics)) as '%', '' as total, '' as 'total%'</t>
-  </si>
-  <si>
-    <t>from interface_metrics</t>
-  </si>
-  <si>
-    <t>where return_type in (select type from interface_metrics_types where class = 1)</t>
-  </si>
-  <si>
-    <t>GROUP BY return_type</t>
-  </si>
-  <si>
-    <t>union ALL</t>
-  </si>
-  <si>
-    <t>select 'Primitive', '', '', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>select 'Java API - Primitive Wrapper', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
-  </si>
-  <si>
-    <t>where return_type in (select type from interface_metrics_types where class = 2)</t>
-  </si>
-  <si>
-    <t>select 'Java API - Primitive Wrapper', '', '', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>select 'Java API - String', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>where return_type = (select type from interface_metrics_types where class = 3)</t>
-  </si>
-  <si>
-    <t>-- http://www.devmedia.com.br/visao-geral-da-interface-collection-em-java/25822</t>
-  </si>
-  <si>
-    <t>select 'Java API - Collection', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
-  </si>
-  <si>
-    <t>where return_type in (select type from interface_metrics_types where class = 4)</t>
-  </si>
-  <si>
-    <t>select 'Java API - Collection', '', '', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>select 'Java API - Other', return_type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>where project_type = 'JAVA_LIBRARY'</t>
-  </si>
-  <si>
-    <t>and return_type not in (select type from interface_metrics_types)</t>
-  </si>
-  <si>
-    <t>select 'User defined', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>where project_type &lt;&gt; 'JAVA_LIBRARY'</t>
-  </si>
-  <si>
-    <t>select 'Primitive' as 'Class', type, count(*) as 'sub total', (count(*) * 100 / (select count(*) from interface_metrics)) as '%', '' as total, '' as 'total%'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from interface_metrics i, interface_metrics_types t </t>
-  </si>
-  <si>
-    <t>where t.class = 1</t>
-  </si>
-  <si>
-    <t>and ( i.params like concat('(',t.type,'%') or i.params like concat('%,',t.type,'%') )</t>
-  </si>
-  <si>
-    <t>GROUP BY type</t>
-  </si>
-  <si>
-    <t>select 'Java API - Primitive Wrapper', type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
-  </si>
-  <si>
-    <t>where t.class = 2</t>
-  </si>
-  <si>
-    <t>select 'Java API - String', type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>where t.class = 3</t>
-  </si>
-  <si>
-    <t>select 'Java API - Collection', type, count(*), (count(*) * 100 / (select count(*) from interface_metrics)), '', ''</t>
-  </si>
-  <si>
-    <t>where t.class = 4</t>
-  </si>
-  <si>
-    <t>select distinct 'Java API - Other [ONLY]', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>and id not in (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  select i.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from interface_metrics i, interface_metrics_types t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  where( i.params like concat('(',t.type,'%') or i.params like concat('%,',t.type,'%') )</t>
-  </si>
-  <si>
-    <t>select 'User defined [ONLY]', '', count(*), (count(*) * 100 / (select count(*) from interface_metrics)), count(*), (count(*) * 100 / (select count(*) from interface_metrics))</t>
-  </si>
-  <si>
-    <t>select 'ALL entity_type' as 'entities Filter', count(*) Total from entities</t>
-  </si>
-  <si>
-    <t>union all</t>
-  </si>
-  <si>
-    <t>select '1) entity_type = METHOD' as 'entities Filter', count(*) Total from entities</t>
-  </si>
-  <si>
-    <t>where entity_type = 'METHOD'</t>
-  </si>
-  <si>
-    <t>select '1) 2) modifiers like %PUBLIC%' as 'entities Filter', count(*) Total from entities</t>
-  </si>
-  <si>
-    <t>and modifiers like '%PUBLIC%'</t>
-  </si>
-  <si>
-    <t>select '1) 2) 3) modifiers not like %ABSTRACT%' as 'entities Filter', count(*) Total from entities</t>
-  </si>
-  <si>
-    <t>and modifiers not like '%ABSTRACT%'</t>
-  </si>
-  <si>
-    <t>select '1) 2) 3) 4) params &lt;&gt; ()' as 'entities Filter', count(*) Total from entities</t>
-  </si>
-  <si>
-    <t>and params &lt;&gt; '()'</t>
-  </si>
-  <si>
-    <t>select '1) 2) 3) 4) 5) return &lt;&gt; void' as 'entities Filter', count(*) Total from entities e1</t>
-  </si>
-  <si>
-    <t>select DISTINCT p.project_type, e1.entity_type, e1.modifiers, e1.fqn, e1.params, e2.fqn 'return_type', r.relation_type from entities e1</t>
-  </si>
-  <si>
-    <t>v_profile_filter</t>
-  </si>
-  <si>
-    <t>v_profile_params</t>
-  </si>
-  <si>
-    <t>v_profile_return</t>
-  </si>
-  <si>
-    <t>v_profile_filter_aux</t>
-  </si>
-  <si>
-    <t>select '1) 2) 3) 4) 5) 6) distinct interface sign' as 'entities Filter', count(*) Total from v_profile_filter_aux</t>
-  </si>
-  <si>
     <t>ALL entity_type</t>
   </si>
   <si>
@@ -1048,12 +822,6 @@
     <t>1) 2) 3) 4) 5) 6) distinct interface sign</t>
   </si>
   <si>
-    <t>select * from v_profile_filter</t>
-  </si>
-  <si>
-    <t>select * from v_profile_return</t>
-  </si>
-  <si>
     <t>Primitive</t>
   </si>
   <si>
@@ -1228,18 +996,9 @@
     <t>Java API - Other</t>
   </si>
   <si>
-    <t>java.nio.file.Path</t>
-  </si>
-  <si>
     <t>User defined</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>select * from v_profile_params</t>
-  </si>
-  <si>
     <t>0.683225060</t>
   </si>
   <si>
@@ -1312,17 +1071,410 @@
     <t>0.223206693</t>
   </si>
   <si>
-    <t>Java API - Other [ONLY]</t>
-  </si>
-  <si>
-    <t>User defined [ONLY]</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>0.3332</t>
+  </si>
+  <si>
+    <t>0.1602</t>
+  </si>
+  <si>
+    <t>0.1217</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>0.0769</t>
+  </si>
+  <si>
+    <t>0.0577</t>
+  </si>
+  <si>
+    <t>0.0545</t>
+  </si>
+  <si>
+    <t>0.0513</t>
+  </si>
+  <si>
+    <t>0.0320</t>
+  </si>
+  <si>
+    <t>0.0256</t>
+  </si>
+  <si>
+    <t>0.0192</t>
+  </si>
+  <si>
+    <t>0.0128</t>
+  </si>
+  <si>
+    <t>0.0096</t>
+  </si>
+  <si>
+    <t>0.0032</t>
+  </si>
+  <si>
+    <t>0.7340</t>
+  </si>
+  <si>
+    <t>0.4485</t>
+  </si>
+  <si>
+    <t>0.4241</t>
+  </si>
+  <si>
+    <t>0.3915</t>
+  </si>
+  <si>
+    <t>0.3384</t>
+  </si>
+  <si>
+    <t>0.2814</t>
+  </si>
+  <si>
+    <t>0.2406</t>
+  </si>
+  <si>
+    <t>0.2039</t>
+  </si>
+  <si>
+    <t>0.1550</t>
+  </si>
+  <si>
+    <t>0.1060</t>
+  </si>
+  <si>
+    <t>0.0979</t>
+  </si>
+  <si>
+    <t>0.0734</t>
+  </si>
+  <si>
+    <t>0.0693</t>
+  </si>
+  <si>
+    <t>0.0652</t>
+  </si>
+  <si>
+    <t>0.0408</t>
+  </si>
+  <si>
+    <t>0.0326</t>
+  </si>
+  <si>
+    <t>0.0245</t>
+  </si>
+  <si>
+    <t>0.0163</t>
+  </si>
+  <si>
+    <t>0.0122</t>
+  </si>
+  <si>
+    <t>0.0041</t>
+  </si>
+  <si>
+    <t>Entities Filter</t>
+  </si>
+  <si>
+    <t>Return profile</t>
+  </si>
+  <si>
+    <t>Java API - Other (top 3)</t>
+  </si>
+  <si>
+    <t>&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>0.426856229</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>0.402197204</t>
+  </si>
+  <si>
+    <t>java.lang.Object</t>
+  </si>
+  <si>
+    <t>Java API - Other (not top 3)</t>
+  </si>
+  <si>
+    <t>User defined (top 3)</t>
+  </si>
+  <si>
+    <t>com.caucho.quercus.env.Value</t>
+  </si>
+  <si>
+    <t>0.628379987</t>
+  </si>
+  <si>
+    <t>org.apache.struts.action.ActionForward</t>
+  </si>
+  <si>
+    <t>0.232134961</t>
+  </si>
+  <si>
+    <t>org.json.JSONObject</t>
+  </si>
+  <si>
+    <t>0.230009183</t>
+  </si>
+  <si>
+    <t>User defined (not top 3)</t>
+  </si>
+  <si>
+    <t>Params profile</t>
+  </si>
+  <si>
+    <t>Totals: Primitive types, static, same package</t>
+  </si>
+  <si>
+    <t>Total: Params</t>
+  </si>
+  <si>
+    <t>0.6183</t>
+  </si>
+  <si>
+    <t>0.3812</t>
+  </si>
+  <si>
+    <t>0.3396</t>
+  </si>
+  <si>
+    <t>0.2755</t>
+  </si>
+  <si>
+    <t>0.2242</t>
+  </si>
+  <si>
+    <t>0.1954</t>
+  </si>
+  <si>
+    <t>Total: Words Method</t>
+  </si>
+  <si>
+    <t>0.0160</t>
+  </si>
+  <si>
+    <t>Total: Words Class</t>
+  </si>
+  <si>
+    <t>0.7047</t>
+  </si>
+  <si>
+    <t>0.2851</t>
+  </si>
+  <si>
+    <t>0.0481</t>
+  </si>
+  <si>
+    <t>0.0448</t>
+  </si>
+  <si>
+    <t>0.0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Interface types: </t>
+  </si>
+  <si>
+    <t>A - Interface Igual   (mesmo retorno, mesmo nome, mesmos parâmetros em ordem)</t>
+  </si>
+  <si>
+    <t>B - Interface Similar (mesmo retorno, qualquer nome, mesmos parâmetros em qualquer ordem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Expansions types: </t>
+  </si>
+  <si>
+    <t>AE - A com Expansão (nome e tipos)</t>
+  </si>
+  <si>
+    <t>BE - B com Expansão (tipos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Ganhos: </t>
+  </si>
+  <si>
+    <t>Interface não encontrada</t>
+  </si>
+  <si>
+    <t>Passou a ser encontrada com B</t>
+  </si>
+  <si>
+    <t>Passou a ser encontrada com AE</t>
+  </si>
+  <si>
+    <t>Passou a ser encontrada com BE</t>
+  </si>
+  <si>
+    <t>Search match</t>
+  </si>
+  <si>
+    <t>Expansões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- Expansões: </t>
+  </si>
+  <si>
+    <t>A com Expansão de tipos</t>
+  </si>
+  <si>
+    <t>A com Expansão de nome</t>
+  </si>
+  <si>
+    <t>Expansões nas não encontradas</t>
+  </si>
+  <si>
+    <t>Passou a ser encontrada com A com Expansão de tipos</t>
+  </si>
+  <si>
+    <t>Passou a ser encontrada com A com Expansão de nome</t>
+  </si>
+  <si>
+    <t>Passou a ser encontrada com AE - A com Expansão (nome e tipos)</t>
+  </si>
+  <si>
+    <t>Passou a ser encontrada com BE - B com Expansão (tipos)</t>
+  </si>
+  <si>
+    <t>AE / Primitive types, static, same package</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>NOT only primitive types</t>
+  </si>
+  <si>
+    <t>AE / Params</t>
+  </si>
+  <si>
+    <t>BE / Params</t>
+  </si>
+  <si>
+    <t>0.6697</t>
+  </si>
+  <si>
+    <t>0.4092</t>
+  </si>
+  <si>
+    <t>0.3869</t>
+  </si>
+  <si>
+    <t>0.3572</t>
+  </si>
+  <si>
+    <t>0.3088</t>
+  </si>
+  <si>
+    <t>0.2567</t>
+  </si>
+  <si>
+    <t>0.2195</t>
+  </si>
+  <si>
+    <t>0.1860</t>
+  </si>
+  <si>
+    <t>0.1414</t>
+  </si>
+  <si>
+    <t>0.0967</t>
+  </si>
+  <si>
+    <t>0.0893</t>
+  </si>
+  <si>
+    <t>0.0670</t>
+  </si>
+  <si>
+    <t>0.0632</t>
+  </si>
+  <si>
+    <t>0.0595</t>
+  </si>
+  <si>
+    <t>0.0372</t>
+  </si>
+  <si>
+    <t>0.0298</t>
+  </si>
+  <si>
+    <t>0.0223</t>
+  </si>
+  <si>
+    <t>0.0149</t>
+  </si>
+  <si>
+    <t>0.0112</t>
+  </si>
+  <si>
+    <t>0.0037</t>
+  </si>
+  <si>
+    <t>AE / Words Method</t>
+  </si>
+  <si>
+    <t>0.2324</t>
+  </si>
+  <si>
+    <t>BE / Words Method</t>
+  </si>
+  <si>
+    <t>0.2121</t>
+  </si>
+  <si>
+    <t>AE / Words Class</t>
+  </si>
+  <si>
+    <t>0.5790</t>
+  </si>
+  <si>
+    <t>0.2283</t>
+  </si>
+  <si>
+    <t>0.0530</t>
+  </si>
+  <si>
+    <t>0.0367</t>
+  </si>
+  <si>
+    <t>0.0204</t>
+  </si>
+  <si>
+    <t>BE / Words Class</t>
+  </si>
+  <si>
+    <t>0.5543</t>
+  </si>
+  <si>
+    <t>0.2455</t>
+  </si>
+  <si>
+    <t>0.0521</t>
+  </si>
+  <si>
+    <t>0.0409</t>
+  </si>
+  <si>
+    <t>0.0335</t>
+  </si>
+  <si>
+    <t>0.0260</t>
+  </si>
+  <si>
+    <t>outra cat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,14 +1494,6 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1432,11 +1576,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,1208 +1882,5312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="9">
+        <v>235208</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="B3" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="9">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9">
+        <v>31217</v>
+      </c>
+      <c r="E3" s="10">
+        <v>132721</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9">
+        <v>179953</v>
+      </c>
+      <c r="E4" s="10">
+        <v>765080</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9">
+        <v>24038</v>
+      </c>
+      <c r="E5" s="10">
+        <v>102199</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="9">
         <v>6064495</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="18">
         <v>2003480</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="9">
         <v>1602644</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="9">
         <v>1380031</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="9">
         <v>835327</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="9">
         <v>401749</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="9">
         <v>235208</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>342</v>
-      </c>
-      <c r="I12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
         <v>40314</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E17" s="10">
         <v>17139723138</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>13549</v>
-      </c>
-      <c r="L13" s="10">
-        <v>5760433318</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D14" s="9">
-        <v>544</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="K14" s="9">
-        <v>5356</v>
-      </c>
-      <c r="L14" s="10">
-        <v>2277133430</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="9">
-        <v>420</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="K15" s="9">
-        <v>3081</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1309904425</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2234</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="K16" s="9">
-        <v>3412</v>
-      </c>
-      <c r="L16" s="10">
-        <v>1450630930</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1134</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>351</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="9" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9">
-        <v>1607</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>405</v>
+        <v>13549</v>
+      </c>
+      <c r="L17" s="10">
+        <v>5760433318</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="9" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="D18" s="9">
-        <v>19446</v>
-      </c>
-      <c r="E18" s="10">
-        <v>8267575932</v>
+        <v>544</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="9" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="K18" s="9">
-        <v>48058</v>
+        <v>5356</v>
       </c>
       <c r="L18" s="10">
-        <v>20432128158</v>
+        <v>2277133430</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
       <c r="B19" s="9" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="D19" s="9">
-        <v>3145</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1337114383</v>
+        <v>420</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="9" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="K19" s="9">
-        <v>21765</v>
+        <v>3081</v>
       </c>
       <c r="L19" s="10">
-        <v>9253511785</v>
+        <v>1309904425</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
       <c r="B20" s="9" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="D20" s="9">
-        <v>775</v>
+        <v>2234</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="9" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
       <c r="K20" s="9">
-        <v>1144</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>406</v>
+        <v>3412</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1450630930</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
       <c r="B21" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9">
-        <v>68012</v>
-      </c>
-      <c r="G21" s="10">
-        <v>28915683140</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1134</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9">
-        <v>97972</v>
-      </c>
-      <c r="N21" s="10">
-        <v>41653345124</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1607</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
       <c r="B22" s="9" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="D22" s="9">
-        <v>329</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>357</v>
+        <v>19446</v>
+      </c>
+      <c r="E22" s="10">
+        <v>8267575932</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="9" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="K22" s="9">
-        <v>555</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>407</v>
+        <v>48058</v>
+      </c>
+      <c r="L22" s="10">
+        <v>20432128158</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
       <c r="B23" s="9" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="D23" s="9">
-        <v>26</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>359</v>
+        <v>3145</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1337114383</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="9" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="K23" s="9">
-        <v>23</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>408</v>
+        <v>21765</v>
+      </c>
+      <c r="L23" s="10">
+        <v>9253511785</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
       <c r="B24" s="9" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="D24" s="9">
-        <v>86</v>
+        <v>775</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="9" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="K24" s="9">
-        <v>130</v>
+        <v>1144</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>409</v>
+        <v>326</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" s="9">
-        <v>62</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+        <v>266</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>68012</v>
+      </c>
+      <c r="G25" s="10">
+        <v>28915683140</v>
+      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="K25" s="9">
-        <v>64</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9">
+        <v>97972</v>
+      </c>
+      <c r="N25" s="10">
+        <v>41653345124</v>
+      </c>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
       <c r="B26" s="9" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="D26" s="9">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="9" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="K26" s="9">
-        <v>321</v>
+        <v>555</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
       <c r="B27" s="9" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="D27" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="9" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="K27" s="9">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>412</v>
+        <v>328</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
       <c r="B28" s="9" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="D28" s="9">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="9" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="K28" s="9">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>413</v>
+        <v>329</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
       <c r="B29" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
-        <v>954</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>370</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="9">
+        <v>62</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9">
-        <v>1452</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="9">
+        <v>64</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
       <c r="B30" s="9" t="s">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="D30" s="9">
-        <v>24106</v>
-      </c>
-      <c r="E30" s="10">
-        <v>10248801061</v>
-      </c>
-      <c r="F30" s="9">
-        <v>24106</v>
-      </c>
-      <c r="G30" s="10">
-        <v>10248801061</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="9" t="s">
-        <v>371</v>
+        <v>278</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="K30" s="9">
-        <v>74563</v>
-      </c>
-      <c r="L30" s="10">
-        <v>31700877521</v>
-      </c>
-      <c r="M30" s="9">
-        <v>74563</v>
-      </c>
-      <c r="N30" s="10">
-        <v>31700877521</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
       <c r="B31" s="9" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="D31" s="9">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="9" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="K31" s="9">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
       <c r="B32" s="9" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="D32" s="9">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="9" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="K32" s="9">
-        <v>1399</v>
+        <v>40</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
       <c r="B33" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D33" s="9">
-        <v>66</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <v>954</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K33" s="9">
-        <v>75</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9">
+        <v>1452</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
       <c r="B34" s="9" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D34" s="9">
-        <v>5</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+        <v>24106</v>
+      </c>
+      <c r="E34" s="10">
+        <v>10248801061</v>
+      </c>
+      <c r="F34" s="9">
+        <v>24106</v>
+      </c>
+      <c r="G34" s="10">
+        <v>10248801061</v>
+      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="9" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="K34" s="9">
-        <v>10</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74563</v>
+      </c>
+      <c r="L34" s="10">
+        <v>31700877521</v>
+      </c>
+      <c r="M34" s="9">
+        <v>74563</v>
+      </c>
+      <c r="N34" s="10">
+        <v>31700877521</v>
+      </c>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
       <c r="B35" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="D35" s="9">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="K35" s="9">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="14"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
       <c r="B36" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D36" s="9">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="K36" s="9">
-        <v>140</v>
+        <v>1399</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
       <c r="B37" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D37" s="9">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="K37" s="9">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
       <c r="B38" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="D38" s="9">
-        <v>9612</v>
-      </c>
-      <c r="E38" s="10">
-        <v>4086595694</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="K38" s="9">
-        <v>2116</v>
+        <v>10</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
       <c r="B39" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="D39" s="9">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>390</v>
+        <v>306</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="K39" s="9">
-        <v>2094</v>
+        <v>238</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
       <c r="B40" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="D40" s="9">
-        <v>296</v>
+        <v>2</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="K40" s="9">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="14"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
       <c r="B41" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="D41" s="9">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="K41" s="9">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="14"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
       <c r="B42" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="D42" s="9">
-        <v>85</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>396</v>
+        <v>9612</v>
+      </c>
+      <c r="E42" s="10">
+        <v>4086595694</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="K42" s="9">
-        <v>47</v>
+        <v>2116</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
       <c r="B43" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="D43" s="9">
-        <v>2</v>
+        <v>490</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="K43" s="9">
-        <v>2</v>
+        <v>2094</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
       <c r="B44" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="D44" s="9">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="K44" s="9">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
       <c r="B45" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9">
-        <v>11656</v>
-      </c>
-      <c r="G45" s="10">
-        <v>4955613754</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="9">
+        <v>97</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="9" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="K45" s="9">
-        <v>525</v>
+        <v>46</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>428</v>
+        <v>292</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="14"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
       <c r="B46" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="9">
+        <v>85</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K46" s="9">
+        <v>47</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="14"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" s="9">
+        <v>2</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" s="9">
+        <v>424</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" s="9">
+        <v>4</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" s="9">
+        <v>10648</v>
+      </c>
+      <c r="E49" s="10">
+        <v>4527056902</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K49" s="9">
+        <v>525</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="14"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9">
+        <v>22304</v>
+      </c>
+      <c r="G50" s="10">
+        <v>9482670657</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K50" s="9">
+        <v>18944</v>
+      </c>
+      <c r="L50" s="10">
+        <v>8054147818</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1004</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9">
+        <v>385359</v>
+      </c>
+      <c r="N51" s="10">
+        <v>163837539539</v>
+      </c>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="9">
+        <v>946</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" s="9">
+        <v>16328</v>
+      </c>
+      <c r="E53" s="10">
+        <v>6941940750</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9">
+        <v>32329</v>
+      </c>
+      <c r="E54" s="10">
+        <v>13744855617</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9">
+        <v>50607</v>
+      </c>
+      <c r="G55" s="10">
+        <v>21515849801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1478</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D57" s="9">
+        <v>546</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" s="9">
+        <v>541</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D46" s="9">
-        <v>14328</v>
-      </c>
-      <c r="E46" s="10">
-        <v>6091629536</v>
-      </c>
-      <c r="F46" s="9">
-        <v>14328</v>
-      </c>
-      <c r="G46" s="10">
-        <v>6091629536</v>
-      </c>
-      <c r="I46" s="9" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9">
+        <v>66660</v>
+      </c>
+      <c r="E59" s="10">
+        <v>28340872759</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9">
+        <v>69225</v>
+      </c>
+      <c r="G60" s="10">
+        <v>29431396891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" t="s">
+        <v>403</v>
+      </c>
+      <c r="J62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="9">
+        <v>31217</v>
+      </c>
+      <c r="D63" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
+        <v>15784</v>
+      </c>
+      <c r="H63" s="10">
+        <v>505622</v>
+      </c>
+      <c r="J63" s="9">
+        <v>2</v>
+      </c>
+      <c r="K63" s="9">
+        <v>10122</v>
+      </c>
+      <c r="L63" s="10">
+        <v>324246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="9">
+        <v>2</v>
+      </c>
+      <c r="G64" s="9">
+        <v>6962</v>
+      </c>
+      <c r="H64" s="10">
+        <v>223020</v>
+      </c>
+      <c r="J64" s="9">
+        <v>1</v>
+      </c>
+      <c r="K64" s="9">
+        <v>6828</v>
+      </c>
+      <c r="L64" s="10">
+        <v>218727</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="9">
+        <v>5434</v>
+      </c>
+      <c r="D65" s="10">
+        <v>17407181984</v>
+      </c>
+      <c r="F65" s="9">
+        <v>3</v>
+      </c>
+      <c r="G65" s="9">
+        <v>4152</v>
+      </c>
+      <c r="H65" s="10">
+        <v>133004</v>
+      </c>
+      <c r="J65" s="9">
+        <v>3</v>
+      </c>
+      <c r="K65" s="9">
+        <v>6372</v>
+      </c>
+      <c r="L65" s="10">
+        <v>204120</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="9">
+        <v>25783</v>
+      </c>
+      <c r="D66" s="10">
+        <v>82592818015</v>
+      </c>
+      <c r="F66" s="9">
+        <v>4</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1916</v>
+      </c>
+      <c r="H66" s="10">
+        <v>61377</v>
+      </c>
+      <c r="J66" s="9">
+        <v>4</v>
+      </c>
+      <c r="K66" s="9">
+        <v>5280</v>
+      </c>
+      <c r="L66" s="10">
+        <v>169139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="9">
+        <v>5</v>
+      </c>
+      <c r="G67" s="9">
+        <v>937</v>
+      </c>
+      <c r="H67" s="10">
+        <v>30016</v>
+      </c>
+      <c r="J67" s="9">
+        <v>5</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1761</v>
+      </c>
+      <c r="L67" s="10">
+        <v>56412</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="9">
+        <v>10331</v>
+      </c>
+      <c r="D68" s="10">
+        <v>33094147419</v>
+      </c>
+      <c r="F68" s="9">
+        <v>6</v>
+      </c>
+      <c r="G68" s="9">
+        <v>453</v>
+      </c>
+      <c r="H68" s="10">
+        <v>14511</v>
+      </c>
+      <c r="J68" s="9">
+        <v>7</v>
+      </c>
+      <c r="K68" s="9">
+        <v>457</v>
+      </c>
+      <c r="L68" s="10">
+        <v>14639</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="9">
+        <v>20886</v>
+      </c>
+      <c r="D69" s="10">
+        <v>66905852580</v>
+      </c>
+      <c r="F69" s="9">
+        <v>7</v>
+      </c>
+      <c r="G69" s="9">
+        <v>193</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="J69" s="9">
+        <v>6</v>
+      </c>
+      <c r="K69" s="9">
+        <v>321</v>
+      </c>
+      <c r="L69" s="10">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="9">
+        <v>8</v>
+      </c>
+      <c r="G70" s="9">
+        <v>119</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J70" s="9">
+        <v>8</v>
+      </c>
+      <c r="K70" s="9">
+        <v>61</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="9">
+        <v>4596</v>
+      </c>
+      <c r="D71" s="10">
+        <v>14722747221</v>
+      </c>
+      <c r="F71" s="9">
+        <v>9</v>
+      </c>
+      <c r="G71" s="9">
+        <v>106</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="J71" s="9">
+        <v>12</v>
+      </c>
+      <c r="K71" s="9">
+        <v>6</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="9">
+        <v>26621</v>
+      </c>
+      <c r="D72" s="10">
+        <v>85277252778</v>
+      </c>
+      <c r="F72" s="9">
+        <v>12</v>
+      </c>
+      <c r="G72" s="9">
+        <v>104</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="J72" s="9">
+        <v>9</v>
+      </c>
+      <c r="K72" s="9">
+        <v>5</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F73" s="9">
+        <v>10</v>
+      </c>
+      <c r="G73" s="9">
+        <v>86</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J73" s="9">
+        <v>10</v>
+      </c>
+      <c r="K73" s="9">
+        <v>4</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F74" s="9">
+        <v>11</v>
+      </c>
+      <c r="G74" s="9">
+        <v>70</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F75" s="9">
+        <v>13</v>
+      </c>
+      <c r="G75" s="9">
+        <v>61</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F76" s="9">
+        <v>15</v>
+      </c>
+      <c r="G76" s="9">
+        <v>50</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="J76" s="9">
+        <v>3</v>
+      </c>
+      <c r="K76" s="9">
+        <v>9850</v>
+      </c>
+      <c r="L76" s="10">
+        <v>315533</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F77" s="9">
+        <v>14</v>
+      </c>
+      <c r="G77" s="9">
+        <v>38</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="J77" s="9">
+        <v>2</v>
+      </c>
+      <c r="K77" s="9">
+        <v>9193</v>
+      </c>
+      <c r="L77" s="10">
+        <v>294487</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F78" s="9">
+        <v>16</v>
+      </c>
+      <c r="G78" s="9">
+        <v>26</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J78" s="9">
+        <v>4</v>
+      </c>
+      <c r="K78" s="9">
+        <v>6466</v>
+      </c>
+      <c r="L78" s="10">
+        <v>207131</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F79" s="9">
+        <v>23</v>
+      </c>
+      <c r="G79" s="9">
+        <v>24</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J79" s="9">
+        <v>5</v>
+      </c>
+      <c r="K79" s="9">
+        <v>2867</v>
+      </c>
+      <c r="L79" s="10">
+        <v>91841</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F80" s="9">
+        <v>21</v>
+      </c>
+      <c r="G80" s="9">
+        <v>18</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J80" s="9">
+        <v>1</v>
+      </c>
+      <c r="K80" s="9">
+        <v>1814</v>
+      </c>
+      <c r="L80" s="10">
+        <v>58109</v>
+      </c>
+    </row>
+    <row r="81" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F81" s="9">
+        <v>19</v>
+      </c>
+      <c r="G81" s="9">
+        <v>18</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J81" s="9">
+        <v>6</v>
+      </c>
+      <c r="K81" s="9">
+        <v>662</v>
+      </c>
+      <c r="L81" s="10">
+        <v>21206</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F82" s="9">
+        <v>22</v>
+      </c>
+      <c r="G82" s="9">
+        <v>17</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="J82" s="9">
+        <v>7</v>
+      </c>
+      <c r="K82" s="9">
+        <v>220</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F83" s="9">
+        <v>24</v>
+      </c>
+      <c r="G83" s="9">
+        <v>16</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="J83" s="9">
+        <v>8</v>
+      </c>
+      <c r="K83" s="9">
+        <v>89</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F84" s="9">
+        <v>33</v>
+      </c>
+      <c r="G84" s="9">
+        <v>10</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="J84" s="9">
+        <v>9</v>
+      </c>
+      <c r="K84" s="9">
+        <v>15</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F85" s="9">
+        <v>30</v>
+      </c>
+      <c r="G85" s="9">
+        <v>8</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="J85" s="9">
+        <v>12</v>
+      </c>
+      <c r="K85" s="9">
+        <v>14</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F86" s="9">
+        <v>34</v>
+      </c>
+      <c r="G86" s="9">
+        <v>8</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="J86" s="9">
+        <v>11</v>
+      </c>
+      <c r="K86" s="9">
+        <v>14</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F87" s="9">
+        <v>27</v>
+      </c>
+      <c r="G87" s="9">
+        <v>8</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="J87" s="9">
+        <v>14</v>
+      </c>
+      <c r="K87" s="9">
+        <v>8</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F88" s="9">
+        <v>18</v>
+      </c>
+      <c r="G88" s="9">
+        <v>8</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="J88" s="9">
+        <v>10</v>
+      </c>
+      <c r="K88" s="9">
+        <v>3</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F89" s="9">
+        <v>26</v>
+      </c>
+      <c r="G89" s="9">
+        <v>6</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="J89" s="9">
+        <v>15</v>
+      </c>
+      <c r="K89" s="9">
+        <v>2</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F90" s="9">
+        <v>20</v>
+      </c>
+      <c r="G90" s="9">
+        <v>4</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F91" s="9">
+        <v>17</v>
+      </c>
+      <c r="G91" s="9">
+        <v>4</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F92" s="9">
+        <v>29</v>
+      </c>
+      <c r="G92" s="9">
+        <v>3</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F93" s="9">
+        <v>32</v>
+      </c>
+      <c r="G93" s="9">
+        <v>3</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F94" s="9">
+        <v>36</v>
+      </c>
+      <c r="G94" s="9">
+        <v>3</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F95" s="9">
+        <v>31</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F96" s="9">
+        <v>28</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="9">
+        <v>31217</v>
+      </c>
+      <c r="D99" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" s="9">
+        <v>23411</v>
+      </c>
+      <c r="D101" s="10">
+        <v>74994394080</v>
+      </c>
+      <c r="E101" s="10">
+        <v>248261928153</v>
+      </c>
+      <c r="F101" s="9">
+        <v>8659</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C102" s="9">
+        <v>26611</v>
+      </c>
+      <c r="D102" s="10">
+        <v>85245218951</v>
+      </c>
+      <c r="E102" s="10">
+        <v>735311525309</v>
+      </c>
+      <c r="F102" s="9">
+        <v>10992</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C104" s="9">
+        <v>24524</v>
+      </c>
+      <c r="D104" s="10">
+        <v>78559759105</v>
+      </c>
+      <c r="E104" s="10">
+        <v>256044201598</v>
+      </c>
+      <c r="F104" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G104" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105" s="9">
+        <v>26879</v>
+      </c>
+      <c r="D105" s="10">
+        <v>86103725534</v>
+      </c>
+      <c r="E105" s="10">
+        <v>959054354700</v>
+      </c>
+      <c r="F105" s="9">
+        <v>10992</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C107" s="9">
+        <v>7806</v>
+      </c>
+      <c r="D107" s="10">
+        <v>25005605919</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" s="9">
+        <v>3200</v>
+      </c>
+      <c r="D108" s="10">
+        <v>10250824871</v>
+      </c>
+      <c r="E108" s="10">
+        <v>699044687500</v>
+      </c>
+      <c r="F108" s="9">
+        <v>10825</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1113</v>
+      </c>
+      <c r="D109" s="10">
+        <v>3565365025</v>
+      </c>
+      <c r="E109" s="10">
+        <v>19809523809</v>
+      </c>
+      <c r="F109" s="9">
+        <v>637</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C110" s="9">
+        <v>3468</v>
+      </c>
+      <c r="D110" s="10">
+        <v>11109331454</v>
+      </c>
+      <c r="E110" s="10">
+        <v>931203575547</v>
+      </c>
+      <c r="F110" s="9">
+        <v>10825</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="9">
+        <v>31217</v>
+      </c>
+      <c r="D113" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C115" s="9">
+        <v>23514</v>
+      </c>
+      <c r="D115" s="10">
+        <v>75324342505</v>
+      </c>
+      <c r="E115" s="10">
+        <v>247650973887</v>
+      </c>
+      <c r="F115" s="9">
+        <v>8659</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C116" s="9">
+        <v>24357</v>
+      </c>
+      <c r="D116" s="10">
+        <v>78024794182</v>
+      </c>
+      <c r="E116" s="10">
+        <v>255619739705</v>
+      </c>
+      <c r="F116" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C117" s="9">
+        <v>24524</v>
+      </c>
+      <c r="D117" s="10">
+        <v>78559759105</v>
+      </c>
+      <c r="E117" s="10">
+        <v>256044201598</v>
+      </c>
+      <c r="F117" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" s="9">
+        <v>26879</v>
+      </c>
+      <c r="D118" s="10">
+        <v>86103725534</v>
+      </c>
+      <c r="E118" s="10">
+        <v>959054354700</v>
+      </c>
+      <c r="F118" s="9">
+        <v>10992</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C121" s="9">
+        <v>7806</v>
+      </c>
+      <c r="D121" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C123" s="9">
+        <v>103</v>
+      </c>
+      <c r="D123" s="10">
+        <v>1319497822</v>
+      </c>
+      <c r="E123" s="10">
+        <v>5097087378</v>
+      </c>
+      <c r="F123" s="9">
+        <v>113</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C124" s="9">
+        <v>946</v>
+      </c>
+      <c r="D124" s="10">
+        <v>12118882910</v>
+      </c>
+      <c r="E124" s="10">
+        <v>17705073995</v>
+      </c>
+      <c r="F124" s="9">
+        <v>612</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C125" s="9">
+        <v>1113</v>
+      </c>
+      <c r="D125" s="10">
+        <v>14258262874</v>
+      </c>
+      <c r="E125" s="10">
+        <v>19809523809</v>
+      </c>
+      <c r="F125" s="9">
+        <v>637</v>
+      </c>
+      <c r="G125" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C126" s="9">
+        <v>3468</v>
+      </c>
+      <c r="D126" s="10">
+        <v>44427363566</v>
+      </c>
+      <c r="E126" s="10">
+        <v>931203575547</v>
+      </c>
+      <c r="F126" s="9">
+        <v>10825</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C129" s="9">
+        <v>24524</v>
+      </c>
+      <c r="D129" s="10">
+        <v>100000000000</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" s="9">
+        <v>4836</v>
+      </c>
+      <c r="D131" s="10">
+        <v>19719458489</v>
+      </c>
+      <c r="E131" s="10">
+        <v>65063068651</v>
+      </c>
+      <c r="F131" s="9">
+        <v>640</v>
+      </c>
+      <c r="G131" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C132" s="9">
+        <v>19688</v>
+      </c>
+      <c r="D132" s="10">
+        <v>80280541510</v>
+      </c>
+      <c r="E132" s="10">
+        <v>302955251930</v>
+      </c>
+      <c r="F132" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G132" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="9">
+        <v>7751</v>
+      </c>
+      <c r="D134" s="10">
+        <v>31605773935</v>
+      </c>
+      <c r="E134" s="10">
+        <v>53304476841</v>
+      </c>
+      <c r="F134" s="9">
+        <v>629</v>
+      </c>
+      <c r="G134" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C135" s="9">
+        <v>16773</v>
+      </c>
+      <c r="D135" s="10">
+        <v>68394226064</v>
+      </c>
+      <c r="E135" s="10">
+        <v>349732605973</v>
+      </c>
+      <c r="F135" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="9">
+        <v>1394</v>
+      </c>
+      <c r="D137" s="10">
+        <v>5684227695</v>
+      </c>
+      <c r="E137" s="10">
+        <v>3880918220</v>
+      </c>
+      <c r="F137" s="9">
+        <v>75</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="9">
+        <v>23130</v>
+      </c>
+      <c r="D138" s="10">
+        <v>94315772304</v>
+      </c>
+      <c r="E138" s="10">
+        <v>271241591007</v>
+      </c>
+      <c r="F138" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>442</v>
+      </c>
+      <c r="I140" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="9">
+        <v>1</v>
+      </c>
+      <c r="C141" s="9">
+        <v>11700</v>
+      </c>
+      <c r="D141" s="10">
+        <v>477084</v>
+      </c>
+      <c r="E141" s="10">
+        <v>4722688</v>
+      </c>
+      <c r="F141" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G141" s="9">
+        <v>1</v>
+      </c>
+      <c r="I141" s="9">
+        <v>1</v>
+      </c>
+      <c r="J141" s="9">
+        <v>13272</v>
+      </c>
+      <c r="K141" s="10">
+        <v>493768</v>
+      </c>
+      <c r="L141" s="10">
+        <v>17565330</v>
+      </c>
+      <c r="M141" s="9">
+        <v>10992</v>
+      </c>
+      <c r="N141" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="9">
+        <v>2</v>
+      </c>
+      <c r="C142" s="9">
+        <v>5319</v>
+      </c>
+      <c r="D142" s="10">
+        <v>216890</v>
+      </c>
+      <c r="E142" s="10">
+        <v>376253</v>
+      </c>
+      <c r="F142" s="9">
+        <v>514</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="I142" s="9">
+        <v>2</v>
+      </c>
+      <c r="J142" s="9">
+        <v>5839</v>
+      </c>
+      <c r="K142" s="10">
+        <v>217233</v>
+      </c>
+      <c r="L142" s="10">
+        <v>2331113</v>
+      </c>
+      <c r="M142" s="9">
+        <v>1590</v>
+      </c>
+      <c r="N142" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="9">
+        <v>3</v>
+      </c>
+      <c r="C143" s="9">
+        <v>3591</v>
+      </c>
+      <c r="D143" s="10">
+        <v>146428</v>
+      </c>
+      <c r="E143" s="10">
+        <v>1151136</v>
+      </c>
+      <c r="F143" s="9">
+        <v>514</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1</v>
+      </c>
+      <c r="I143" s="9">
+        <v>3</v>
+      </c>
+      <c r="J143" s="9">
+        <v>3750</v>
+      </c>
+      <c r="K143" s="10">
+        <v>139514</v>
+      </c>
+      <c r="L143" s="10">
+        <v>2212997</v>
+      </c>
+      <c r="M143" s="9">
+        <v>850</v>
+      </c>
+      <c r="N143" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="9">
+        <v>4</v>
+      </c>
+      <c r="C144" s="9">
+        <v>1683</v>
+      </c>
+      <c r="D144" s="10">
+        <v>68627</v>
+      </c>
+      <c r="E144" s="10">
+        <v>564771</v>
+      </c>
+      <c r="F144" s="9">
+        <v>426</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
+      <c r="I144" s="9">
+        <v>4</v>
+      </c>
+      <c r="J144" s="9">
+        <v>1766</v>
+      </c>
+      <c r="K144" s="10">
+        <v>65702</v>
+      </c>
+      <c r="L144" s="10">
+        <v>1263443</v>
+      </c>
+      <c r="M144" s="9">
+        <v>626</v>
+      </c>
+      <c r="N144" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="9">
+        <v>5</v>
+      </c>
+      <c r="C145" s="9">
+        <v>850</v>
+      </c>
+      <c r="D145" s="10">
+        <v>34660</v>
+      </c>
+      <c r="E145" s="10">
+        <v>405388</v>
+      </c>
+      <c r="F145" s="9">
+        <v>278</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1</v>
+      </c>
+      <c r="I145" s="9">
+        <v>5</v>
+      </c>
+      <c r="J145" s="9">
+        <v>865</v>
+      </c>
+      <c r="K145" s="10">
+        <v>32181</v>
+      </c>
+      <c r="L145" s="10">
+        <v>463110</v>
+      </c>
+      <c r="M145" s="9">
+        <v>278</v>
+      </c>
+      <c r="N145" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="9">
+        <v>6</v>
+      </c>
+      <c r="C146" s="9">
+        <v>406</v>
+      </c>
+      <c r="D146" s="10">
+        <v>16555</v>
+      </c>
+      <c r="E146" s="10">
+        <v>174384</v>
+      </c>
+      <c r="F146" s="9">
+        <v>122</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1</v>
+      </c>
+      <c r="I146" s="9">
+        <v>6</v>
+      </c>
+      <c r="J146" s="9">
+        <v>412</v>
+      </c>
+      <c r="K146" s="10">
+        <v>15328</v>
+      </c>
+      <c r="L146" s="10">
+        <v>185267</v>
+      </c>
+      <c r="M146" s="9">
+        <v>122</v>
+      </c>
+      <c r="N146" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="9">
+        <v>7</v>
+      </c>
+      <c r="C147" s="9">
+        <v>180</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E147" s="10">
+        <v>45000</v>
+      </c>
+      <c r="F147" s="9">
+        <v>32</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1</v>
+      </c>
+      <c r="I147" s="9">
+        <v>7</v>
+      </c>
+      <c r="J147" s="9">
+        <v>180</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L147" s="10">
+        <v>50278</v>
+      </c>
+      <c r="M147" s="9">
+        <v>32</v>
+      </c>
+      <c r="N147" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="9">
+        <v>8</v>
+      </c>
+      <c r="C148" s="9">
+        <v>110</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E148" s="10">
+        <v>31364</v>
+      </c>
+      <c r="F148" s="9">
+        <v>9</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1</v>
+      </c>
+      <c r="I148" s="9">
+        <v>8</v>
+      </c>
+      <c r="J148" s="9">
+        <v>110</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="L148" s="10">
+        <v>34273</v>
+      </c>
+      <c r="M148" s="9">
+        <v>11</v>
+      </c>
+      <c r="N148" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="9">
+        <v>12</v>
+      </c>
+      <c r="C149" s="9">
+        <v>104</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E149" s="10">
+        <v>50673</v>
+      </c>
+      <c r="F149" s="9">
+        <v>15</v>
+      </c>
+      <c r="G149" s="9">
+        <v>1</v>
+      </c>
+      <c r="I149" s="9">
+        <v>12</v>
+      </c>
+      <c r="J149" s="9">
+        <v>104</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="L149" s="10">
+        <v>53750</v>
+      </c>
+      <c r="M149" s="9">
+        <v>15</v>
+      </c>
+      <c r="N149" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="9">
+        <v>9</v>
+      </c>
+      <c r="C150" s="9">
+        <v>96</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E150" s="10">
+        <v>24063</v>
+      </c>
+      <c r="F150" s="9">
+        <v>4</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1</v>
+      </c>
+      <c r="I150" s="9">
+        <v>9</v>
+      </c>
+      <c r="J150" s="9">
+        <v>96</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="L150" s="10">
+        <v>30104</v>
+      </c>
+      <c r="M150" s="9">
+        <v>9</v>
+      </c>
+      <c r="N150" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="9">
+        <v>10</v>
+      </c>
+      <c r="C151" s="9">
+        <v>83</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E151" s="10">
+        <v>44699</v>
+      </c>
+      <c r="F151" s="9">
+        <v>15</v>
+      </c>
+      <c r="G151" s="9">
+        <v>1</v>
+      </c>
+      <c r="I151" s="9">
+        <v>10</v>
+      </c>
+      <c r="J151" s="9">
+        <v>83</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="L151" s="10">
+        <v>45663</v>
+      </c>
+      <c r="M151" s="9">
+        <v>15</v>
+      </c>
+      <c r="N151" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="9">
+        <v>11</v>
+      </c>
+      <c r="C152" s="9">
+        <v>69</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E152" s="10">
+        <v>33913</v>
+      </c>
+      <c r="F152" s="9">
+        <v>9</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="I152" s="9">
+        <v>11</v>
+      </c>
+      <c r="J152" s="9">
+        <v>69</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="L152" s="10">
+        <v>35072</v>
+      </c>
+      <c r="M152" s="9">
+        <v>9</v>
+      </c>
+      <c r="N152" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="9">
+        <v>13</v>
+      </c>
+      <c r="C153" s="9">
+        <v>59</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E153" s="10">
+        <v>31356</v>
+      </c>
+      <c r="F153" s="9">
+        <v>9</v>
+      </c>
+      <c r="G153" s="9">
+        <v>1</v>
+      </c>
+      <c r="I153" s="9">
+        <v>13</v>
+      </c>
+      <c r="J153" s="9">
+        <v>59</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="L153" s="10">
+        <v>31356</v>
+      </c>
+      <c r="M153" s="9">
+        <v>9</v>
+      </c>
+      <c r="N153" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="9">
+        <v>15</v>
+      </c>
+      <c r="C154" s="9">
+        <v>50</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E154" s="10">
+        <v>27400</v>
+      </c>
+      <c r="F154" s="9">
+        <v>9</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="I154" s="9">
+        <v>15</v>
+      </c>
+      <c r="J154" s="9">
+        <v>50</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="L154" s="10">
+        <v>29000</v>
+      </c>
+      <c r="M154" s="9">
+        <v>9</v>
+      </c>
+      <c r="N154" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="9">
+        <v>14</v>
+      </c>
+      <c r="C155" s="9">
+        <v>38</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E155" s="10">
+        <v>54211</v>
+      </c>
+      <c r="F155" s="9">
+        <v>15</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="I155" s="9">
+        <v>14</v>
+      </c>
+      <c r="J155" s="9">
+        <v>38</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="L155" s="10">
+        <v>55000</v>
+      </c>
+      <c r="M155" s="9">
+        <v>15</v>
+      </c>
+      <c r="N155" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="9">
+        <v>16</v>
+      </c>
+      <c r="C156" s="9">
+        <v>26</v>
+      </c>
+      <c r="D156" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9">
-        <v>7099</v>
-      </c>
-      <c r="N46" s="10">
-        <v>3018179653</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9">
-        <v>116152</v>
-      </c>
-      <c r="E47" s="10">
-        <v>49382674058</v>
-      </c>
-      <c r="F47" s="9">
-        <v>116152</v>
-      </c>
-      <c r="G47" s="10">
-        <v>49382674058</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9">
-        <v>11687</v>
-      </c>
-      <c r="L47" s="10">
-        <v>4968793578</v>
-      </c>
-      <c r="M47" s="9">
-        <v>11687</v>
-      </c>
-      <c r="N47" s="10">
-        <v>4968793578</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9">
-        <f t="shared" ref="D48" si="0">SUM(D13:D47)</f>
-        <v>235208</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9">
-        <f>SUM(F13:F47)</f>
-        <v>235208</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="I48" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9">
-        <v>80023</v>
-      </c>
-      <c r="L48" s="10">
-        <v>34022227135</v>
-      </c>
-      <c r="M48" s="9">
-        <v>80023</v>
-      </c>
-      <c r="N48" s="10">
-        <v>34022227135</v>
-      </c>
-    </row>
-    <row r="49" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I49" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9">
-        <f>SUM(K13:K48)</f>
-        <v>272796</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="9">
-        <f>SUM(M13:M48)</f>
-        <v>272796</v>
-      </c>
-      <c r="N49" s="10"/>
+      <c r="E156" s="10">
+        <v>31923</v>
+      </c>
+      <c r="F156" s="9">
+        <v>9</v>
+      </c>
+      <c r="G156" s="9">
+        <v>1</v>
+      </c>
+      <c r="I156" s="9">
+        <v>16</v>
+      </c>
+      <c r="J156" s="9">
+        <v>26</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="L156" s="10">
+        <v>38077</v>
+      </c>
+      <c r="M156" s="9">
+        <v>9</v>
+      </c>
+      <c r="N156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="9">
+        <v>23</v>
+      </c>
+      <c r="C157" s="9">
+        <v>24</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E157" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F157" s="9">
+        <v>4</v>
+      </c>
+      <c r="G157" s="9">
+        <v>1</v>
+      </c>
+      <c r="I157" s="9">
+        <v>23</v>
+      </c>
+      <c r="J157" s="9">
+        <v>24</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="L157" s="10">
+        <v>25000</v>
+      </c>
+      <c r="M157" s="9">
+        <v>4</v>
+      </c>
+      <c r="N157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="9">
+        <v>21</v>
+      </c>
+      <c r="C158" s="9">
+        <v>18</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E158" s="10">
+        <v>35000</v>
+      </c>
+      <c r="F158" s="9">
+        <v>9</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="I158" s="9">
+        <v>21</v>
+      </c>
+      <c r="J158" s="9">
+        <v>18</v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L158" s="10">
+        <v>35000</v>
+      </c>
+      <c r="M158" s="9">
+        <v>9</v>
+      </c>
+      <c r="N158" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="9">
+        <v>19</v>
+      </c>
+      <c r="C159" s="9">
+        <v>18</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E159" s="10">
+        <v>35000</v>
+      </c>
+      <c r="F159" s="9">
+        <v>9</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1</v>
+      </c>
+      <c r="I159" s="9">
+        <v>19</v>
+      </c>
+      <c r="J159" s="9">
+        <v>18</v>
+      </c>
+      <c r="K159" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="L159" s="10">
+        <v>43889</v>
+      </c>
+      <c r="M159" s="9">
+        <v>9</v>
+      </c>
+      <c r="N159" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="9">
+        <v>22</v>
+      </c>
+      <c r="C160" s="9">
+        <v>17</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E160" s="10">
+        <v>24118</v>
+      </c>
+      <c r="F160" s="9">
+        <v>4</v>
+      </c>
+      <c r="G160" s="9">
+        <v>1</v>
+      </c>
+      <c r="I160" s="9">
+        <v>22</v>
+      </c>
+      <c r="J160" s="9">
+        <v>17</v>
+      </c>
+      <c r="K160" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="L160" s="10">
+        <v>24118</v>
+      </c>
+      <c r="M160" s="9">
+        <v>4</v>
+      </c>
+      <c r="N160" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B161" s="9">
+        <v>24</v>
+      </c>
+      <c r="C161" s="9">
+        <v>16</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E161" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F161" s="9">
+        <v>4</v>
+      </c>
+      <c r="G161" s="9">
+        <v>1</v>
+      </c>
+      <c r="I161" s="9">
+        <v>24</v>
+      </c>
+      <c r="J161" s="9">
+        <v>16</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="L161" s="10">
+        <v>25000</v>
+      </c>
+      <c r="M161" s="9">
+        <v>4</v>
+      </c>
+      <c r="N161" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B162" s="9">
+        <v>33</v>
+      </c>
+      <c r="C162" s="9">
+        <v>10</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E162" s="10">
+        <v>28000</v>
+      </c>
+      <c r="F162" s="9">
+        <v>4</v>
+      </c>
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="I162" s="9">
+        <v>33</v>
+      </c>
+      <c r="J162" s="9">
+        <v>10</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="L162" s="10">
+        <v>28000</v>
+      </c>
+      <c r="M162" s="9">
+        <v>4</v>
+      </c>
+      <c r="N162" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B163" s="9">
+        <v>34</v>
+      </c>
+      <c r="C163" s="9">
+        <v>8</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E163" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F163" s="9">
+        <v>4</v>
+      </c>
+      <c r="G163" s="9">
+        <v>1</v>
+      </c>
+      <c r="I163" s="9">
+        <v>34</v>
+      </c>
+      <c r="J163" s="9">
+        <v>8</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="L163" s="10">
+        <v>25000</v>
+      </c>
+      <c r="M163" s="9">
+        <v>4</v>
+      </c>
+      <c r="N163" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B164" s="9">
+        <v>30</v>
+      </c>
+      <c r="C164" s="9">
+        <v>8</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E164" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F164" s="9">
+        <v>4</v>
+      </c>
+      <c r="G164" s="9">
+        <v>1</v>
+      </c>
+      <c r="I164" s="9">
+        <v>30</v>
+      </c>
+      <c r="J164" s="9">
+        <v>8</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="L164" s="10">
+        <v>51250</v>
+      </c>
+      <c r="M164" s="9">
+        <v>9</v>
+      </c>
+      <c r="N164" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B165" s="9">
+        <v>27</v>
+      </c>
+      <c r="C165" s="9">
+        <v>8</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E165" s="10">
+        <v>51250</v>
+      </c>
+      <c r="F165" s="9">
+        <v>9</v>
+      </c>
+      <c r="G165" s="9">
+        <v>1</v>
+      </c>
+      <c r="I165" s="9">
+        <v>27</v>
+      </c>
+      <c r="J165" s="9">
+        <v>8</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="L165" s="10">
+        <v>51250</v>
+      </c>
+      <c r="M165" s="9">
+        <v>9</v>
+      </c>
+      <c r="N165" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B166" s="9">
+        <v>18</v>
+      </c>
+      <c r="C166" s="9">
+        <v>8</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E166" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F166" s="9">
+        <v>4</v>
+      </c>
+      <c r="G166" s="9">
+        <v>1</v>
+      </c>
+      <c r="I166" s="9">
+        <v>18</v>
+      </c>
+      <c r="J166" s="9">
+        <v>8</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="L166" s="10">
+        <v>25000</v>
+      </c>
+      <c r="M166" s="9">
+        <v>4</v>
+      </c>
+      <c r="N166" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B167" s="9">
+        <v>26</v>
+      </c>
+      <c r="C167" s="9">
+        <v>6</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E167" s="10">
+        <v>30000</v>
+      </c>
+      <c r="F167" s="9">
+        <v>4</v>
+      </c>
+      <c r="G167" s="9">
+        <v>2</v>
+      </c>
+      <c r="I167" s="9">
+        <v>26</v>
+      </c>
+      <c r="J167" s="9">
+        <v>6</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="L167" s="10">
+        <v>30000</v>
+      </c>
+      <c r="M167" s="9">
+        <v>4</v>
+      </c>
+      <c r="N167" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B168" s="9">
+        <v>17</v>
+      </c>
+      <c r="C168" s="9">
+        <v>4</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E168" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F168" s="9">
+        <v>4</v>
+      </c>
+      <c r="G168" s="9">
+        <v>1</v>
+      </c>
+      <c r="I168" s="9">
+        <v>17</v>
+      </c>
+      <c r="J168" s="9">
+        <v>4</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="L168" s="10">
+        <v>25000</v>
+      </c>
+      <c r="M168" s="9">
+        <v>4</v>
+      </c>
+      <c r="N168" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B169" s="9">
+        <v>20</v>
+      </c>
+      <c r="C169" s="9">
+        <v>4</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E169" s="10">
+        <v>25000</v>
+      </c>
+      <c r="F169" s="9">
+        <v>4</v>
+      </c>
+      <c r="G169" s="9">
+        <v>1</v>
+      </c>
+      <c r="I169" s="9">
+        <v>20</v>
+      </c>
+      <c r="J169" s="9">
+        <v>4</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="L169" s="10">
+        <v>25000</v>
+      </c>
+      <c r="M169" s="9">
+        <v>4</v>
+      </c>
+      <c r="N169" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B170" s="9">
+        <v>36</v>
+      </c>
+      <c r="C170" s="9">
+        <v>3</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E170" s="10">
+        <v>30000</v>
+      </c>
+      <c r="F170" s="9">
+        <v>4</v>
+      </c>
+      <c r="G170" s="9">
+        <v>2</v>
+      </c>
+      <c r="I170" s="9">
+        <v>36</v>
+      </c>
+      <c r="J170" s="9">
+        <v>3</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L170" s="10">
+        <v>30000</v>
+      </c>
+      <c r="M170" s="9">
+        <v>4</v>
+      </c>
+      <c r="N170" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B171" s="9">
+        <v>29</v>
+      </c>
+      <c r="C171" s="9">
+        <v>3</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E171" s="10">
+        <v>30000</v>
+      </c>
+      <c r="F171" s="9">
+        <v>4</v>
+      </c>
+      <c r="G171" s="9">
+        <v>2</v>
+      </c>
+      <c r="I171" s="9">
+        <v>29</v>
+      </c>
+      <c r="J171" s="9">
+        <v>3</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L171" s="10">
+        <v>30000</v>
+      </c>
+      <c r="M171" s="9">
+        <v>4</v>
+      </c>
+      <c r="N171" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B172" s="9">
+        <v>32</v>
+      </c>
+      <c r="C172" s="9">
+        <v>3</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E172" s="10">
+        <v>30000</v>
+      </c>
+      <c r="F172" s="9">
+        <v>4</v>
+      </c>
+      <c r="G172" s="9">
+        <v>2</v>
+      </c>
+      <c r="I172" s="9">
+        <v>32</v>
+      </c>
+      <c r="J172" s="9">
+        <v>3</v>
+      </c>
+      <c r="K172" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L172" s="10">
+        <v>30000</v>
+      </c>
+      <c r="M172" s="9">
+        <v>4</v>
+      </c>
+      <c r="N172" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B173" s="9">
+        <v>31</v>
+      </c>
+      <c r="C173" s="9">
+        <v>1</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E173" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F173" s="9">
+        <v>1</v>
+      </c>
+      <c r="G173" s="9">
+        <v>1</v>
+      </c>
+      <c r="I173" s="9">
+        <v>31</v>
+      </c>
+      <c r="J173" s="9">
+        <v>1</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L173" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M173" s="9">
+        <v>1</v>
+      </c>
+      <c r="N173" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B174" s="9">
+        <v>28</v>
+      </c>
+      <c r="C174" s="9">
+        <v>1</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E174" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F174" s="9">
+        <v>1</v>
+      </c>
+      <c r="G174" s="9">
+        <v>1</v>
+      </c>
+      <c r="I174" s="9">
+        <v>28</v>
+      </c>
+      <c r="J174" s="9">
+        <v>1</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L174" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M174" s="9">
+        <v>1</v>
+      </c>
+      <c r="N174" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>464</v>
+      </c>
+      <c r="I176" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B177" s="9">
+        <v>2</v>
+      </c>
+      <c r="C177" s="9">
+        <v>7492</v>
+      </c>
+      <c r="D177" s="10">
+        <v>305497</v>
+      </c>
+      <c r="E177" s="10">
+        <v>821328</v>
+      </c>
+      <c r="F177" s="9">
+        <v>590</v>
+      </c>
+      <c r="G177" s="9">
+        <v>1</v>
+      </c>
+      <c r="I177" s="9">
+        <v>2</v>
+      </c>
+      <c r="J177" s="9">
+        <v>8234</v>
+      </c>
+      <c r="K177" s="10">
+        <v>306336</v>
+      </c>
+      <c r="L177" s="10">
+        <v>8020543</v>
+      </c>
+      <c r="M177" s="9">
+        <v>10984</v>
+      </c>
+      <c r="N177" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B178" s="9">
+        <v>1</v>
+      </c>
+      <c r="C178" s="9">
+        <v>5133</v>
+      </c>
+      <c r="D178" s="10">
+        <v>209305</v>
+      </c>
+      <c r="E178" s="10">
+        <v>9626971</v>
+      </c>
+      <c r="F178" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1</v>
+      </c>
+      <c r="I178" s="9">
+        <v>1</v>
+      </c>
+      <c r="J178" s="9">
+        <v>5799</v>
+      </c>
+      <c r="K178" s="10">
+        <v>215745</v>
+      </c>
+      <c r="L178" s="10">
+        <v>15272930</v>
+      </c>
+      <c r="M178" s="9">
+        <v>10992</v>
+      </c>
+      <c r="N178" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B179" s="9">
+        <v>3</v>
+      </c>
+      <c r="C179" s="9">
+        <v>4879</v>
+      </c>
+      <c r="D179" s="10">
+        <v>198948</v>
+      </c>
+      <c r="E179" s="10">
+        <v>319184</v>
+      </c>
+      <c r="F179" s="9">
+        <v>640</v>
+      </c>
+      <c r="G179" s="9">
+        <v>1</v>
+      </c>
+      <c r="I179" s="9">
+        <v>3</v>
+      </c>
+      <c r="J179" s="9">
+        <v>5478</v>
+      </c>
+      <c r="K179" s="10">
+        <v>203802</v>
+      </c>
+      <c r="L179" s="10">
+        <v>8546703</v>
+      </c>
+      <c r="M179" s="9">
+        <v>10731</v>
+      </c>
+      <c r="N179" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B180" s="9">
+        <v>4</v>
+      </c>
+      <c r="C180" s="9">
+        <v>4712</v>
+      </c>
+      <c r="D180" s="10">
+        <v>192138</v>
+      </c>
+      <c r="E180" s="10">
+        <v>1160690</v>
+      </c>
+      <c r="F180" s="9">
+        <v>486</v>
+      </c>
+      <c r="G180" s="9">
+        <v>1</v>
+      </c>
+      <c r="I180" s="9">
+        <v>4</v>
+      </c>
+      <c r="J180" s="9">
+        <v>4937</v>
+      </c>
+      <c r="K180" s="10">
+        <v>183675</v>
+      </c>
+      <c r="L180" s="10">
+        <v>9707413</v>
+      </c>
+      <c r="M180" s="9">
+        <v>10973</v>
+      </c>
+      <c r="N180" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B181" s="9">
+        <v>5</v>
+      </c>
+      <c r="C181" s="9">
+        <v>1552</v>
+      </c>
+      <c r="D181" s="10">
+        <v>63285</v>
+      </c>
+      <c r="E181" s="10">
+        <v>106334</v>
+      </c>
+      <c r="F181" s="9">
+        <v>122</v>
+      </c>
+      <c r="G181" s="9">
+        <v>1</v>
+      </c>
+      <c r="I181" s="9">
+        <v>5</v>
+      </c>
+      <c r="J181" s="9">
+        <v>1634</v>
+      </c>
+      <c r="K181" s="10">
+        <v>60791</v>
+      </c>
+      <c r="L181" s="10">
+        <v>4380153</v>
+      </c>
+      <c r="M181" s="9">
+        <v>10979</v>
+      </c>
+      <c r="N181" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B182" s="9">
+        <v>7</v>
+      </c>
+      <c r="C182" s="9">
+        <v>439</v>
+      </c>
+      <c r="D182" s="10">
+        <v>17901</v>
+      </c>
+      <c r="E182" s="10">
+        <v>42483</v>
+      </c>
+      <c r="F182" s="9">
+        <v>14</v>
+      </c>
+      <c r="G182" s="9">
+        <v>1</v>
+      </c>
+      <c r="I182" s="9">
+        <v>7</v>
+      </c>
+      <c r="J182" s="9">
+        <v>448</v>
+      </c>
+      <c r="K182" s="10">
+        <v>16667</v>
+      </c>
+      <c r="L182" s="10">
+        <v>295357</v>
+      </c>
+      <c r="M182" s="9">
+        <v>6599</v>
+      </c>
+      <c r="N182" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B183" s="9">
+        <v>6</v>
+      </c>
+      <c r="C183" s="9">
+        <v>246</v>
+      </c>
+      <c r="D183" s="10">
+        <v>10031</v>
+      </c>
+      <c r="E183" s="10">
+        <v>46992</v>
+      </c>
+      <c r="F183" s="9">
+        <v>38</v>
+      </c>
+      <c r="G183" s="9">
+        <v>1</v>
+      </c>
+      <c r="I183" s="9">
+        <v>6</v>
+      </c>
+      <c r="J183" s="9">
+        <v>278</v>
+      </c>
+      <c r="K183" s="10">
+        <v>10343</v>
+      </c>
+      <c r="L183" s="10">
+        <v>4091655</v>
+      </c>
+      <c r="M183" s="9">
+        <v>6493</v>
+      </c>
+      <c r="N183" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B184" s="9">
+        <v>8</v>
+      </c>
+      <c r="C184" s="9">
+        <v>57</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E184" s="10">
+        <v>31579</v>
+      </c>
+      <c r="F184" s="9">
+        <v>9</v>
+      </c>
+      <c r="G184" s="9">
+        <v>1</v>
+      </c>
+      <c r="I184" s="9">
+        <v>8</v>
+      </c>
+      <c r="J184" s="9">
+        <v>57</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="L184" s="10">
+        <v>65263</v>
+      </c>
+      <c r="M184" s="9">
+        <v>130</v>
+      </c>
+      <c r="N184" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B185" s="9">
+        <v>12</v>
+      </c>
+      <c r="C185" s="9">
+        <v>6</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E185" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F185" s="9">
+        <v>1</v>
+      </c>
+      <c r="G185" s="9">
+        <v>1</v>
+      </c>
+      <c r="I185" s="9">
+        <v>12</v>
+      </c>
+      <c r="J185" s="9">
+        <v>6</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="L185" s="10">
+        <v>23333</v>
+      </c>
+      <c r="M185" s="9">
+        <v>3</v>
+      </c>
+      <c r="N185" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B186" s="9">
+        <v>9</v>
+      </c>
+      <c r="C186" s="9">
+        <v>4</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E186" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F186" s="9">
+        <v>1</v>
+      </c>
+      <c r="G186" s="9">
+        <v>1</v>
+      </c>
+      <c r="I186" s="9">
+        <v>9</v>
+      </c>
+      <c r="J186" s="9">
+        <v>4</v>
+      </c>
+      <c r="K186" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="L186" s="10">
+        <v>35000</v>
+      </c>
+      <c r="M186" s="9">
+        <v>6</v>
+      </c>
+      <c r="N186" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B187" s="9">
+        <v>10</v>
+      </c>
+      <c r="C187" s="9">
+        <v>4</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E187" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F187" s="9">
+        <v>1</v>
+      </c>
+      <c r="G187" s="9">
+        <v>1</v>
+      </c>
+      <c r="I187" s="9">
+        <v>10</v>
+      </c>
+      <c r="J187" s="9">
+        <v>4</v>
+      </c>
+      <c r="K187" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="L187" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M187" s="9">
+        <v>1</v>
+      </c>
+      <c r="N187" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>468</v>
+      </c>
+      <c r="I189" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B190" s="9">
+        <v>3</v>
+      </c>
+      <c r="C190" s="9">
+        <v>8289</v>
+      </c>
+      <c r="D190" s="10">
+        <v>337995</v>
+      </c>
+      <c r="E190" s="10">
+        <v>1911054</v>
+      </c>
+      <c r="F190" s="9">
+        <v>8656</v>
+      </c>
+      <c r="G190" s="9">
+        <v>1</v>
+      </c>
+      <c r="I190" s="9">
+        <v>3</v>
+      </c>
+      <c r="J190" s="9">
+        <v>8723</v>
+      </c>
+      <c r="K190" s="10">
+        <v>324528</v>
+      </c>
+      <c r="L190" s="10">
+        <v>8089239</v>
+      </c>
+      <c r="M190" s="9">
+        <v>10986</v>
+      </c>
+      <c r="N190" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B191" s="9">
+        <v>2</v>
+      </c>
+      <c r="C191" s="9">
+        <v>6536</v>
+      </c>
+      <c r="D191" s="10">
+        <v>266514</v>
+      </c>
+      <c r="E191" s="10">
+        <v>2724351</v>
+      </c>
+      <c r="F191" s="9">
+        <v>8661</v>
+      </c>
+      <c r="G191" s="9">
+        <v>1</v>
+      </c>
+      <c r="I191" s="9">
+        <v>2</v>
+      </c>
+      <c r="J191" s="9">
+        <v>7710</v>
+      </c>
+      <c r="K191" s="10">
+        <v>286841</v>
+      </c>
+      <c r="L191" s="10">
+        <v>11403473</v>
+      </c>
+      <c r="M191" s="9">
+        <v>10991</v>
+      </c>
+      <c r="N191" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B192" s="9">
+        <v>4</v>
+      </c>
+      <c r="C192" s="9">
+        <v>5610</v>
+      </c>
+      <c r="D192" s="10">
+        <v>228756</v>
+      </c>
+      <c r="E192" s="10">
+        <v>2298258</v>
+      </c>
+      <c r="F192" s="9">
+        <v>8660</v>
+      </c>
+      <c r="G192" s="9">
+        <v>1</v>
+      </c>
+      <c r="I192" s="9">
+        <v>4</v>
+      </c>
+      <c r="J192" s="9">
+        <v>5805</v>
+      </c>
+      <c r="K192" s="10">
+        <v>215968</v>
+      </c>
+      <c r="L192" s="10">
+        <v>7597252</v>
+      </c>
+      <c r="M192" s="9">
+        <v>10990</v>
+      </c>
+      <c r="N192" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B193" s="9">
+        <v>5</v>
+      </c>
+      <c r="C193" s="9">
+        <v>2285</v>
+      </c>
+      <c r="D193" s="10">
+        <v>93174</v>
+      </c>
+      <c r="E193" s="10">
+        <v>2767514</v>
+      </c>
+      <c r="F193" s="9">
+        <v>8647</v>
+      </c>
+      <c r="G193" s="9">
+        <v>1</v>
+      </c>
+      <c r="I193" s="9">
+        <v>5</v>
+      </c>
+      <c r="J193" s="9">
+        <v>2403</v>
+      </c>
+      <c r="K193" s="10">
+        <v>89401</v>
+      </c>
+      <c r="L193" s="10">
+        <v>8346625</v>
+      </c>
+      <c r="M193" s="9">
+        <v>10965</v>
+      </c>
+      <c r="N193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B194" s="9">
+        <v>1</v>
+      </c>
+      <c r="C194" s="9">
+        <v>1053</v>
+      </c>
+      <c r="D194" s="10">
+        <v>42938</v>
+      </c>
+      <c r="E194" s="10">
+        <v>6134150</v>
+      </c>
+      <c r="F194" s="9">
+        <v>8662</v>
+      </c>
+      <c r="G194" s="9">
+        <v>1</v>
+      </c>
+      <c r="I194" s="9">
+        <v>1</v>
+      </c>
+      <c r="J194" s="9">
+        <v>1438</v>
+      </c>
+      <c r="K194" s="10">
+        <v>53499</v>
+      </c>
+      <c r="L194" s="10">
+        <v>18331196</v>
+      </c>
+      <c r="M194" s="9">
+        <v>10992</v>
+      </c>
+      <c r="N194" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B195" s="9">
+        <v>6</v>
+      </c>
+      <c r="C195" s="9">
+        <v>513</v>
+      </c>
+      <c r="D195" s="10">
+        <v>20918</v>
+      </c>
+      <c r="E195" s="10">
+        <v>3368928</v>
+      </c>
+      <c r="F195" s="9">
+        <v>8638</v>
+      </c>
+      <c r="G195" s="9">
+        <v>1</v>
+      </c>
+      <c r="I195" s="9">
+        <v>6</v>
+      </c>
+      <c r="J195" s="9">
+        <v>540</v>
+      </c>
+      <c r="K195" s="10">
+        <v>20090</v>
+      </c>
+      <c r="L195" s="10">
+        <v>10045241</v>
+      </c>
+      <c r="M195" s="9">
+        <v>10956</v>
+      </c>
+      <c r="N195" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B196" s="9">
+        <v>7</v>
+      </c>
+      <c r="C196" s="9">
+        <v>142</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E196" s="10">
+        <v>9086831</v>
+      </c>
+      <c r="F196" s="9">
+        <v>8632</v>
+      </c>
+      <c r="G196" s="9">
+        <v>1</v>
+      </c>
+      <c r="I196" s="9">
+        <v>7</v>
+      </c>
+      <c r="J196" s="9">
+        <v>149</v>
+      </c>
+      <c r="K196" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="L196" s="10">
+        <v>15151544</v>
+      </c>
+      <c r="M196" s="9">
+        <v>10948</v>
+      </c>
+      <c r="N196" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B197" s="9">
+        <v>8</v>
+      </c>
+      <c r="C197" s="9">
+        <v>56</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E197" s="10">
+        <v>6411964</v>
+      </c>
+      <c r="F197" s="9">
+        <v>8609</v>
+      </c>
+      <c r="G197" s="9">
+        <v>1</v>
+      </c>
+      <c r="I197" s="9">
+        <v>8</v>
+      </c>
+      <c r="J197" s="9">
+        <v>66</v>
+      </c>
+      <c r="K197" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="L197" s="10">
+        <v>9586818</v>
+      </c>
+      <c r="M197" s="9">
+        <v>10924</v>
+      </c>
+      <c r="N197" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B198" s="9">
+        <v>11</v>
+      </c>
+      <c r="C198" s="9">
+        <v>13</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E198" s="10">
+        <v>6677692</v>
+      </c>
+      <c r="F198" s="9">
+        <v>8620</v>
+      </c>
+      <c r="G198" s="9">
+        <v>1</v>
+      </c>
+      <c r="I198" s="9">
+        <v>11</v>
+      </c>
+      <c r="J198" s="9">
+        <v>14</v>
+      </c>
+      <c r="K198" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="L198" s="10">
+        <v>7855714</v>
+      </c>
+      <c r="M198" s="9">
+        <v>10935</v>
+      </c>
+      <c r="N198" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B199" s="9">
+        <v>9</v>
+      </c>
+      <c r="C199" s="9">
+        <v>10</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E199" s="10">
+        <v>125000</v>
+      </c>
+      <c r="F199" s="9">
+        <v>89</v>
+      </c>
+      <c r="G199" s="9">
+        <v>1</v>
+      </c>
+      <c r="I199" s="9">
+        <v>9</v>
+      </c>
+      <c r="J199" s="9">
+        <v>11</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="L199" s="10">
+        <v>279091</v>
+      </c>
+      <c r="M199" s="9">
+        <v>258</v>
+      </c>
+      <c r="N199" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B200" s="9">
+        <v>12</v>
+      </c>
+      <c r="C200" s="9">
+        <v>9</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E200" s="10">
+        <v>334444</v>
+      </c>
+      <c r="F200" s="9">
+        <v>103</v>
+      </c>
+      <c r="G200" s="9">
+        <v>1</v>
+      </c>
+      <c r="I200" s="9">
+        <v>12</v>
+      </c>
+      <c r="J200" s="9">
+        <v>9</v>
+      </c>
+      <c r="K200" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="L200" s="10">
+        <v>13192222</v>
+      </c>
+      <c r="M200" s="9">
+        <v>3963</v>
+      </c>
+      <c r="N200" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B201" s="9">
+        <v>14</v>
+      </c>
+      <c r="C201" s="9">
+        <v>5</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E201" s="10">
+        <v>12000</v>
+      </c>
+      <c r="F201" s="9">
+        <v>2</v>
+      </c>
+      <c r="G201" s="9">
+        <v>1</v>
+      </c>
+      <c r="I201" s="9">
+        <v>14</v>
+      </c>
+      <c r="J201" s="9">
+        <v>7</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="L201" s="10">
+        <v>33487143</v>
+      </c>
+      <c r="M201" s="9">
+        <v>6595</v>
+      </c>
+      <c r="N201" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B202" s="9">
+        <v>10</v>
+      </c>
+      <c r="C202" s="9">
+        <v>3</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E202" s="10">
+        <v>46667</v>
+      </c>
+      <c r="F202" s="9">
+        <v>6</v>
+      </c>
+      <c r="G202" s="9">
+        <v>3</v>
+      </c>
+      <c r="I202" s="9">
+        <v>10</v>
+      </c>
+      <c r="J202" s="9">
+        <v>3</v>
+      </c>
+      <c r="K202" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L202" s="10">
+        <v>50000</v>
+      </c>
+      <c r="M202" s="9">
+        <v>6</v>
+      </c>
+      <c r="N202" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I203" s="9">
+        <v>15</v>
+      </c>
+      <c r="J203" s="9">
+        <v>1</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L203" s="10">
+        <v>680000</v>
+      </c>
+      <c r="M203" s="9">
+        <v>68</v>
+      </c>
+      <c r="N203" s="9">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2947,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G133"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,24 +7210,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2987,7 +7235,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C4" s="9">
         <v>235208</v>
@@ -3039,40 +7287,40 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="E9" s="13" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B11" s="9">
         <v>31217</v>
@@ -3081,7 +7329,7 @@
         <v>100000000000</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F11" s="9">
         <v>13224</v>
@@ -3092,7 +7340,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B12" s="9">
         <v>23411</v>
@@ -3101,18 +7349,18 @@
         <v>74994394080</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B13" s="9">
         <v>7806</v>
@@ -3121,7 +7369,7 @@
         <v>25005605919</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F13" s="9">
         <v>8156</v>
@@ -3132,16 +7380,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F14" s="9">
         <v>136</v>
@@ -3152,7 +7400,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B15" s="9">
         <v>1524</v>
@@ -3161,7 +7409,7 @@
         <v>4881955344</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F15" s="9">
         <v>5417</v>
@@ -3172,7 +7420,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B16" s="9">
         <v>11700</v>
@@ -3181,7 +7429,7 @@
         <v>37479578434</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F16" s="9">
         <v>5578</v>
@@ -3192,7 +7440,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B17" s="9">
         <v>13224</v>
@@ -3201,7 +7449,7 @@
         <v>42361533779</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="F17" s="9">
         <v>12769</v>
@@ -3212,18 +7460,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" s="11" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E19" s="9" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F19" s="9">
         <v>12608</v>
@@ -3234,7 +7482,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="9" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F20" s="9">
         <v>5664</v>
@@ -3248,7 +7496,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="E21" s="9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F21" s="9">
         <v>5752</v>
@@ -3259,7 +7507,7 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E22" s="9" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F22" s="9">
         <v>5913</v>
@@ -3270,7 +7518,7 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E23" s="9" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="F23" s="9">
         <v>13224</v>
@@ -3291,40 +7539,40 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="E27" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B29" s="9">
         <v>31217</v>
@@ -3333,7 +7581,7 @@
         <v>100000000000</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F29" s="9">
         <v>13224</v>
@@ -3344,27 +7592,27 @@
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B31" s="9">
         <v>5434</v>
@@ -3373,7 +7621,7 @@
         <v>17407181984</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F31" s="9">
         <v>3643</v>
@@ -3384,7 +7632,7 @@
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B32" s="9">
         <v>25783</v>
@@ -3393,7 +7641,7 @@
         <v>82592818015</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F32" s="9">
         <v>9581</v>
@@ -3404,22 +7652,22 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3444,7 +7692,7 @@
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B35" s="9">
         <v>20886</v>
@@ -3453,7 +7701,7 @@
         <v>66905852580</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F35" s="9">
         <v>8897</v>
@@ -3464,22 +7712,22 @@
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3504,7 +7752,7 @@
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B38" s="9">
         <v>26621</v>
@@ -3513,7 +7761,7 @@
         <v>85277252778</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F38" s="9">
         <v>12704</v>
@@ -3560,40 +7808,40 @@
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="E44" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B46" s="9">
         <v>31217</v>
@@ -3602,7 +7850,7 @@
         <v>100000000000</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F46" s="9">
         <v>13224</v>
@@ -3613,22 +7861,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3759,7 +8007,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E54" s="9">
         <v>7</v>
@@ -3768,7 +8016,7 @@
         <v>104</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,7 +8027,7 @@
         <v>119</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E55" s="9">
         <v>8</v>
@@ -3788,7 +8036,7 @@
         <v>73</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3799,7 +8047,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E56" s="9">
         <v>9</v>
@@ -3808,7 +8056,7 @@
         <v>75</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3819,7 +8067,7 @@
         <v>86</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E57" s="9">
         <v>10</v>
@@ -3828,7 +8076,7 @@
         <v>49</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3839,7 +8087,7 @@
         <v>70</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E58" s="9">
         <v>11</v>
@@ -3848,7 +8096,7 @@
         <v>60</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3859,7 +8107,7 @@
         <v>104</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E59" s="9">
         <v>12</v>
@@ -3868,7 +8116,7 @@
         <v>51</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,7 +8127,7 @@
         <v>61</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E60" s="9">
         <v>13</v>
@@ -3888,7 +8136,7 @@
         <v>42</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,7 +8147,7 @@
         <v>38</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E61" s="9">
         <v>14</v>
@@ -3908,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3919,7 +8167,7 @@
         <v>50</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E62" s="9">
         <v>15</v>
@@ -3928,7 +8176,7 @@
         <v>25</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,7 +8187,7 @@
         <v>26</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E63" s="9">
         <v>16</v>
@@ -3948,7 +8196,7 @@
         <v>22</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,7 +8207,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E64" s="9">
         <v>17</v>
@@ -3968,7 +8216,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3979,7 +8227,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E65" s="9">
         <v>19</v>
@@ -3988,7 +8236,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3999,7 +8247,7 @@
         <v>18</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E66" s="9">
         <v>20</v>
@@ -4008,7 +8256,7 @@
         <v>4</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4019,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E67" s="9">
         <v>21</v>
@@ -4028,7 +8276,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4039,7 +8287,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E68" s="9">
         <v>22</v>
@@ -4048,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4059,7 +8307,7 @@
         <v>17</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E69" s="9">
         <v>23</v>
@@ -4068,7 +8316,7 @@
         <v>23</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4079,7 +8327,7 @@
         <v>24</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E70" s="9">
         <v>24</v>
@@ -4088,7 +8336,7 @@
         <v>16</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4099,7 +8347,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E71" s="9">
         <v>26</v>
@@ -4108,7 +8356,7 @@
         <v>6</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4119,7 +8367,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E72" s="9">
         <v>28</v>
@@ -4128,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4139,7 +8387,7 @@
         <v>8</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E73" s="9">
         <v>29</v>
@@ -4148,7 +8396,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4159,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E74" s="9">
         <v>30</v>
@@ -4168,7 +8416,7 @@
         <v>7</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4179,7 +8427,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E75" s="9">
         <v>31</v>
@@ -4188,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4199,7 +8447,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E76" s="9">
         <v>32</v>
@@ -4208,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4219,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E77" s="9">
         <v>33</v>
@@ -4228,7 +8476,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4239,7 +8487,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E78" s="9">
         <v>34</v>
@@ -4248,7 +8496,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4259,7 +8507,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4270,7 +8518,7 @@
         <v>8</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4281,46 +8529,46 @@
         <v>3</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="E86" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="E86" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B88" s="9">
         <v>31217</v>
@@ -4329,7 +8577,7 @@
         <v>100000000000</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F88" s="9">
         <v>13224</v>
@@ -4340,22 +8588,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4475,7 +8723,7 @@
         <v>127</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4506,7 +8754,7 @@
         <v>61</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E97" s="9">
         <v>8</v>
@@ -4515,7 +8763,7 @@
         <v>23</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4526,7 +8774,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="E98" s="9">
         <v>9</v>
@@ -4535,7 +8783,7 @@
         <v>4</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4546,7 +8794,7 @@
         <v>4</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
@@ -4560,7 +8808,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
@@ -4573,27 +8821,27 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B103" s="9">
         <v>31217</v>
@@ -4602,7 +8850,7 @@
         <v>100000000000</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F103" s="9">
         <v>13224</v>
@@ -4613,22 +8861,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4759,7 +9007,7 @@
         <v>220</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E111" s="9">
         <v>7</v>
@@ -4768,7 +9016,7 @@
         <v>57</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4779,7 +9027,7 @@
         <v>89</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E112" s="9">
         <v>8</v>
@@ -4788,7 +9036,7 @@
         <v>23</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4799,7 +9047,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E113" s="9">
         <v>11</v>
@@ -4808,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4819,7 +9067,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E114" s="9">
         <v>12</v>
@@ -4828,7 +9076,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4839,7 +9087,7 @@
         <v>14</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E115" s="9">
         <v>14</v>
@@ -4848,7 +9096,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4859,7 +9107,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E116" s="9">
         <v>15</v>
@@ -4868,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4879,7 +9127,7 @@
         <v>8</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -4893,7 +9141,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4963,919 +9211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A202"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A137" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A153" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6804,7 +10143,7 @@
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6904,27 +10243,27 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6972,7 +10311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P280"/>
   <sheetViews>
@@ -9448,7 +12787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -9479,7 +12818,7 @@
         <v>166</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9764,7 +13103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/src/site/mining.xlsx
+++ b/src/site/mining.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="9" r:id="rId1"/>
@@ -1577,16 +1577,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1884,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2089,7 +2117,7 @@
       <c r="B9" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>2003480</v>
       </c>
       <c r="D9" s="14"/>
@@ -7210,11 +7238,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -7287,11 +7315,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="E9" s="13" t="s">
         <v>220</v>
       </c>
@@ -7539,16 +7567,16 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="E27" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -7808,16 +7836,16 @@
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="E44" s="17" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="E44" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -8535,16 +8563,16 @@
     <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:7" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="E86" s="17" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="E86" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
@@ -9213,8 +9241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/site/mining.xlsx
+++ b/src/site/mining.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Setup" sheetId="24" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="R5" sheetId="20" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'R5'!$A$7:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'R5'!$A$7:$K$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="488">
   <si>
     <t>boolean</t>
   </si>
@@ -890,9 +890,6 @@
     <t xml:space="preserve">       avg(similar_BWT) as similar_BWT,</t>
   </si>
   <si>
-    <t xml:space="preserve">       ((avg(similar_BWT) / avg(search_interface)) * 100) as '% similar_BWT'</t>
-  </si>
-  <si>
     <t>from v_profile_project as p where search_interface &gt; 0</t>
   </si>
   <si>
@@ -908,9 +905,6 @@
     <t xml:space="preserve">       sum(similar_BWT) as similar_BWT,</t>
   </si>
   <si>
-    <t xml:space="preserve">       ((sum(similar_BWT) / sum(search_interface)) * 100) as '% similar_BWT'</t>
-  </si>
-  <si>
     <t>-- #18 Métodos similares por projeto</t>
   </si>
   <si>
@@ -920,9 +914,6 @@
     <t xml:space="preserve">       similar_AWT, ((similar_AWT / search_interface) * 100) as '% similar_AWT',</t>
   </si>
   <si>
-    <t xml:space="preserve">       similar_BWT, ((similar_BWT / search_interface) * 100) as '% similar_BWT'</t>
-  </si>
-  <si>
     <t>from v_profile_project as p  where search_interface &gt; 0</t>
   </si>
   <si>
@@ -1434,6 +1425,69 @@
   </si>
   <si>
     <t>select total_words_class, count(*) total, (count(*) * 100 / 442) '%', avg(p1_c0_w1_t1) avg, max(p1_c0_w1_t1) max, min(p1_c0_w1_t1) min from v_interface_metrics_dif where p1_c0_w1_t1 &gt; 0</t>
+  </si>
+  <si>
+    <t>and p1_c1_w0_t0 &gt; 0</t>
+  </si>
+  <si>
+    <t>) as 'same_interface'</t>
+  </si>
+  <si>
+    <t>and p1_c0_w0_t0 &gt; 0</t>
+  </si>
+  <si>
+    <t>) as 'same_class_interface'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ((avg(similar_BWT) / avg(search_interface)) * 100) as '% similar_BWT',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       avg(same_interface) as same_interface,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ((avg(same_interface) / avg(search_interface)) * 100) as '% same_interface',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       avg(same_class_interface) as same_class_interface,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ((avg(same_class_interface) / avg(search_interface)) * 100) as '% same_class_interface'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ((sum(similar_BWT) / sum(search_interface)) * 100) as '% similar_BWT',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(same_interface) as same_interface,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ((sum(same_interface) / sum(search_interface)) * 100) as '% same_interface',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(same_class_interface) as same_class_interface,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ((sum(same_class_interface) / sum(search_interface)) * 100) as '% same_class_interface'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       similar_BWT, ((similar_BWT / search_interface) * 100) as '% similar_BWT',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       same_interface, ((same_interface / search_interface) * 100) as '% same_interface',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       same_class_interface, ((same_class_interface / search_interface) * 100) as '% same_class_interface'</t>
+  </si>
+  <si>
+    <t>same_interface</t>
+  </si>
+  <si>
+    <t>% same_interface</t>
+  </si>
+  <si>
+    <t>same_class_interface</t>
+  </si>
+  <si>
+    <t>% same_class_interface</t>
   </si>
 </sst>
 </file>
@@ -2080,22 +2134,22 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -2541,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A240"/>
+  <dimension ref="A1:A252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A241"/>
+      <selection sqref="A1:A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,112 +2621,112 @@
     </row>
     <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2695,287 +2749,287 @@
     </row>
     <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -2996,287 +3050,287 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -3297,17 +3351,17 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
@@ -3317,12 +3371,12 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
@@ -3332,17 +3386,17 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
@@ -3352,22 +3406,22 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
@@ -3377,27 +3431,27 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
@@ -3407,7 +3461,7 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -3467,7 +3521,7 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
@@ -3477,7 +3531,7 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
@@ -3537,22 +3591,22 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
@@ -3573,92 +3627,152 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>422</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3668,9 +3782,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3726,7 +3840,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3736,12 +3850,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -3751,12 +3865,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -3766,12 +3880,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3781,7 +3895,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -3791,7 +3905,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3801,7 +3915,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -3811,7 +3925,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -3821,17 +3935,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -3841,32 +3955,32 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -3876,37 +3990,37 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -3916,7 +4030,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -3926,12 +4040,12 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -3941,12 +4055,12 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -3956,12 +4070,12 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -3981,7 +4095,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -3991,12 +4105,12 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
@@ -4006,12 +4120,12 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -4021,12 +4135,12 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -4036,7 +4150,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -4051,7 +4165,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -4066,7 +4180,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -4081,7 +4195,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
@@ -4096,7 +4210,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -4111,7 +4225,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -4151,81 +4265,131 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>288</v>
+        <v>471</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>289</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>283</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>290</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4515,7 +4679,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B16" s="18">
         <v>385078</v>
@@ -5676,7 +5840,7 @@
         <v>120</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C42" s="7">
         <v>764</v>
@@ -5692,7 +5856,7 @@
         <v>120</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C43" s="7">
         <v>721</v>
@@ -6398,7 +6562,7 @@
         <v>120</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C91" s="7">
         <v>764</v>
@@ -6414,7 +6578,7 @@
         <v>120</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C92" s="7">
         <v>721</v>
@@ -6556,7 +6720,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B5" s="7">
         <v>3755</v>
@@ -6576,7 +6740,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B6" s="7">
         <v>408</v>
@@ -6596,7 +6760,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B7" s="7">
         <v>1455</v>
@@ -6636,7 +6800,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B9" s="7">
         <v>4869</v>
@@ -6656,7 +6820,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B10" s="7">
         <v>4681</v>
@@ -6676,7 +6840,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B11" s="7">
         <v>3812</v>
@@ -6696,7 +6860,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B12" s="7">
         <v>442</v>
@@ -6716,7 +6880,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B13" s="7">
         <v>438</v>
@@ -6736,7 +6900,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B14" s="7">
         <v>411</v>
@@ -6790,7 +6954,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B17" s="7">
         <v>3988</v>
@@ -6810,7 +6974,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B18" s="7">
         <v>3812</v>
@@ -6830,7 +6994,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B19" s="7">
         <v>3021</v>
@@ -6850,7 +7014,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B20" s="7">
         <v>397</v>
@@ -6870,7 +7034,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B21" s="7">
         <v>393</v>
@@ -6890,7 +7054,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B22" s="7">
         <v>367</v>
@@ -6943,7 +7107,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B26" s="7">
         <v>4869</v>
@@ -7177,7 +7341,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B38" s="7">
         <v>442</v>
@@ -8468,7 +8632,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -8549,23 +8713,21 @@
   </sheetPr>
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="10"/>
@@ -8593,20 +8755,29 @@
         <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="H2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -8630,9 +8801,18 @@
       <c r="G3" s="17">
         <v>3.0384271699999998</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="H3" s="17">
+        <v>40.815199999999997</v>
+      </c>
+      <c r="I3" s="17">
+        <v>25.812882380000001</v>
+      </c>
+      <c r="J3" s="17">
+        <v>4.4348000000000001</v>
+      </c>
+      <c r="K3" s="17">
+        <v>2.8047019999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -8656,9 +8836,18 @@
       <c r="G4" s="17">
         <v>3.0384270999999998</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="H4" s="7">
+        <v>3755</v>
+      </c>
+      <c r="I4" s="17">
+        <v>25.812882299999998</v>
+      </c>
+      <c r="J4" s="7">
+        <v>408</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2.8047019999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -8674,7 +8863,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8697,1150 +8886,1705 @@
         <v>227</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="H7" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C8" s="7">
-        <v>500</v>
+        <v>1431</v>
       </c>
       <c r="D8" s="7">
-        <v>150</v>
+        <v>741</v>
       </c>
       <c r="E8" s="17">
-        <f>(D8/C8)*100</f>
-        <v>30</v>
+        <f t="shared" ref="E8:E71" si="0">(D8/C8)*100</f>
+        <v>51.781970649895179</v>
       </c>
       <c r="F8" s="7">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G8" s="17">
-        <f>(F8/C8)*100</f>
-        <v>21.6</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+        <f t="shared" ref="G8:G71" si="1">(F8/C8)*100</f>
+        <v>3.4940600978336831</v>
+      </c>
+      <c r="H8" s="7">
+        <v>496</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" ref="I8:I71" si="2">(H8/C8)*100</f>
+        <v>34.661076170510128</v>
+      </c>
+      <c r="J8" s="7">
+        <v>41</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" ref="K8:K71" si="3">(J8/C8)*100</f>
+        <v>2.8651292802236199</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="7">
-        <v>1431</v>
+        <v>748</v>
       </c>
       <c r="D9" s="7">
-        <v>741</v>
+        <v>577</v>
       </c>
       <c r="E9" s="17">
-        <f>(D9/C9)*100</f>
-        <v>51.781970649895179</v>
+        <f t="shared" si="0"/>
+        <v>77.139037433155082</v>
       </c>
       <c r="F9" s="7">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G9" s="17">
-        <f>(F9/C9)*100</f>
-        <v>3.4940600978336831</v>
-      </c>
-      <c r="K9" s="11"/>
+        <f t="shared" si="1"/>
+        <v>2.0053475935828877</v>
+      </c>
+      <c r="H9" s="7">
+        <v>547</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="2"/>
+        <v>73.128342245989302</v>
+      </c>
+      <c r="J9" s="7">
+        <v>12</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="3"/>
+        <v>1.6042780748663104</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>1180</v>
+        <v>1254</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>1698</v>
       </c>
       <c r="D10" s="7">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="E10" s="17">
-        <f>(D10/C10)*100</f>
-        <v>45.987654320987652</v>
+        <f t="shared" si="0"/>
+        <v>18.963486454652532</v>
       </c>
       <c r="F10" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G10" s="17">
-        <f>(F10/C10)*100</f>
-        <v>10.802469135802468</v>
-      </c>
-      <c r="K10" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.23557126030624262</v>
+      </c>
+      <c r="H10" s="7">
+        <v>238</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="2"/>
+        <v>14.016489988221437</v>
+      </c>
+      <c r="J10" s="7">
+        <v>4</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="3"/>
+        <v>0.23557126030624262</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11" s="7">
-        <v>281</v>
+        <v>648</v>
       </c>
       <c r="D11" s="7">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="E11" s="17">
-        <f>(D11/C11)*100</f>
-        <v>56.939501779359439</v>
+        <f t="shared" si="0"/>
+        <v>46.450617283950621</v>
       </c>
       <c r="F11" s="7">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G11" s="17">
-        <f>(F11/C11)*100</f>
-        <v>12.099644128113878</v>
-      </c>
-      <c r="K11" s="11"/>
+        <f t="shared" si="1"/>
+        <v>2.6234567901234565</v>
+      </c>
+      <c r="H11" s="7">
+        <v>258</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="2"/>
+        <v>39.814814814814817</v>
+      </c>
+      <c r="J11" s="7">
+        <v>16</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="3"/>
+        <v>2.4691358024691357</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C12" s="7">
-        <v>129</v>
+        <v>1084</v>
       </c>
       <c r="D12" s="7">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="E12" s="17">
-        <f>(D12/C12)*100</f>
-        <v>38.759689922480625</v>
+        <f t="shared" si="0"/>
+        <v>26.014760147601475</v>
       </c>
       <c r="F12" s="7">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G12" s="17">
-        <f>(F12/C12)*100</f>
-        <v>25.581395348837212</v>
-      </c>
-      <c r="K12" s="11"/>
+        <f t="shared" si="1"/>
+        <v>1.4760147601476015</v>
+      </c>
+      <c r="H12" s="7">
+        <v>191</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="2"/>
+        <v>17.619926199261993</v>
+      </c>
+      <c r="J12" s="7">
+        <v>15</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3837638376383763</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C13" s="7">
-        <v>213</v>
+        <v>453</v>
       </c>
       <c r="D13" s="7">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c r="E13" s="17">
-        <f>(D13/C13)*100</f>
-        <v>47.417840375586856</v>
+        <f t="shared" si="0"/>
+        <v>47.682119205298015</v>
       </c>
       <c r="F13" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G13" s="17">
-        <f>(F13/C13)*100</f>
-        <v>12.206572769953052</v>
-      </c>
-      <c r="K13" s="11"/>
+        <f t="shared" si="1"/>
+        <v>1.9867549668874174</v>
+      </c>
+      <c r="H13" s="7">
+        <v>196</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="2"/>
+        <v>43.267108167770417</v>
+      </c>
+      <c r="J13" s="7">
+        <v>8</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="3"/>
+        <v>1.7660044150110374</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C14" s="7">
-        <v>648</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="E14" s="17">
-        <f>(D14/C14)*100</f>
-        <v>46.450617283950621</v>
+        <f t="shared" si="0"/>
+        <v>56.939501779359439</v>
       </c>
       <c r="F14" s="7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G14" s="17">
-        <f>(F14/C14)*100</f>
-        <v>2.6234567901234565</v>
-      </c>
-      <c r="K14" s="11"/>
+        <f t="shared" si="1"/>
+        <v>12.099644128113878</v>
+      </c>
+      <c r="H14" s="7">
+        <v>147</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="2"/>
+        <v>52.313167259786475</v>
+      </c>
+      <c r="J14" s="7">
+        <v>34</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="3"/>
+        <v>12.099644128113878</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>1206</v>
+        <v>1242</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C15" s="7">
-        <v>1084</v>
+        <v>500</v>
       </c>
       <c r="D15" s="7">
-        <v>282</v>
+        <v>150</v>
       </c>
       <c r="E15" s="17">
-        <f>(D15/C15)*100</f>
-        <v>26.014760147601475</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="F15" s="7">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="G15" s="17">
-        <f>(F15/C15)*100</f>
-        <v>1.4760147601476015</v>
-      </c>
-      <c r="K15" s="11"/>
+        <f t="shared" si="1"/>
+        <v>21.6</v>
+      </c>
+      <c r="H15" s="7">
+        <v>146</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" si="2"/>
+        <v>29.2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>108</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>1224</v>
+        <v>1180</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C16" s="7">
-        <v>748</v>
+        <v>324</v>
       </c>
       <c r="D16" s="7">
-        <v>577</v>
+        <v>149</v>
       </c>
       <c r="E16" s="17">
-        <f>(D16/C16)*100</f>
-        <v>77.139037433155082</v>
+        <f t="shared" si="0"/>
+        <v>45.987654320987652</v>
       </c>
       <c r="F16" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G16" s="17">
-        <f>(F16/C16)*100</f>
-        <v>2.0053475935828877</v>
-      </c>
-      <c r="K16" s="11"/>
+        <f t="shared" si="1"/>
+        <v>10.802469135802468</v>
+      </c>
+      <c r="H16" s="7">
+        <v>138</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="2"/>
+        <v>42.592592592592595</v>
+      </c>
+      <c r="J16" s="7">
+        <v>32</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="3"/>
+        <v>9.8765432098765427</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>1173</v>
+        <v>1205</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>820</v>
       </c>
       <c r="D17" s="7">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="E17" s="17">
-        <f>(D17/C17)*100</f>
-        <v>94.444444444444443</v>
+        <f t="shared" si="0"/>
+        <v>16.707317073170731</v>
       </c>
       <c r="F17" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17" s="17">
-        <f>(F17/C17)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="K17" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.36585365853658541</v>
+      </c>
+      <c r="H17" s="7">
+        <v>126</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="2"/>
+        <v>15.365853658536585</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="3"/>
+        <v>0.36585365853658541</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>1197</v>
+        <v>1175</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C18" s="7">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="E18" s="17">
-        <f>(D18/C18)*100</f>
-        <v>47.682119205298015</v>
+        <f t="shared" si="0"/>
+        <v>33.673469387755098</v>
       </c>
       <c r="F18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G18" s="17">
-        <f>(F18/C18)*100</f>
-        <v>1.9867549668874174</v>
-      </c>
-      <c r="K18" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>45</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="2"/>
+        <v>11.479591836734695</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>1214</v>
+        <v>1255</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C19" s="7">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="D19" s="7">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="E19" s="17">
-        <f>(D19/C19)*100</f>
-        <v>47.863247863247864</v>
+        <f t="shared" si="0"/>
+        <v>56.39810426540285</v>
       </c>
       <c r="F19" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G19" s="17">
-        <f>(F19/C19)*100</f>
-        <v>6.8376068376068382</v>
-      </c>
-      <c r="K19" s="11"/>
+        <f t="shared" si="1"/>
+        <v>1.4218009478672986</v>
+      </c>
+      <c r="H19" s="7">
+        <v>107</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="2"/>
+        <v>50.710900473933648</v>
+      </c>
+      <c r="J19" s="7">
+        <v>3</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4218009478672986</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>1163</v>
+        <v>1200</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="D20" s="7">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E20" s="17">
-        <f>(D20/C20)*100</f>
-        <v>38.75</v>
+        <f t="shared" si="0"/>
+        <v>47.417840375586856</v>
       </c>
       <c r="F20" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G20" s="17">
-        <f>(F20/C20)*100</f>
-        <v>8.75</v>
-      </c>
-      <c r="K20" s="11"/>
+        <f t="shared" si="1"/>
+        <v>12.206572769953052</v>
+      </c>
+      <c r="H20" s="7">
+        <v>48</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="2"/>
+        <v>22.535211267605636</v>
+      </c>
+      <c r="J20" s="7">
+        <v>24</v>
+      </c>
+      <c r="K20" s="17">
+        <f t="shared" si="3"/>
+        <v>11.267605633802818</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>1249</v>
+        <v>1258</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C21" s="7">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="D21" s="7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E21" s="17">
-        <f>(D21/C21)*100</f>
-        <v>65.714285714285708</v>
+        <f t="shared" si="0"/>
+        <v>39.271255060728741</v>
       </c>
       <c r="F21" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21" s="17">
-        <f>(F21/C21)*100</f>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="K21" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.40485829959514169</v>
+      </c>
+      <c r="H21" s="7">
+        <v>51</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="2"/>
+        <v>20.647773279352226</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
+        <f t="shared" si="3"/>
+        <v>0.40485829959514169</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C22" s="7">
-        <v>1698</v>
+        <v>224</v>
       </c>
       <c r="D22" s="7">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="E22" s="17">
-        <f>(D22/C22)*100</f>
-        <v>18.963486454652532</v>
+        <f t="shared" si="0"/>
+        <v>35.714285714285715</v>
       </c>
       <c r="F22" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" s="17">
-        <f>(F22/C22)*100</f>
-        <v>0.23557126030624262</v>
-      </c>
-      <c r="K22" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="H22" s="7">
+        <v>52</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="2"/>
+        <v>23.214285714285715</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17">
+        <f t="shared" si="3"/>
+        <v>0.89285714285714279</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>1198</v>
+        <v>1223</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C23" s="7">
-        <v>112</v>
+        <v>369</v>
       </c>
       <c r="D23" s="7">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E23" s="17">
-        <f>(D23/C23)*100</f>
-        <v>30.357142857142854</v>
+        <f t="shared" si="0"/>
+        <v>21.409214092140921</v>
       </c>
       <c r="F23" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="17">
-        <f>(F23/C23)*100</f>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="K23" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.81300813008130091</v>
+      </c>
+      <c r="H23" s="7">
+        <v>49</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="2"/>
+        <v>13.279132791327914</v>
+      </c>
+      <c r="J23" s="7">
+        <v>3</v>
+      </c>
+      <c r="K23" s="17">
+        <f t="shared" si="3"/>
+        <v>0.81300813008130091</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C24" s="7">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="D24" s="7">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E24" s="17">
-        <f>(D24/C24)*100</f>
-        <v>46.666666666666664</v>
+        <f t="shared" si="0"/>
+        <v>44.578313253012048</v>
       </c>
       <c r="F24" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="17">
-        <f>(F24/C24)*100</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K24" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="H24" s="7">
+        <v>73</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="2"/>
+        <v>43.975903614457827</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="3"/>
+        <v>0.60240963855421692</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C25" s="7">
-        <v>820</v>
+        <v>112</v>
       </c>
       <c r="D25" s="7">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="E25" s="17">
-        <f>(D25/C25)*100</f>
-        <v>16.707317073170731</v>
+        <f t="shared" si="0"/>
+        <v>60.714285714285708</v>
       </c>
       <c r="F25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" s="17">
-        <f>(F25/C25)*100</f>
-        <v>0.36585365853658541</v>
-      </c>
-      <c r="K25" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>64</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="2"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="3"/>
+        <v>0.89285714285714279</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>1255</v>
+        <v>1185</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C26" s="7">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="D26" s="7">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="E26" s="17">
-        <f>(D26/C26)*100</f>
-        <v>56.39810426540285</v>
+        <f t="shared" si="0"/>
+        <v>59.595959595959592</v>
       </c>
       <c r="F26" s="7">
         <v>3</v>
       </c>
       <c r="G26" s="17">
-        <f>(F26/C26)*100</f>
-        <v>1.4218009478672986</v>
-      </c>
-      <c r="K26" s="11"/>
+        <f t="shared" si="1"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="H26" s="7">
+        <v>51</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="2"/>
+        <v>51.515151515151516</v>
+      </c>
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+      <c r="K26" s="17">
+        <f t="shared" si="3"/>
+        <v>3.0303030303030303</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C27" s="7">
-        <v>369</v>
+        <v>117</v>
       </c>
       <c r="D27" s="7">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E27" s="17">
-        <f>(D27/C27)*100</f>
-        <v>21.409214092140921</v>
+        <f t="shared" si="0"/>
+        <v>47.863247863247864</v>
       </c>
       <c r="F27" s="7">
+        <v>8</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>6.8376068376068382</v>
+      </c>
+      <c r="H27" s="7">
+        <v>23</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="2"/>
+        <v>19.658119658119659</v>
+      </c>
+      <c r="J27" s="7">
         <v>3</v>
       </c>
-      <c r="G27" s="17">
-        <f>(F27/C27)*100</f>
-        <v>0.81300813008130091</v>
-      </c>
-      <c r="K27" s="11"/>
+      <c r="K27" s="17">
+        <f t="shared" si="3"/>
+        <v>2.5641025641025639</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>1185</v>
+        <v>1213</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" s="7">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D28" s="7">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E28" s="17">
-        <f>(D28/C28)*100</f>
-        <v>59.595959595959592</v>
+        <f t="shared" si="0"/>
+        <v>38.759689922480625</v>
       </c>
       <c r="F28" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G28" s="17">
-        <f>(F28/C28)*100</f>
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="K28" s="11"/>
+        <f t="shared" si="1"/>
+        <v>25.581395348837212</v>
+      </c>
+      <c r="H28" s="7">
+        <v>48</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="2"/>
+        <v>37.209302325581397</v>
+      </c>
+      <c r="J28" s="7">
+        <v>32</v>
+      </c>
+      <c r="K28" s="17">
+        <f t="shared" si="3"/>
+        <v>24.806201550387598</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>1186</v>
+        <v>1231</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="D29" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E29" s="17">
-        <f>(D29/C29)*100</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>9.1428571428571423</v>
       </c>
       <c r="F29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="17">
-        <f>(F29/C29)*100</f>
-        <v>75</v>
-      </c>
-      <c r="K29" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>36</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" si="2"/>
+        <v>6.8571428571428577</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C30" s="7">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="D30" s="7">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E30" s="17">
-        <f>(D30/C30)*100</f>
-        <v>35.714285714285715</v>
+        <f t="shared" si="0"/>
+        <v>58.108108108108105</v>
       </c>
       <c r="F30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="17">
-        <f>(F30/C30)*100</f>
-        <v>0.89285714285714279</v>
-      </c>
-      <c r="K30" s="11"/>
+        <f t="shared" si="1"/>
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="H30" s="7">
+        <v>26</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="2"/>
+        <v>35.135135135135137</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17">
+        <f t="shared" si="3"/>
+        <v>1.3513513513513513</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D31" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E31" s="17">
-        <f>(D31/C31)*100</f>
-        <v>43.283582089552233</v>
+        <f t="shared" si="0"/>
+        <v>21.052631578947366</v>
       </c>
       <c r="F31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="17">
-        <f>(F31/C31)*100</f>
-        <v>2.9850746268656714</v>
-      </c>
-      <c r="K31" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.58479532163742687</v>
+      </c>
+      <c r="H31" s="7">
+        <v>21</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="2"/>
+        <v>12.280701754385964</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17">
+        <f t="shared" si="3"/>
+        <v>0.58479532163742687</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>1189</v>
+        <v>1248</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C32" s="7">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D32" s="7">
+        <v>36</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="0"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="1"/>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="H32" s="7">
         <v>22</v>
       </c>
-      <c r="E32" s="17">
-        <f>(D32/C32)*100</f>
-        <v>15.827338129496402</v>
-      </c>
-      <c r="F32" s="7">
-        <v>2</v>
-      </c>
-      <c r="G32" s="17">
-        <f>(F32/C32)*100</f>
-        <v>1.4388489208633095</v>
-      </c>
-      <c r="K32" s="11"/>
+      <c r="I32" s="17">
+        <f t="shared" si="2"/>
+        <v>14.102564102564102</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="17">
+        <f t="shared" si="3"/>
+        <v>0.64102564102564097</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>1193</v>
+        <v>1168</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="D33" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E33" s="17">
-        <f>(D33/C33)*100</f>
-        <v>15.596330275229359</v>
+        <f t="shared" si="0"/>
+        <v>14.056224899598394</v>
       </c>
       <c r="F33" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="17">
-        <f>(F33/C33)*100</f>
-        <v>1.834862385321101</v>
-      </c>
-      <c r="K33" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>30</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="2"/>
+        <v>12.048192771084338</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>1261</v>
+        <v>1172</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C34" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D34" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E34" s="17">
-        <f>(D34/C34)*100</f>
-        <v>54.838709677419352</v>
+        <f t="shared" si="0"/>
+        <v>92.10526315789474</v>
       </c>
       <c r="F34" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="17">
-        <f>(F34/C34)*100</f>
-        <v>6.4516129032258061</v>
-      </c>
-      <c r="K34" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>16</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="2"/>
+        <v>42.105263157894733</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C35" s="7">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D35" s="7">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E35" s="17">
-        <f>(D35/C35)*100</f>
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>30.357142857142854</v>
       </c>
       <c r="F35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="17">
-        <f>(F35/C35)*100</f>
-        <v>8</v>
-      </c>
-      <c r="K35" s="11"/>
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="H35" s="7">
+        <v>26</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="2"/>
+        <v>23.214285714285715</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4</v>
+      </c>
+      <c r="K35" s="17">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C36" s="7">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D36" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E36" s="17">
-        <f>(D36/C36)*100</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>38.75</v>
       </c>
       <c r="F36" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G36" s="17">
-        <f>(F36/C36)*100</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K36" s="11"/>
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="H36" s="7">
+        <v>18</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="J36" s="7">
+        <v>5</v>
+      </c>
+      <c r="K36" s="17">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>1166</v>
+        <v>1177</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C37" s="7">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E37" s="17">
-        <f>(D37/C37)*100</f>
-        <v>47.619047619047613</v>
+        <f t="shared" si="0"/>
+        <v>26.851851851851855</v>
       </c>
       <c r="F37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="17">
-        <f>(F37/C37)*100</f>
-        <v>9.5238095238095237</v>
+        <f t="shared" si="1"/>
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="H37" s="7">
+        <v>25</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="2"/>
+        <v>23.148148148148149</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <f t="shared" si="3"/>
+        <v>0.92592592592592582</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C38" s="7">
+        <v>67</v>
+      </c>
+      <c r="D38" s="7">
         <v>29</v>
       </c>
-      <c r="D38" s="7">
-        <v>6</v>
-      </c>
       <c r="E38" s="17">
-        <f>(D38/C38)*100</f>
-        <v>20.689655172413794</v>
+        <f t="shared" si="0"/>
+        <v>43.283582089552233</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
       </c>
       <c r="G38" s="17">
-        <f>(F38/C38)*100</f>
-        <v>6.8965517241379306</v>
+        <f t="shared" si="1"/>
+        <v>2.9850746268656714</v>
+      </c>
+      <c r="H38" s="7">
+        <v>24</v>
+      </c>
+      <c r="I38" s="17">
+        <f t="shared" si="2"/>
+        <v>35.820895522388057</v>
+      </c>
+      <c r="J38" s="7">
+        <v>2</v>
+      </c>
+      <c r="K38" s="17">
+        <f t="shared" si="3"/>
+        <v>2.9850746268656714</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>1253</v>
+        <v>1230</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C39" s="7">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D39" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E39" s="17">
-        <f>(D39/C39)*100</f>
-        <v>42.857142857142854</v>
+        <f t="shared" si="0"/>
+        <v>46.666666666666664</v>
       </c>
       <c r="F39" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="17">
-        <f>(F39/C39)*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H39" s="7">
+        <v>11</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="2"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C40" s="7">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D40" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E40" s="17">
-        <f>(D40/C40)*100</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>24.731182795698924</v>
       </c>
       <c r="F40" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="17">
-        <f>(F40/C40)*100</f>
-        <v>25</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>16</v>
+      </c>
+      <c r="I40" s="17">
+        <f t="shared" si="2"/>
+        <v>17.20430107526882</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>1238</v>
+        <v>1218</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C41" s="7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D41" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E41" s="17">
-        <f>(D41/C41)*100</f>
-        <v>22.727272727272727</v>
+        <f t="shared" si="0"/>
+        <v>44.230769230769226</v>
       </c>
       <c r="F41" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="17">
-        <f>(F41/C41)*100</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="H41" s="7">
+        <v>20</v>
+      </c>
+      <c r="I41" s="17">
+        <f t="shared" si="2"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9230769230769231</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C42" s="7">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="D42" s="7">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E42" s="17">
-        <f>(D42/C42)*100</f>
-        <v>39.271255060728741</v>
+        <f t="shared" si="0"/>
+        <v>65.714285714285708</v>
       </c>
       <c r="F42" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G42" s="17">
-        <f>(F42/C42)*100</f>
-        <v>0.40485829959514169</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="H42" s="7">
+        <v>21</v>
+      </c>
+      <c r="I42" s="17">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J42" s="7">
+        <v>6</v>
+      </c>
+      <c r="K42" s="17">
+        <f t="shared" si="3"/>
+        <v>17.142857142857142</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C43" s="7">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D43" s="7">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E43" s="17">
-        <f>(D43/C43)*100</f>
-        <v>44.578313253012048</v>
+        <f t="shared" si="0"/>
+        <v>15.827338129496402</v>
       </c>
       <c r="F43" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="17">
-        <f>(F43/C43)*100</f>
-        <v>0.60240963855421692</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
+        <f t="shared" si="1"/>
+        <v>1.4388489208633095</v>
+      </c>
+      <c r="H43" s="7">
+        <v>22</v>
+      </c>
+      <c r="I43" s="17">
+        <f t="shared" si="2"/>
+        <v>15.827338129496402</v>
+      </c>
+      <c r="J43" s="7">
+        <v>2</v>
+      </c>
+      <c r="K43" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4388489208633095</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>1210</v>
+        <v>1241</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C44" s="7">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D44" s="7">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E44" s="17">
-        <f>(D44/C44)*100</f>
-        <v>60.714285714285708</v>
+        <f t="shared" si="0"/>
+        <v>19.130434782608695</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="17">
-        <f>(F44/C44)*100</f>
-        <v>0.89285714285714279</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="H44" s="7">
+        <v>21</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="2"/>
+        <v>18.260869565217391</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+      <c r="K44" s="17">
+        <f t="shared" si="3"/>
+        <v>0.86956521739130432</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C45" s="7">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="D45" s="7">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E45" s="17">
-        <f>(D45/C45)*100</f>
-        <v>58.108108108108105</v>
+        <f t="shared" si="0"/>
+        <v>4.4210526315789469</v>
       </c>
       <c r="F45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="17">
-        <f>(F45/C45)*100</f>
-        <v>1.3513513513513513</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>9</v>
+      </c>
+      <c r="I45" s="17">
+        <f t="shared" si="2"/>
+        <v>1.8947368421052633</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C46" s="7">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D46" s="7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E46" s="17">
-        <f>(D46/C46)*100</f>
-        <v>21.052631578947366</v>
+        <f t="shared" si="0"/>
+        <v>12.42603550295858</v>
       </c>
       <c r="F46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="17">
-        <f>(F46/C46)*100</f>
-        <v>0.58479532163742687</v>
-      </c>
-      <c r="K46" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>17</v>
+      </c>
+      <c r="I46" s="17">
+        <f t="shared" si="2"/>
+        <v>10.059171597633137</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>1248</v>
+        <v>1193</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C47" s="7">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D47" s="7">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E47" s="17">
-        <f>(D47/C47)*100</f>
-        <v>23.076923076923077</v>
+        <f t="shared" si="0"/>
+        <v>15.596330275229359</v>
       </c>
       <c r="F47" s="7">
+        <v>2</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="1"/>
+        <v>1.834862385321101</v>
+      </c>
+      <c r="H47" s="7">
+        <v>11</v>
+      </c>
+      <c r="I47" s="17">
+        <f t="shared" si="2"/>
+        <v>10.091743119266056</v>
+      </c>
+      <c r="J47" s="7">
         <v>1</v>
       </c>
-      <c r="G47" s="17">
-        <f>(F47/C47)*100</f>
-        <v>0.64102564102564097</v>
-      </c>
-      <c r="K47" s="11"/>
+      <c r="K47" s="17">
+        <f t="shared" si="3"/>
+        <v>0.91743119266055051</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>1177</v>
+        <v>1243</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C48" s="7">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E48" s="17">
-        <f>(D48/C48)*100</f>
-        <v>26.851851851851855</v>
+        <f t="shared" si="0"/>
+        <v>16.037735849056602</v>
       </c>
       <c r="F48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="17">
-        <f>(F48/C48)*100</f>
-        <v>0.92592592592592582</v>
-      </c>
-      <c r="K48" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>4</v>
+      </c>
+      <c r="I48" s="17">
+        <f t="shared" si="2"/>
+        <v>3.7735849056603774</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>1218</v>
+        <v>1261</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C49" s="7">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D49" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E49" s="17">
-        <f>(D49/C49)*100</f>
-        <v>44.230769230769226</v>
+        <f t="shared" si="0"/>
+        <v>54.838709677419352</v>
       </c>
       <c r="F49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="17">
-        <f>(F49/C49)*100</f>
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="K49" s="11"/>
+        <f t="shared" si="1"/>
+        <v>6.4516129032258061</v>
+      </c>
+      <c r="H49" s="7">
+        <v>11</v>
+      </c>
+      <c r="I49" s="17">
+        <f t="shared" si="2"/>
+        <v>35.483870967741936</v>
+      </c>
+      <c r="J49" s="7">
+        <v>2</v>
+      </c>
+      <c r="K49" s="17">
+        <f t="shared" si="3"/>
+        <v>6.4516129032258061</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>1241</v>
+        <v>1173</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C50" s="7">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D50" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E50" s="17">
-        <f>(D50/C50)*100</f>
-        <v>19.130434782608695</v>
+        <f t="shared" si="0"/>
+        <v>94.444444444444443</v>
       </c>
       <c r="F50" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G50" s="17">
-        <f>(F50/C50)*100</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="1"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H50" s="7">
+        <v>17</v>
+      </c>
+      <c r="I50" s="17">
+        <f t="shared" si="2"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="J50" s="7">
+        <v>12</v>
+      </c>
+      <c r="K50" s="17">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -9857,899 +10601,1397 @@
         <v>16</v>
       </c>
       <c r="E51" s="17">
-        <f>(D51/C51)*100</f>
+        <f t="shared" si="0"/>
         <v>34.782608695652172</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="17">
-        <f>(F51/C51)*100</f>
+        <f t="shared" si="1"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="H51" s="7">
+        <v>5</v>
+      </c>
+      <c r="I51" s="17">
+        <f t="shared" si="2"/>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="17">
+        <f t="shared" si="3"/>
         <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C52" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" s="7">
+        <v>16</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F52" s="7">
+        <v>2</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H52" s="7">
         <v>12</v>
       </c>
-      <c r="E52" s="17">
-        <f>(D52/C52)*100</f>
-        <v>46.153846153846153</v>
-      </c>
-      <c r="F52" s="7">
-        <v>1</v>
-      </c>
-      <c r="G52" s="17">
-        <f>(F52/C52)*100</f>
-        <v>3.8461538461538463</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
+      <c r="I52" s="17">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J52" s="7">
+        <v>2</v>
+      </c>
+      <c r="K52" s="17">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C53" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D53" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E53" s="17">
-        <f>(D53/C53)*100</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>40.54054054054054</v>
       </c>
       <c r="F53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="17">
-        <f>(F53/C53)*100</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>13</v>
+      </c>
+      <c r="I53" s="17">
+        <f t="shared" si="2"/>
+        <v>35.135135135135137</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>1226</v>
+        <v>1181</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C54" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D54" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E54" s="17">
-        <f>(D54/C54)*100</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="F54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="17">
-        <f>(F54/C54)*100</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H54" s="7">
+        <v>15</v>
+      </c>
+      <c r="I54" s="17">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2</v>
+      </c>
+      <c r="K54" s="17">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>1204</v>
+        <v>1219</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C55" s="7">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D55" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E55" s="17">
-        <f>(D55/C55)*100</f>
-        <v>31.578947368421051</v>
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
       </c>
       <c r="F55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="17">
-        <f>(F55/C55)*100</f>
-        <v>5.2631578947368416</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>3</v>
+      </c>
+      <c r="I55" s="17">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C56" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E56" s="17">
-        <f>(D56/C56)*100</f>
-        <v>15.789473684210526</v>
+        <f t="shared" si="0"/>
+        <v>77.777777777777786</v>
       </c>
       <c r="F56" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="17">
-        <f>(F56/C56)*100</f>
-        <v>5.2631578947368416</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>12</v>
+      </c>
+      <c r="I56" s="17">
+        <f t="shared" si="2"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C57" s="7">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="D57" s="7">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="E57" s="17">
-        <f>(D57/C57)*100</f>
-        <v>33.673469387755098</v>
+        <f t="shared" si="0"/>
+        <v>29.268292682926827</v>
       </c>
       <c r="F57" s="7">
         <v>0</v>
       </c>
       <c r="G57" s="17">
-        <f>(F57/C57)*100</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>7</v>
+      </c>
+      <c r="I57" s="17">
+        <f t="shared" si="2"/>
+        <v>17.073170731707318</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>1231</v>
+        <v>1199</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C58" s="7">
-        <v>525</v>
+        <v>26</v>
       </c>
       <c r="D58" s="7">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E58" s="17">
-        <f>(D58/C58)*100</f>
-        <v>9.1428571428571423</v>
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="17">
-        <f>(F58/C58)*100</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="H58" s="7">
+        <v>9</v>
+      </c>
+      <c r="I58" s="17">
+        <f t="shared" si="2"/>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="17">
+        <f t="shared" si="3"/>
+        <v>3.8461538461538463</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>1168</v>
+        <v>1222</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C59" s="7">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="D59" s="7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E59" s="17">
-        <f>(D59/C59)*100</f>
-        <v>14.056224899598394</v>
+        <f t="shared" si="0"/>
+        <v>34.375</v>
       </c>
       <c r="F59" s="7">
         <v>0</v>
       </c>
       <c r="G59" s="17">
-        <f>(F59/C59)*100</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>10</v>
+      </c>
+      <c r="I59" s="17">
+        <f t="shared" si="2"/>
+        <v>31.25</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>1172</v>
+        <v>1191</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C60" s="7">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D60" s="7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E60" s="17">
-        <f>(D60/C60)*100</f>
-        <v>92.10526315789474</v>
+        <f t="shared" si="0"/>
+        <v>55.000000000000007</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
       </c>
       <c r="G60" s="17">
-        <f>(F60/C60)*100</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>11</v>
+      </c>
+      <c r="I60" s="17">
+        <f t="shared" si="2"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C61" s="7">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="D61" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E61" s="17">
-        <f>(D61/C61)*100</f>
-        <v>24.731182795698924</v>
+        <f t="shared" si="0"/>
+        <v>68.75</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
       </c>
       <c r="G61" s="17">
-        <f>(F61/C61)*100</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>10</v>
+      </c>
+      <c r="I61" s="17">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>1251</v>
+        <v>1203</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C62" s="7">
-        <v>475</v>
+        <v>28</v>
       </c>
       <c r="D62" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E62" s="17">
-        <f>(D62/C62)*100</f>
-        <v>4.4210526315789469</v>
+        <f t="shared" si="0"/>
+        <v>35.714285714285715</v>
       </c>
       <c r="F62" s="7">
         <v>0</v>
       </c>
       <c r="G62" s="17">
-        <f>(F62/C62)*100</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>8</v>
+      </c>
+      <c r="I62" s="17">
+        <f t="shared" si="2"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>1232</v>
+        <v>1166</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C63" s="7">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="D63" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E63" s="17">
-        <f>(D63/C63)*100</f>
-        <v>12.42603550295858</v>
+        <f t="shared" si="0"/>
+        <v>47.619047619047613</v>
       </c>
       <c r="F63" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" s="17">
-        <f>(F63/C63)*100</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="H63" s="7">
+        <v>9</v>
+      </c>
+      <c r="I63" s="17">
+        <f t="shared" si="2"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63" s="17">
+        <f t="shared" si="3"/>
+        <v>9.5238095238095237</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C64" s="7">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="D64" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E64" s="17">
-        <f>(D64/C64)*100</f>
-        <v>16.037735849056602</v>
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
       </c>
       <c r="G64" s="17">
-        <f>(F64/C64)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>10</v>
+      </c>
+      <c r="I64" s="17">
+        <f t="shared" si="2"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C65" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D65" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E65" s="17">
-        <f>(D65/C65)*100</f>
-        <v>40.54054054054054</v>
+        <f t="shared" si="0"/>
+        <v>27.27272727272727</v>
       </c>
       <c r="F65" s="7">
         <v>0</v>
       </c>
       <c r="G65" s="17">
-        <f>(F65/C65)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>9</v>
+      </c>
+      <c r="I65" s="17">
+        <f t="shared" si="2"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>1219</v>
+        <v>1169</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C66" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D66" s="7">
+        <v>9</v>
+      </c>
+      <c r="E66" s="17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="17">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H66" s="7">
+        <v>4</v>
+      </c>
+      <c r="I66" s="17">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>1226</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="7">
+        <v>20</v>
+      </c>
+      <c r="D67" s="7">
+        <v>9</v>
+      </c>
+      <c r="E67" s="17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H67" s="7">
+        <v>5</v>
+      </c>
+      <c r="I67" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1</v>
+      </c>
+      <c r="K67" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>1236</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="7">
+        <v>32</v>
+      </c>
+      <c r="D68" s="7">
+        <v>8</v>
+      </c>
+      <c r="E68" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>7</v>
+      </c>
+      <c r="I68" s="17">
+        <f t="shared" si="2"/>
+        <v>21.875</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>1192</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="7">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7">
+        <v>8</v>
+      </c>
+      <c r="E69" s="17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>6</v>
+      </c>
+      <c r="I69" s="17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>1188</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="7">
+        <v>12</v>
+      </c>
+      <c r="D70" s="7">
+        <v>8</v>
+      </c>
+      <c r="E70" s="17">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>2</v>
+      </c>
+      <c r="I70" s="17">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>1208</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="7">
+        <v>434</v>
+      </c>
+      <c r="D71" s="7">
+        <v>7</v>
+      </c>
+      <c r="E71" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6129032258064515</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>7</v>
+      </c>
+      <c r="I71" s="17">
+        <f t="shared" si="2"/>
+        <v>1.6129032258064515</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>1217</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="7">
+        <v>29</v>
+      </c>
+      <c r="D72" s="7">
+        <v>6</v>
+      </c>
+      <c r="E72" s="17">
+        <f t="shared" ref="E72:E99" si="4">(D72/C72)*100</f>
+        <v>20.689655172413794</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2</v>
+      </c>
+      <c r="G72" s="17">
+        <f t="shared" ref="G72:G99" si="5">(F72/C72)*100</f>
+        <v>6.8965517241379306</v>
+      </c>
+      <c r="H72" s="7">
+        <v>6</v>
+      </c>
+      <c r="I72" s="17">
+        <f t="shared" ref="I72:I99" si="6">(H72/C72)*100</f>
+        <v>20.689655172413794</v>
+      </c>
+      <c r="J72" s="7">
+        <v>2</v>
+      </c>
+      <c r="K72" s="17">
+        <f t="shared" ref="K72:K99" si="7">(J72/C72)*100</f>
+        <v>6.8965517241379306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>1204</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="7">
+        <v>19</v>
+      </c>
+      <c r="D73" s="7">
+        <v>6</v>
+      </c>
+      <c r="E73" s="17">
+        <f t="shared" si="4"/>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="17">
+        <f t="shared" si="5"/>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="H73" s="7">
+        <v>4</v>
+      </c>
+      <c r="I73" s="17">
+        <f t="shared" si="6"/>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
+      <c r="K73" s="17">
+        <f t="shared" si="7"/>
+        <v>5.2631578947368416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>1253</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="7">
         <v>14</v>
       </c>
-      <c r="E66" s="17">
-        <f>(D66/C66)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="F66" s="7">
-        <v>0</v>
-      </c>
-      <c r="G66" s="17">
-        <f>(F66/C66)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>1256</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="7">
-        <v>18</v>
-      </c>
-      <c r="D67" s="7">
+      <c r="D74" s="7">
+        <v>6</v>
+      </c>
+      <c r="E74" s="17">
+        <f t="shared" si="4"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="F74" s="7">
+        <v>2</v>
+      </c>
+      <c r="G74" s="17">
+        <f t="shared" si="5"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="H74" s="7">
+        <v>2</v>
+      </c>
+      <c r="I74" s="17">
+        <f t="shared" si="6"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J74" s="7">
+        <v>2</v>
+      </c>
+      <c r="K74" s="17">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>1176</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="7">
+        <v>8</v>
+      </c>
+      <c r="D75" s="7">
+        <v>6</v>
+      </c>
+      <c r="E75" s="17">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2</v>
+      </c>
+      <c r="G75" s="17">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="H75" s="7">
+        <v>6</v>
+      </c>
+      <c r="I75" s="17">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2</v>
+      </c>
+      <c r="K75" s="17">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>1238</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="7">
+        <v>22</v>
+      </c>
+      <c r="D76" s="7">
+        <v>5</v>
+      </c>
+      <c r="E76" s="17">
+        <f t="shared" si="4"/>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="F76" s="7">
+        <v>2</v>
+      </c>
+      <c r="G76" s="17">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="H76" s="7">
+        <v>5</v>
+      </c>
+      <c r="I76" s="17">
+        <f t="shared" si="6"/>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="J76" s="7">
+        <v>2</v>
+      </c>
+      <c r="K76" s="17">
+        <f t="shared" si="7"/>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>1225</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="7">
+        <v>30</v>
+      </c>
+      <c r="D77" s="7">
+        <v>4</v>
+      </c>
+      <c r="E77" s="17">
+        <f t="shared" si="4"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+      <c r="I77" s="17">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>1259</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" s="7">
         <v>14</v>
       </c>
-      <c r="E67" s="17">
-        <f>(D67/C67)*100</f>
-        <v>77.777777777777786</v>
-      </c>
-      <c r="F67" s="7">
-        <v>0</v>
-      </c>
-      <c r="G67" s="17">
-        <f>(F67/C67)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>1183</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="7">
-        <v>41</v>
-      </c>
-      <c r="D68" s="7">
-        <v>12</v>
-      </c>
-      <c r="E68" s="17">
-        <f>(D68/C68)*100</f>
-        <v>29.268292682926827</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0</v>
-      </c>
-      <c r="G68" s="17">
-        <f>(F68/C68)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>1222</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="7">
-        <v>32</v>
-      </c>
-      <c r="D69" s="7">
-        <v>11</v>
-      </c>
-      <c r="E69" s="17">
-        <f>(D69/C69)*100</f>
-        <v>34.375</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0</v>
-      </c>
-      <c r="G69" s="17">
-        <f>(F69/C69)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>1191</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="7">
-        <v>20</v>
-      </c>
-      <c r="D70" s="7">
-        <v>11</v>
-      </c>
-      <c r="E70" s="17">
-        <f>(D70/C70)*100</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="17">
-        <f>(F70/C70)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>1174</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" s="7">
-        <v>16</v>
-      </c>
-      <c r="D71" s="7">
-        <v>11</v>
-      </c>
-      <c r="E71" s="17">
-        <f>(D71/C71)*100</f>
-        <v>68.75</v>
-      </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
-      <c r="G71" s="17">
-        <f>(F71/C71)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>1203</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="7">
-        <v>28</v>
-      </c>
-      <c r="D72" s="7">
-        <v>10</v>
-      </c>
-      <c r="E72" s="17">
-        <f>(D72/C72)*100</f>
-        <v>35.714285714285715</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0</v>
-      </c>
-      <c r="G72" s="17">
-        <f>(F72/C72)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>1246</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C73" s="7">
-        <v>15</v>
-      </c>
-      <c r="D73" s="7">
-        <v>10</v>
-      </c>
-      <c r="E73" s="17">
-        <f>(D73/C73)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="17">
-        <f>(F73/C73)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>1170</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" s="7">
-        <v>33</v>
-      </c>
-      <c r="D74" s="7">
-        <v>9</v>
-      </c>
-      <c r="E74" s="17">
-        <f>(D74/C74)*100</f>
-        <v>27.27272727272727</v>
-      </c>
-      <c r="F74" s="7">
-        <v>0</v>
-      </c>
-      <c r="G74" s="17">
-        <f>(F74/C74)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>1236</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="7">
-        <v>32</v>
-      </c>
-      <c r="D75" s="7">
+      <c r="D78" s="7">
+        <v>4</v>
+      </c>
+      <c r="E78" s="17">
+        <f t="shared" si="4"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>4</v>
+      </c>
+      <c r="I78" s="17">
+        <f t="shared" si="6"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>1209</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="7">
         <v>8</v>
-      </c>
-      <c r="E75" s="17">
-        <f>(D75/C75)*100</f>
-        <v>25</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="17">
-        <f>(F75/C75)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>1192</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="7">
-        <v>20</v>
-      </c>
-      <c r="D76" s="7">
-        <v>8</v>
-      </c>
-      <c r="E76" s="17">
-        <f>(D76/C76)*100</f>
-        <v>40</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0</v>
-      </c>
-      <c r="G76" s="17">
-        <f>(F76/C76)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>1188</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="7">
-        <v>12</v>
-      </c>
-      <c r="D77" s="7">
-        <v>8</v>
-      </c>
-      <c r="E77" s="17">
-        <f>(D77/C77)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0</v>
-      </c>
-      <c r="G77" s="17">
-        <f>(F77/C77)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>1208</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="7">
-        <v>434</v>
-      </c>
-      <c r="D78" s="7">
-        <v>7</v>
-      </c>
-      <c r="E78" s="17">
-        <f>(D78/C78)*100</f>
-        <v>1.6129032258064515</v>
-      </c>
-      <c r="F78" s="7">
-        <v>0</v>
-      </c>
-      <c r="G78" s="17">
-        <f>(F78/C78)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>1225</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="7">
-        <v>30</v>
       </c>
       <c r="D79" s="7">
         <v>4</v>
       </c>
       <c r="E79" s="17">
-        <f>(D79/C79)*100</f>
-        <v>13.333333333333334</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
       </c>
       <c r="G79" s="17">
-        <f>(F79/C79)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>3</v>
+      </c>
+      <c r="I79" s="17">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C80" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D80" s="7">
         <v>4</v>
       </c>
       <c r="E80" s="17">
-        <f>(D80/C80)*100</f>
-        <v>28.571428571428569</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
       </c>
       <c r="G80" s="17">
-        <f>(F80/C80)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>4</v>
+      </c>
+      <c r="I80" s="17">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C81" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81" s="7">
         <v>4</v>
       </c>
       <c r="E81" s="17">
-        <f>(D81/C81)*100</f>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="F81" s="7">
         <v>0</v>
       </c>
       <c r="G81" s="17">
-        <f>(F81/C81)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>4</v>
+      </c>
+      <c r="I81" s="17">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>1211</v>
+        <v>1257</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C82" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="7">
         <v>4</v>
       </c>
       <c r="E82" s="17">
-        <f>(D82/C82)*100</f>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F82" s="7">
         <v>0</v>
       </c>
       <c r="G82" s="17">
-        <f>(F82/C82)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>4</v>
+      </c>
+      <c r="I82" s="17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C83" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D83" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" s="17">
-        <f>(D83/C83)*100</f>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
       </c>
       <c r="F83" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="17">
-        <f>(F83/C83)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="H83" s="7">
+        <v>3</v>
+      </c>
+      <c r="I83" s="17">
+        <f t="shared" si="6"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="J83" s="7">
+        <v>1</v>
+      </c>
+      <c r="K83" s="17">
+        <f t="shared" si="7"/>
+        <v>5.2631578947368416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>1257</v>
+        <v>1194</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C84" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D84" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" s="17">
-        <f>(D84/C84)*100</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>33.333333333333329</v>
       </c>
       <c r="F84" s="7">
         <v>0</v>
       </c>
       <c r="G84" s="17">
-        <f>(F84/C84)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>2</v>
+      </c>
+      <c r="I84" s="17">
+        <f t="shared" si="6"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>1194</v>
+        <v>1220</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C85" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D85" s="7">
         <v>3</v>
       </c>
       <c r="E85" s="17">
-        <f>(D85/C85)*100</f>
-        <v>33.333333333333329</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="F85" s="7">
         <v>0</v>
       </c>
       <c r="G85" s="17">
-        <f>(F85/C85)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>3</v>
+      </c>
+      <c r="I85" s="17">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>1220</v>
+        <v>1186</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C86" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" s="7">
         <v>3</v>
       </c>
       <c r="E86" s="17">
-        <f>(D86/C86)*100</f>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="F86" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86" s="17">
-        <f>(F86/C86)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="H86" s="7">
+        <v>3</v>
+      </c>
+      <c r="I86" s="17">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="J86" s="7">
+        <v>3</v>
+      </c>
+      <c r="K86" s="17">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>1165</v>
       </c>
@@ -10763,18 +12005,32 @@
         <v>2</v>
       </c>
       <c r="E87" s="17">
-        <f>(D87/C87)*100</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F87" s="7">
         <v>0</v>
       </c>
       <c r="G87" s="17">
-        <f>(F87/C87)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>1239</v>
       </c>
@@ -10788,18 +12044,32 @@
         <v>2</v>
       </c>
       <c r="E88" s="17">
-        <f>(D88/C88)*100</f>
+        <f t="shared" si="4"/>
         <v>22.222222222222221</v>
       </c>
       <c r="F88" s="7">
         <v>0</v>
       </c>
       <c r="G88" s="17">
-        <f>(F88/C88)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>2</v>
+      </c>
+      <c r="I88" s="17">
+        <f t="shared" si="6"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>1212</v>
       </c>
@@ -10813,18 +12083,32 @@
         <v>2</v>
       </c>
       <c r="E89" s="17">
-        <f>(D89/C89)*100</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F89" s="7">
         <v>0</v>
       </c>
       <c r="G89" s="17">
-        <f>(F89/C89)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>1182</v>
       </c>
@@ -10838,68 +12122,110 @@
         <v>2</v>
       </c>
       <c r="E90" s="17">
-        <f>(D90/C90)*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F90" s="7">
         <v>0</v>
       </c>
       <c r="G90" s="17">
-        <f>(F90/C90)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>2</v>
+      </c>
+      <c r="I90" s="17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="19">
         <v>1201</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="20">
         <v>10</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
       </c>
       <c r="E91" s="17">
-        <f>(D91/C91)*100</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F91" s="7">
         <v>0</v>
       </c>
       <c r="G91" s="17">
-        <f>(F91/C91)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>1</v>
+      </c>
+      <c r="I91" s="17">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+      <c r="K91" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>1207</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="7">
         <v>9</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
       </c>
       <c r="E92" s="17">
-        <f>(D92/C92)*100</f>
+        <f t="shared" si="4"/>
         <v>11.111111111111111</v>
       </c>
       <c r="F92" s="7">
         <v>0</v>
       </c>
       <c r="G92" s="17">
-        <f>(F92/C92)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="17">
+        <f t="shared" si="6"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>1202</v>
       </c>
@@ -10913,18 +12239,32 @@
         <v>1</v>
       </c>
       <c r="E93" s="17">
-        <f>(D93/C93)*100</f>
+        <f t="shared" si="4"/>
         <v>14.285714285714285</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
       </c>
       <c r="G93" s="17">
-        <f>(F93/C93)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" s="17">
+        <f t="shared" si="6"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>1196</v>
       </c>
@@ -10938,18 +12278,32 @@
         <v>1</v>
       </c>
       <c r="E94" s="17">
-        <f>(D94/C94)*100</f>
+        <f t="shared" si="4"/>
         <v>33.333333333333329</v>
       </c>
       <c r="F94" s="7">
         <v>0</v>
       </c>
       <c r="G94" s="17">
-        <f>(F94/C94)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>1</v>
+      </c>
+      <c r="I94" s="17">
+        <f t="shared" si="6"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>1187</v>
       </c>
@@ -10963,18 +12317,32 @@
         <v>0</v>
       </c>
       <c r="E95" s="17">
-        <f>(D95/C95)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F95" s="7">
         <v>0</v>
       </c>
       <c r="G95" s="17">
-        <f>(F95/C95)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+      <c r="K95" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>1171</v>
       </c>
@@ -10988,18 +12356,32 @@
         <v>0</v>
       </c>
       <c r="E96" s="17">
-        <f>(D96/C96)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F96" s="7">
         <v>0</v>
       </c>
       <c r="G96" s="17">
-        <f>(F96/C96)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>1229</v>
       </c>
@@ -11013,23 +12395,37 @@
         <v>0</v>
       </c>
       <c r="E97" s="17">
-        <f>(D97/C97)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F97" s="7">
         <v>0</v>
       </c>
       <c r="G97" s="17">
-        <f>(F97/C97)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C98" s="7">
         <v>3</v>
@@ -11038,51 +12434,75 @@
         <v>0</v>
       </c>
       <c r="E98" s="17">
-        <f>(D98/C98)*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F98" s="7">
         <v>0</v>
       </c>
       <c r="G98" s="17">
-        <f>(F98/C98)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C99" s="7">
+        <v>207</v>
+      </c>
+      <c r="C99" s="6">
         <v>3</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <v>0</v>
       </c>
       <c r="E99" s="17">
-        <f>(D99/C99)*100</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
         <v>0</v>
       </c>
       <c r="G99" s="17">
-        <f>(F99/C99)*100</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+      <c r="K99" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G7">
-    <sortState ref="A8:G99">
-      <sortCondition descending="1" ref="F7"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A7:K7"/>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;A&amp;R&amp;P de &amp;N</oddFooter>
   </headerFooter>

--- a/src/site/mining.xlsx
+++ b/src/site/mining.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="9555" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Setup" sheetId="24" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="R3" sheetId="18" r:id="rId6"/>
     <sheet name="R4" sheetId="19" r:id="rId7"/>
     <sheet name="R5" sheetId="20" r:id="rId8"/>
+    <sheet name="busca03" sheetId="25" r:id="rId9"/>
+    <sheet name="busca04" sheetId="28" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'R5'!$A$7:$K$7</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="501">
   <si>
     <t>boolean</t>
   </si>
@@ -1488,6 +1490,45 @@
   </si>
   <si>
     <t>% same_class_interface</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total geral</t>
+  </si>
+  <si>
+    <t>java.util.TreeSet</t>
+  </si>
+  <si>
+    <t>Java API - Other (top 3 PARAM)</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>Java API - Other (not top 3 PARAM)</t>
+  </si>
+  <si>
+    <t>Java API - Other (PARAM)</t>
+  </si>
+  <si>
+    <t>User defined (top 3 PARAM)</t>
+  </si>
+  <si>
+    <t>com.liferay.portal.kernel.util.OrderByComparator</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
+    <t>org.hibernate.engine.SessionImplementor</t>
+  </si>
+  <si>
+    <t>User defined (not top 3 PARAM)</t>
+  </si>
+  <si>
+    <t>User defined (PARAM)</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,6 +1576,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1550,7 +1598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1573,11 +1621,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1637,6 +1819,106 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2593,6 +2875,682 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25141</v>
+      </c>
+      <c r="E5" s="23">
+        <v>6.5288071499999996</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="50"/>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1394</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.36200458000000002</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="50"/>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2532</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.65752912299999999</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="50"/>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5997</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1.557346823</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="50"/>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3333</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.86553892899999996</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>109373</v>
+      </c>
+      <c r="E10" s="23">
+        <v>28.402817090999999</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7">
+        <v>27978</v>
+      </c>
+      <c r="E11" s="23">
+        <v>7.2655410070000004</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="50"/>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2198</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.57079344899999995</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30">
+        <v>177946</v>
+      </c>
+      <c r="G13" s="31">
+        <v>46.210378157000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="37">
+        <v>847</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.219955437</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7">
+        <v>46</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.1945631E-2</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7">
+        <v>141</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3.6615957999999997E-2</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7">
+        <v>108</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2.8046265000000001E-2</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7">
+        <v>526</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.13659570200000001</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7">
+        <v>474</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.12309194499999999</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
+      <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7">
+        <v>58</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1.5061883E-2</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="51"/>
+      <c r="C21" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30">
+        <v>2200</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.57131282400000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="46">
+        <v>167785</v>
+      </c>
+      <c r="E22" s="47">
+        <v>43.571691968000003</v>
+      </c>
+      <c r="F22" s="46">
+        <v>167785</v>
+      </c>
+      <c r="G22" s="47">
+        <v>43.571691968000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="37">
+        <v>72</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1.8697510000000001E-2</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="50"/>
+      <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2379</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.61779691299999995</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <v>111</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2.8825328000000001E-2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="23">
+        <v>2.5968760000000001E-3</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7">
+        <v>385</v>
+      </c>
+      <c r="E27" s="23">
+        <v>9.9979743999999995E-2</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="7">
+        <v>100</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2.5968763999999998E-2</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7">
+        <v>12</v>
+      </c>
+      <c r="E29" s="23">
+        <v>3.116251E-3</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2946</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.76503980999999999</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3455</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.89722082199999997</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="7">
+        <v>357</v>
+      </c>
+      <c r="E32" s="23">
+        <v>9.2708490000000005E-2</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="7">
+        <v>93</v>
+      </c>
+      <c r="E33" s="23">
+        <v>2.4150951E-2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="50"/>
+      <c r="C34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="7">
+        <v>62</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1.6100633999999999E-2</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="50"/>
+      <c r="C35" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D35" s="7">
+        <v>15</v>
+      </c>
+      <c r="E35" s="23">
+        <v>3.895314E-3</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="50"/>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="7">
+        <v>857</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.222552314</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="51"/>
+      <c r="C37" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30">
+        <v>10854</v>
+      </c>
+      <c r="G37" s="31">
+        <v>2.818649728</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="37">
+        <v>8237</v>
+      </c>
+      <c r="E38" s="38">
+        <v>2.139047154</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="50"/>
+      <c r="C39" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" s="7">
+        <v>10573</v>
+      </c>
+      <c r="E39" s="23">
+        <v>2.7456774990000001</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="53"/>
+      <c r="C40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="7">
+        <v>59418</v>
+      </c>
+      <c r="E40" s="23">
+        <v>15.430120649999999</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7">
+        <v>101255</v>
+      </c>
+      <c r="E41" s="23">
+        <v>26.294672767000002</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30">
+        <v>179483</v>
+      </c>
+      <c r="G42" s="31">
+        <v>46.609518070999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="52" t="s">
+        <v>495</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="D43" s="37">
+        <v>4285</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1.11276157</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="50"/>
+      <c r="C44" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2231</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.57936314200000005</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="53"/>
+      <c r="C45" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1864</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0.48405777500000002</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7">
+        <v>139495</v>
+      </c>
+      <c r="E46" s="23">
+        <v>36.251284149999996</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="30">
+        <v>147875</v>
+      </c>
+      <c r="G47" s="31">
+        <v>38.401310903000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B43:B45"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A252"/>
@@ -4406,14 +5364,14 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="10" customWidth="1"/>
@@ -5159,9 +6117,6 @@
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;A&amp;R&amp;P de &amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -5172,8 +6127,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E94" sqref="E52:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5181,7 +6136,7 @@
     <col min="1" max="1" width="28.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="3" bestFit="1" customWidth="1"/>
@@ -5947,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="C52" s="7">
-        <v>68334</v>
+        <v>25141</v>
       </c>
       <c r="D52" s="17">
-        <v>17.745495717000001</v>
+        <v>6.5288071499999996</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="17"/>
@@ -5963,10 +6918,10 @@
         <v>53</v>
       </c>
       <c r="C53" s="7">
-        <v>1067</v>
+        <v>1394</v>
       </c>
       <c r="D53" s="17">
-        <v>0.27708672000000001</v>
+        <v>0.36200458000000002</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="17"/>
@@ -5979,10 +6934,10 @@
         <v>54</v>
       </c>
       <c r="C54" s="7">
-        <v>768</v>
+        <v>2532</v>
       </c>
       <c r="D54" s="17">
-        <v>0.199440113</v>
+        <v>0.65752912299999999</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="17"/>
@@ -5995,10 +6950,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="7">
-        <v>3615</v>
+        <v>5997</v>
       </c>
       <c r="D55" s="17">
-        <v>0.93877084600000005</v>
+        <v>1.557346823</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="17"/>
@@ -6011,10 +6966,10 @@
         <v>56</v>
       </c>
       <c r="C56" s="7">
-        <v>1859</v>
+        <v>3333</v>
       </c>
       <c r="D56" s="17">
-        <v>0.48275933700000001</v>
+        <v>0.86553892899999996</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="17"/>
@@ -6027,10 +6982,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="7">
-        <v>32620</v>
+        <v>109373</v>
       </c>
       <c r="D57" s="17">
-        <v>8.4710110669999992</v>
+        <v>28.402817090999999</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="17"/>
@@ -6043,10 +6998,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="7">
-        <v>5084</v>
+        <v>27978</v>
       </c>
       <c r="D58" s="17">
-        <v>1.320252</v>
+        <v>7.2655410070000004</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="17"/>
@@ -6059,10 +7014,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="7">
-        <v>1587</v>
+        <v>2198</v>
       </c>
       <c r="D59" s="17">
-        <v>0.412124296</v>
+        <v>0.57079344899999995</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="17"/>
@@ -6075,10 +7030,10 @@
       <c r="C60" s="7"/>
       <c r="D60" s="17"/>
       <c r="E60" s="7">
-        <v>114934</v>
+        <v>177946</v>
       </c>
       <c r="F60" s="17">
-        <v>29.846940100000001</v>
+        <v>46.210378157000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6089,10 +7044,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="7">
-        <v>683</v>
+        <v>847</v>
       </c>
       <c r="D61" s="17">
-        <v>0.17736666300000001</v>
+        <v>0.219955437</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="17"/>
@@ -6105,10 +7060,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D62" s="17">
-        <v>1.428282E-2</v>
+        <v>1.1945631E-2</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="17"/>
@@ -6121,10 +7076,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="7">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D63" s="17">
-        <v>5.3495655000000003E-2</v>
+        <v>3.6615957999999997E-2</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="17"/>
@@ -6137,10 +7092,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="7">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D64" s="17">
-        <v>3.4019081E-2</v>
+        <v>2.8046265000000001E-2</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="17"/>
@@ -6153,10 +7108,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="7">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="D65" s="17">
-        <v>0.13399882599999999</v>
+        <v>0.13659570200000001</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="17"/>
@@ -6169,10 +7124,10 @@
         <v>65</v>
       </c>
       <c r="C66" s="7">
-        <v>220</v>
+        <v>474</v>
       </c>
       <c r="D66" s="17">
-        <v>5.7131281999999999E-2</v>
+        <v>0.12309194499999999</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="17"/>
@@ -6185,10 +7140,10 @@
         <v>66</v>
       </c>
       <c r="C67" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D67" s="17">
-        <v>2.5449388999999999E-2</v>
+        <v>1.5061883E-2</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="17"/>
@@ -6201,10 +7156,10 @@
       <c r="C68" s="7"/>
       <c r="D68" s="17"/>
       <c r="E68" s="7">
-        <v>1909</v>
+        <v>2200</v>
       </c>
       <c r="F68" s="17">
-        <v>0.49574371900000003</v>
+        <v>0.57131282400000005</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6215,16 +7170,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="7">
-        <v>45256</v>
+        <v>167785</v>
       </c>
       <c r="D69" s="17">
-        <v>11.752424184000001</v>
+        <v>43.571691968000003</v>
       </c>
       <c r="E69" s="7">
-        <v>45256</v>
+        <v>167785</v>
       </c>
       <c r="F69" s="17">
-        <v>11.752424184000001</v>
+        <v>43.571691968000003</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6235,10 +7190,10 @@
         <v>70</v>
       </c>
       <c r="C70" s="7">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="D70" s="17">
-        <v>5.5832844E-2</v>
+        <v>1.8697510000000001E-2</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="17"/>
@@ -6251,10 +7206,10 @@
         <v>71</v>
       </c>
       <c r="C71" s="7">
-        <v>731</v>
+        <v>2379</v>
       </c>
       <c r="D71" s="17">
-        <v>0.18983167000000001</v>
+        <v>0.61779691299999995</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="17"/>
@@ -6267,10 +7222,10 @@
         <v>72</v>
       </c>
       <c r="C72" s="7">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D72" s="17">
-        <v>2.3371888E-2</v>
+        <v>2.8825328000000001E-2</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="17"/>
@@ -6283,10 +7238,10 @@
         <v>73</v>
       </c>
       <c r="C73" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D73" s="17">
-        <v>3.3759390000000001E-3</v>
+        <v>2.5968760000000001E-3</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="17"/>
@@ -6299,10 +7254,10 @@
         <v>74</v>
       </c>
       <c r="C74" s="7">
-        <v>96</v>
+        <v>385</v>
       </c>
       <c r="D74" s="17">
-        <v>2.4930014E-2</v>
+        <v>9.9979743999999995E-2</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="17"/>
@@ -6315,10 +7270,10 @@
         <v>75</v>
       </c>
       <c r="C75" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D75" s="17">
-        <v>1.03875E-3</v>
+        <v>2.5968763999999998E-2</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="17"/>
@@ -6331,10 +7286,10 @@
         <v>76</v>
       </c>
       <c r="C76" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17">
-        <v>2.337188E-3</v>
+        <v>3.116251E-3</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="17"/>
@@ -6347,10 +7302,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="7">
-        <v>10047</v>
+        <v>2946</v>
       </c>
       <c r="D77" s="17">
-        <v>2.6091000000000002</v>
+        <v>0.76503980999999999</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="17"/>
@@ -6363,10 +7318,10 @@
         <v>78</v>
       </c>
       <c r="C78" s="7">
-        <v>1067</v>
+        <v>3455</v>
       </c>
       <c r="D78" s="17">
-        <v>0.27708672000000001</v>
+        <v>0.89722082199999997</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="17"/>
@@ -6379,10 +7334,10 @@
         <v>79</v>
       </c>
       <c r="C79" s="7">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="D79" s="17">
-        <v>0.14464601899999999</v>
+        <v>9.2708490000000005E-2</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="17"/>
@@ -6395,10 +7350,10 @@
         <v>80</v>
       </c>
       <c r="C80" s="7">
-        <v>294</v>
+        <v>93</v>
       </c>
       <c r="D80" s="17">
-        <v>7.6348167999999994E-2</v>
+        <v>2.4150951E-2</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="17"/>
@@ -6411,10 +7366,10 @@
         <v>81</v>
       </c>
       <c r="C81" s="7">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="D81" s="17">
-        <v>5.6092531000000001E-2</v>
+        <v>1.6100633999999999E-2</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="17"/>
@@ -6424,13 +7379,13 @@
         <v>69</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>82</v>
+        <v>490</v>
       </c>
       <c r="C82" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D82" s="17">
-        <v>5.1937499999999998E-4</v>
+        <v>3.895314E-3</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="17"/>
@@ -6443,10 +7398,10 @@
         <v>83</v>
       </c>
       <c r="C83" s="7">
-        <v>621</v>
+        <v>857</v>
       </c>
       <c r="D83" s="17">
-        <v>0.16126602900000001</v>
+        <v>0.222552314</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="17"/>
@@ -6459,162 +7414,162 @@
       <c r="C84" s="7"/>
       <c r="D84" s="17"/>
       <c r="E84" s="7">
-        <v>13962</v>
+        <v>10854</v>
       </c>
       <c r="F84" s="17">
-        <v>3.6257589370000001</v>
+        <v>2.818649728</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>115</v>
+        <v>491</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C85" s="7">
-        <v>3949</v>
+        <v>8237</v>
       </c>
       <c r="D85" s="17">
-        <v>1.02550652</v>
+        <v>2.139047154</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>115</v>
+        <v>491</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>84</v>
+        <v>492</v>
       </c>
       <c r="C86" s="7">
-        <v>31113</v>
+        <v>10573</v>
       </c>
       <c r="D86" s="17">
-        <v>8.0796617820000005</v>
+        <v>2.7456774990000001</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="17"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>115</v>
+        <v>491</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C87" s="7">
-        <v>3184</v>
+        <v>59418</v>
       </c>
       <c r="D87" s="17">
-        <v>0.82684546999999997</v>
+        <v>15.430120649999999</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="17"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="7">
-        <v>60101</v>
+        <v>101255</v>
       </c>
       <c r="D88" s="17">
-        <v>15.607487314</v>
+        <v>26.294672767000002</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="17"/>
       <c r="E89" s="7">
-        <v>98347</v>
+        <v>179483</v>
       </c>
       <c r="F89" s="17">
-        <v>25.539501088000002</v>
+        <v>46.609518070999997</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="C90" s="7">
-        <v>1478</v>
+        <v>4285</v>
       </c>
       <c r="D90" s="17">
-        <v>0.38381834300000001</v>
+        <v>1.11276157</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>319</v>
+        <v>497</v>
       </c>
       <c r="C91" s="7">
-        <v>764</v>
+        <v>2231</v>
       </c>
       <c r="D91" s="17">
-        <v>0.198401362</v>
+        <v>0.57936314200000005</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>320</v>
+        <v>498</v>
       </c>
       <c r="C92" s="7">
-        <v>721</v>
+        <v>1864</v>
       </c>
       <c r="D92" s="17">
-        <v>0.18723479300000001</v>
+        <v>0.48405777500000002</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>121</v>
+        <v>499</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="7">
-        <v>107707</v>
+        <v>139495</v>
       </c>
       <c r="D93" s="17">
-        <v>27.970177469999999</v>
+        <v>36.251284149999996</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>122</v>
+        <v>500</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="17"/>
       <c r="E94" s="7">
-        <v>110670</v>
+        <v>147875</v>
       </c>
       <c r="F94" s="17">
-        <v>28.739631970000001</v>
+        <v>38.401310903000002</v>
       </c>
     </row>
   </sheetData>
@@ -6634,8 +7589,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8713,7 +9668,9 @@
   </sheetPr>
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12507,4 +13464,694 @@
     <oddFooter>&amp;C&amp;A&amp;R&amp;P de &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:G48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>68334</v>
+      </c>
+      <c r="E5" s="23">
+        <v>17.745495717000001</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="50"/>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.27708672000000001</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="50"/>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7">
+        <v>768</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.199440113</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="50"/>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3615</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.93877084600000005</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="50"/>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1859</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.48275933700000001</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>32620</v>
+      </c>
+      <c r="E10" s="23">
+        <v>8.4710110669999992</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5084</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1.320252</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="50"/>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1587</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.412124296</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30">
+        <v>114934</v>
+      </c>
+      <c r="G13" s="31">
+        <v>29.846940100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="27">
+        <v>683</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.17736666300000001</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7">
+        <v>55</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.428282E-2</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7">
+        <v>206</v>
+      </c>
+      <c r="E16" s="23">
+        <v>5.3495655000000003E-2</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7">
+        <v>131</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3.4019081E-2</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7">
+        <v>516</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.13399882599999999</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
+      <c r="C19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7">
+        <v>220</v>
+      </c>
+      <c r="E19" s="23">
+        <v>5.7131281999999999E-2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
+      <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7">
+        <v>98</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2.5449388999999999E-2</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="51"/>
+      <c r="C21" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30">
+        <v>1909</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.49574371900000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="34">
+        <v>45256</v>
+      </c>
+      <c r="E22" s="35">
+        <v>11.752424184000001</v>
+      </c>
+      <c r="F22" s="34">
+        <v>45256</v>
+      </c>
+      <c r="G22" s="35">
+        <v>11.752424184000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="37">
+        <v>215</v>
+      </c>
+      <c r="E23" s="38">
+        <v>5.5832844E-2</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="50"/>
+      <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="7">
+        <v>731</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.18983167000000001</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <v>90</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2.3371888E-2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="7">
+        <v>13</v>
+      </c>
+      <c r="E26" s="23">
+        <v>3.3759390000000001E-3</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7">
+        <v>96</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2.4930014E-2</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1.03875E-3</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9</v>
+      </c>
+      <c r="E29" s="23">
+        <v>2.337188E-3</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10047</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2.6091000000000002</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.27708672000000001</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="7">
+        <v>557</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.14464601899999999</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="7">
+        <v>294</v>
+      </c>
+      <c r="E33" s="23">
+        <v>7.6348167999999994E-2</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="50"/>
+      <c r="C34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="7">
+        <v>216</v>
+      </c>
+      <c r="E34" s="23">
+        <v>5.6092531000000001E-2</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="50"/>
+      <c r="C35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="23">
+        <v>5.1937499999999998E-4</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="50"/>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="7">
+        <v>621</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.16126602900000001</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="51"/>
+      <c r="C37" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="30">
+        <v>13962</v>
+      </c>
+      <c r="G37" s="31">
+        <v>3.6257589370000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="27">
+        <v>3949</v>
+      </c>
+      <c r="E38" s="28">
+        <v>1.02550652</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="50"/>
+      <c r="C39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="7">
+        <v>31113</v>
+      </c>
+      <c r="E39" s="23">
+        <v>8.0796617820000005</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="53"/>
+      <c r="C40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3184</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.82684546999999997</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7">
+        <v>60101</v>
+      </c>
+      <c r="E41" s="23">
+        <v>15.607487314</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="30">
+        <v>98347</v>
+      </c>
+      <c r="G42" s="31">
+        <v>25.539501088000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="27">
+        <v>1478</v>
+      </c>
+      <c r="E43" s="28">
+        <v>0.38381834300000001</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="50"/>
+      <c r="C44" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="7">
+        <v>764</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.198401362</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="53"/>
+      <c r="C45" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="7">
+        <v>721</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0.18723479300000001</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7">
+        <v>107707</v>
+      </c>
+      <c r="E46" s="23">
+        <v>27.970177469999999</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="30">
+        <v>110670</v>
+      </c>
+      <c r="G47" s="31">
+        <v>28.739631970000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="40"/>
+      <c r="C48" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="44">
+        <f>SUM(F1:F47)</f>
+        <v>385078</v>
+      </c>
+      <c r="G48" s="44">
+        <f>SUM(G1:G47)</f>
+        <v>99.999999998000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B43:B45"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>